--- a/ARG_COMPARISON_EXCEL/ARGS_post_order/father_yes.xlsx
+++ b/ARG_COMPARISON_EXCEL/ARGS_post_order/father_yes.xlsx
@@ -33,7 +33,7 @@
     <t>1,0</t>
   </si>
   <si>
-    <t>482,0.67,10.86,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.2,0.25,0.07,0.0,373,0.2,8.66,0.0,0.01,1.0,0.0,0.0,0.0,0.1,0.2,0.2,0.07,0.13</t>
+    <t>16.17,4.97,1.27,1.47,0.87,0.67,10.86,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.14,0.1,0.21,0.05,0.05,0.12,0.01,0.09,0.0,0.0,13.06,16.4,4.55,1.07,1.22,0.88,0.2,8.66,0.0,0.01,1.0,0,0,0.0,0.0,0.0,0.09,0.05,0.23,0.05,0.05,0.17,0.0,0.0,0.13,0.13,19.91</t>
   </si>
   <si>
     <t>arg35664</t>
@@ -42,7 +42,7 @@
     <t>arg35750</t>
   </si>
   <si>
-    <t>347,0.25,12.59,0.0,0.0,1.0,0.0,0.0,0.0,0.35,0.5,0.4,0.07,0.13,300,0.5,17.77,0.0,0.02,2.5,0.0,0.0,0.0,0.0,0.2,0.2,0.0,0.0</t>
+    <t>16.25,5.34,0.85,0.98,0.87,0.25,12.59,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.17,0.08,0.23,0.02,0.02,0.11,0.0,0.0,0.13,0.13,15.39,23.0,6.52,0.6,0.49,1.23,0.5,17.77,0.0,0.02,2.5,0,0,0.0,0.0,0.0,0.22,0.17,0.13,0.02,0.02,0.04,0.11,0.18,0.0,0.0,4.25</t>
   </si>
   <si>
     <t>arg35609</t>
@@ -51,25 +51,25 @@
     <t>0,1</t>
   </si>
   <si>
-    <t>371,0.5,11.98,0.0,0.03,1.0,0.0,0.0,0.0,0.2,0.15,0.2,0.0,0.0,482,0.67,10.86,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.2,0.25,0.07,0.0</t>
+    <t>18.25,5.08,0.96,0.98,0.98,0.5,11.98,0.0,0.03,1.0,0,0,0.0,0.0,0.0,0.15,0.07,0.18,0.07,0.07,0.12,0.0,0.0,0.0,0.0,16.85,16.17,4.97,1.27,1.47,0.87,0.67,10.86,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.14,0.1,0.21,0.05,0.05,0.12,0.01,0.09,0.0,0.0,13.06</t>
   </si>
   <si>
     <t>arg35720</t>
   </si>
   <si>
-    <t>347,0.25,12.59,0.0,0.0,1.0,0.0,0.0,0.0,0.35,0.5,0.4,0.07,0.13,198,0.0,10.37,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.2,0.2,0.0,0.0</t>
+    <t>16.25,5.34,0.85,0.98,0.87,0.25,12.59,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.17,0.08,0.23,0.02,0.02,0.11,0.0,0.0,0.13,0.13,15.39,42.0,4.71,0.55,0.24,2.25,0.0,10.37,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.12,0.07,0.29,0.05,0.05,0.07,0.02,0.0,0.0,0.0,29.0</t>
   </si>
   <si>
     <t>arg35759</t>
   </si>
   <si>
-    <t>313,0.33,16.98,0.0,0.04,1.0,0.0,0.0,0.0,0.3,0.35,0.35,0.07,0.0,300,0.5,17.77,0.0,0.02,2.5,0.0,0.0,0.0,0.0,0.2,0.2,0.0,0.0</t>
+    <t>17.33,6.02,0.68,0.73,0.93,0.33,16.98,0.0,0.04,1.0,0,0,0.0,0.0,0.0,0.23,0.08,0.19,0.08,0.08,0.06,0.06,0.09,0.0,0.0,12.94,23.0,6.52,0.6,0.49,1.23,0.5,17.77,0.0,0.02,2.5,0,0,0.0,0.0,0.0,0.22,0.17,0.13,0.02,0.02,0.04,0.11,0.18,0.0,0.0,4.25</t>
   </si>
   <si>
     <t>arg35650</t>
   </si>
   <si>
-    <t>371,0.5,11.98,0.0,0.03,1.0,0.0,0.0,0.0,0.2,0.15,0.2,0.0,0.0,503,0.25,8.94,0.0,0.01,1.0,0.0,0.0,0.0,0.05,0.1,0.1,0.0,0.0</t>
+    <t>18.25,5.08,0.96,0.98,0.98,0.5,11.98,0.0,0.03,1.0,0,0,0.0,0.0,0.0,0.15,0.07,0.18,0.07,0.07,0.12,0.0,0.0,0.0,0.0,16.85,13.25,4.75,1.39,1.96,0.71,0.25,8.94,0.0,0.01,1.0,0,0,0.0,0.0,0.0,0.11,0.08,0.26,0.02,0.02,0.2,0.01,0.0,0.0,0.0,25.13</t>
   </si>
   <si>
     <t>arg35716</t>
@@ -78,7 +78,7 @@
     <t>arg35655</t>
   </si>
   <si>
-    <t>511,0.17,9.94,0.0,0.02,1.0,0.0,0.0,0.0,0.2,0.4,0.4,0.0,0.0,318,3.0,11.9,0.0,0.0,1.0,0.0,0.0,0.0,0.15,0.35,0.4,0.0,0.0</t>
+    <t>18.0,4.73,1.41,1.47,0.96,0.17,9.94,0.0,0.02,1.0,0,0,0.0,0.0,0.0,0.11,0.06,0.19,0.06,0.06,0.11,0.0,0.0,0.0,0.0,15.94,66.0,4.82,0.86,0.24,3.53,3.0,11.9,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.15,0.05,0.23,0.09,0.09,0.08,0.02,0.0,0.0,0.0,18.14</t>
   </si>
   <si>
     <t>arg35636</t>
@@ -87,52 +87,52 @@
     <t>arg35642</t>
   </si>
   <si>
-    <t>350,1.0,13.33,0.0,0.0,1.0,0.0,0.0,0.0,0.2,0.35,0.35,0.0,0.0,555,0.8,11.9,0.0,0.02,1.0,0.0,0.0,0.0,0.15,0.25,0.2,0.2,0.0</t>
+    <t>33.5,5.22,0.88,0.49,1.79,1.0,13.33,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.12,0.09,0.21,0.06,0.06,0.1,0.01,0.0,0.0,0.0,16.47,21.6,5.14,1.41,1.22,1.16,0.8,11.9,0.0,0.02,1.0,0,0,0.0,0.0,0.0,0.17,0.05,0.2,0.05,0.05,0.21,0.0,0.0,0.0,0.0,8.33</t>
   </si>
   <si>
     <t>arg35688</t>
   </si>
   <si>
-    <t>348,0.2,10.27,0.0,0.01,1.0,0.0,0.0,0.0,0.3,0.25,0.3,0.0,0.0,198,0.0,10.37,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.2,0.2,0.0,0.0</t>
+    <t>14.2,4.9,0.93,1.22,0.76,0.2,10.27,0.0,0.01,1.0,0,0,0.0,0.0,0.0,0.15,0.07,0.18,0.06,0.06,0.15,0.01,0.0,0.0,0.0,19.18,42.0,4.71,0.55,0.24,2.25,0.0,10.37,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.12,0.07,0.29,0.05,0.05,0.07,0.02,0.0,0.0,0.0,29.0</t>
   </si>
   <si>
     <t>arg35643</t>
   </si>
   <si>
-    <t>482,0.67,10.86,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.2,0.25,0.07,0.0,348,0.2,8.88,0.0,0.0,1.0,0.0,0.0,0.0,0.15,0.1,0.1,0.07,0.13</t>
+    <t>16.17,4.97,1.27,1.47,0.87,0.67,10.86,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.14,0.1,0.21,0.05,0.05,0.12,0.01,0.09,0.0,0.0,13.06,15.0,4.64,0.98,1.22,0.8,0.2,8.88,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.11,0.09,0.2,0.09,0.09,0.13,0.0,0.0,0.13,0.13,25.5</t>
   </si>
   <si>
     <t>arg35751</t>
   </si>
   <si>
-    <t>316,1.33,12.53,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.25,0.25,0.0,0.0,313,0.33,16.98,0.0,0.04,1.0,0.0,0.0,0.0,0.3,0.35,0.35,0.07,0.0</t>
+    <t>20.33,5.18,0.8,0.73,1.09,1.33,12.53,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.18,0.03,0.2,0.07,0.07,0.1,0.0,0.0,0.0,0.0,19.5,17.33,6.02,0.68,0.73,0.93,0.33,16.98,0.0,0.04,1.0,0,0,0.0,0.0,0.0,0.23,0.08,0.19,0.08,0.08,0.06,0.06,0.09,0.0,0.0,12.94</t>
   </si>
   <si>
     <t>arg35714</t>
   </si>
   <si>
-    <t>198,0.0,10.37,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.2,0.2,0.0,0.0,552,0.29,12.33,0.0,0.02,1.0,0.0,0.0,0.0,0.25,0.35,0.35,0.07,0.13</t>
+    <t>42.0,4.71,0.55,0.24,2.25,0.0,10.37,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.12,0.07,0.29,0.05,0.05,0.07,0.02,0.0,0.0,0.0,29.0,14.71,5.36,1.35,1.71,0.79,0.29,12.33,0.0,0.02,1.0,0,0,0.0,0.0,0.0,0.18,0.1,0.19,0.07,0.07,0.06,0.01,0.0,0.13,0.13,12.48</t>
   </si>
   <si>
     <t>arg35629</t>
   </si>
   <si>
-    <t>250,0.5,12.61,0.0,0.0,1.0,0.0,0.0,0.0,0.2,0.25,0.25,0.0,0.0,347,0.25,12.59,0.0,0.0,1.0,0.0,0.0,0.0,0.35,0.5,0.4,0.07,0.13</t>
+    <t>24.0,5.21,0.63,0.49,1.28,0.5,12.61,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.15,0.02,0.25,0.08,0.08,0.1,0.04,0.0,0.0,0.0,23.67,16.25,5.34,0.85,0.98,0.87,0.25,12.59,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.17,0.08,0.23,0.02,0.02,0.11,0.0,0.0,0.13,0.13,15.39</t>
   </si>
   <si>
     <t>arg35585</t>
   </si>
   <si>
-    <t>383,0.5,12.24,0.0,0.01,1.0,0.0,0.0,0.0,0.05,0.2,0.15,0.0,0.0,371,0.5,11.98,0.0,0.03,1.0,0.0,0.0,0.0,0.2,0.15,0.2,0.0,0.0</t>
+    <t>18.5,5.18,0.97,0.98,0.99,0.5,12.24,0.0,0.01,1.0,0,0,0.0,0.0,0.0,0.15,0.11,0.22,0.03,0.03,0.14,0.0,0.0,0.0,0.0,22.2,18.25,5.08,0.96,0.98,0.98,0.5,11.98,0.0,0.03,1.0,0,0,0.0,0.0,0.0,0.15,0.07,0.18,0.07,0.07,0.12,0.0,0.0,0.0,0.0,16.85</t>
   </si>
   <si>
     <t>arg35615</t>
   </si>
   <si>
-    <t>371,0.5,11.98,0.0,0.03,1.0,0.0,0.0,0.0,0.2,0.15,0.2,0.0,0.0,343,0.33,14.05,0.0,0.03,1.0,0.0,0.0,0.0,0.25,0.2,0.2,0.0,0.0</t>
-  </si>
-  <si>
-    <t>316,1.33,12.53,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.25,0.25,0.0,0.0,348,0.2,10.27,0.0,0.01,1.0,0.0,0.0,0.0,0.3,0.25,0.3,0.0,0.0</t>
+    <t>18.25,5.08,0.96,0.98,0.98,0.5,11.98,0.0,0.03,1.0,0,0,0.0,0.0,0.0,0.15,0.07,0.18,0.07,0.07,0.12,0.0,0.0,0.0,0.0,16.85,21.33,5.36,0.84,0.73,1.14,0.33,14.05,0.0,0.03,1.0,0,0,0.0,0.0,0.0,0.19,0.06,0.14,0.09,0.09,0.16,0.05,0.09,0.0,0.0,14.0</t>
+  </si>
+  <si>
+    <t>20.33,5.18,0.8,0.73,1.09,1.33,12.53,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.18,0.03,0.2,0.07,0.07,0.1,0.0,0.0,0.0,0.0,19.5,14.2,4.9,0.93,1.22,0.76,0.2,10.27,0.0,0.01,1.0,0,0,0.0,0.0,0.0,0.15,0.07,0.18,0.06,0.06,0.15,0.01,0.0,0.0,0.0,19.18</t>
   </si>
   <si>
     <t>arg35640</t>
@@ -141,25 +141,25 @@
     <t>arg35584</t>
   </si>
   <si>
-    <t>354,0.25,10.16,0.0,0.0,1.0,0.0,0.0,0.0,0.15,0.35,0.35,0.0,0.0,545,0.25,10.37,0.0,0.01,1.0,0.0,0.0,0.0,0.2,0.25,0.25,0.13,0.13</t>
-  </si>
-  <si>
-    <t>316,1.33,12.53,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.25,0.25,0.0,0.0,545,0.25,10.37,0.0,0.01,1.0,0.0,0.0,0.0,0.2,0.25,0.25,0.13,0.13</t>
+    <t>18.0,4.92,0.94,0.98,0.96,0.25,10.16,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.13,0.08,0.26,0.04,0.04,0.15,0.01,0.0,0.0,0.0,22.6,13.5,5.05,1.41,1.96,0.72,0.25,10.37,0.0,0.01,1.0,0,0,0.0,0.0,0.0,0.1,0.06,0.18,0.06,0.06,0.09,0.02,0.18,0.13,0.13,12.2</t>
+  </si>
+  <si>
+    <t>20.33,5.18,0.8,0.73,1.09,1.33,12.53,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.18,0.03,0.2,0.07,0.07,0.1,0.0,0.0,0.0,0.0,19.5,13.5,5.05,1.41,1.96,0.72,0.25,10.37,0.0,0.01,1.0,0,0,0.0,0.0,0.0,0.1,0.06,0.18,0.06,0.06,0.09,0.02,0.18,0.13,0.13,12.2</t>
   </si>
   <si>
     <t>arg35619</t>
   </si>
   <si>
-    <t>373,0.2,8.66,0.0,0.01,1.0,0.0,0.0,0.0,0.1,0.2,0.2,0.07,0.13,361,0.2,13.32,0.0,0.02,1.0,0.0,0.0,0.0,0.2,0.2,0.2,0.07,0.13</t>
+    <t>16.4,4.55,1.07,1.22,0.88,0.2,8.66,0.0,0.01,1.0,0,0,0.0,0.0,0.0,0.09,0.05,0.23,0.05,0.05,0.17,0.0,0.0,0.13,0.13,19.91,13.0,5.55,0.85,1.22,0.7,0.2,13.32,0.0,0.02,1.0,0,0,0.0,0.0,0.0,0.14,0.11,0.25,0.05,0.05,0.05,0.05,0.27,0.13,0.13,10.9</t>
   </si>
   <si>
     <t>arg35693</t>
   </si>
   <si>
-    <t>423,1.0,13.98,0.0,0.04,1.5,0.0,0.0,0.0,0.0,0.3,0.35,0.0,0.0,198,0.0,10.37,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.2,0.2,0.0,0.0</t>
-  </si>
-  <si>
-    <t>313,0.33,16.98,0.0,0.04,1.0,0.0,0.0,0.0,0.3,0.35,0.35,0.07,0.0,361,0.2,13.32,0.0,0.02,1.0,0.0,0.0,0.0,0.2,0.2,0.2,0.07,0.13</t>
+    <t>39.0,5.42,1.02,0.49,2.09,1.0,13.98,0.0,0.04,1.5,0,0,0.0,0.0,0.0,0.09,0.1,0.21,0.04,0.04,0.1,0.01,0.0,0.0,0.0,13.05,42.0,4.71,0.55,0.24,2.25,0.0,10.37,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.12,0.07,0.29,0.05,0.05,0.07,0.02,0.0,0.0,0.0,29.0</t>
+  </si>
+  <si>
+    <t>17.33,6.02,0.68,0.73,0.93,0.33,16.98,0.0,0.04,1.0,0,0,0.0,0.0,0.0,0.23,0.08,0.19,0.08,0.08,0.06,0.06,0.09,0.0,0.0,12.94,13.0,5.55,0.85,1.22,0.7,0.2,13.32,0.0,0.02,1.0,0,0,0.0,0.0,0.0,0.14,0.11,0.25,0.05,0.05,0.05,0.05,0.27,0.13,0.13,10.9</t>
   </si>
   <si>
     <t>arg35623</t>
@@ -168,946 +168,946 @@
     <t>arg35635</t>
   </si>
   <si>
-    <t>390,0.25,10.25,0.0,0.0,1.0,0.0,0.0,0.0,0.2,0.25,0.25,0.0,0.0,528,0.2,11.74,0.0,0.0,1.0,0.0,0.0,0.0,0.15,0.3,0.25,0.07,0.13</t>
-  </si>
-  <si>
-    <t>318,3.0,11.9,0.0,0.0,1.0,0.0,0.0,0.0,0.15,0.35,0.4,0.0,0.0,528,0.2,11.74,0.0,0.0,1.0,0.0,0.0,0.0,0.15,0.3,0.25,0.07,0.13</t>
-  </si>
-  <si>
-    <t>354,0.25,10.16,0.0,0.0,1.0,0.0,0.0,0.0,0.15,0.35,0.35,0.0,0.0,503,0.25,8.94,0.0,0.01,1.0,0.0,0.0,0.0,0.05,0.1,0.1,0.0,0.0</t>
+    <t>20.25,4.81,1.06,0.98,1.08,0.25,10.25,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.07,0.1,0.22,0.06,0.06,0.15,0.01,0.0,0.0,0.0,26.38,21.0,5.03,1.37,1.22,1.12,0.2,11.74,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.11,0.04,0.25,0.09,0.09,0.1,0.01,0.0,0.13,0.13,14.94</t>
+  </si>
+  <si>
+    <t>66.0,4.82,0.86,0.24,3.53,3.0,11.9,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.15,0.05,0.23,0.09,0.09,0.08,0.02,0.0,0.0,0.0,18.14,21.0,5.03,1.37,1.22,1.12,0.2,11.74,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.11,0.04,0.25,0.09,0.09,0.1,0.01,0.0,0.13,0.13,14.94</t>
+  </si>
+  <si>
+    <t>18.0,4.92,0.94,0.98,0.96,0.25,10.16,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.13,0.08,0.26,0.04,0.04,0.15,0.01,0.0,0.0,0.0,22.6,13.25,4.75,1.39,1.96,0.71,0.25,8.94,0.0,0.01,1.0,0,0,0.0,0.0,0.0,0.11,0.08,0.26,0.02,0.02,0.2,0.01,0.0,0.0,0.0,25.13</t>
   </si>
   <si>
     <t>arg35732</t>
   </si>
   <si>
-    <t>316,1.33,12.53,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.25,0.25,0.0,0.0,356,0.33,12.99,0.0,0.01,1.0,0.0,0.0,0.0,0.25,0.4,0.45,0.0,0.0</t>
+    <t>20.33,5.18,0.8,0.73,1.09,1.33,12.53,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.18,0.03,0.2,0.07,0.07,0.1,0.0,0.0,0.0,0.0,19.5,23.0,5.16,0.9,0.73,1.23,0.33,12.99,0.0,0.01,1.0,0,0,0.0,0.0,0.0,0.16,0.07,0.19,0.03,0.03,0.13,0.01,0.0,0.0,0.0,19.31</t>
   </si>
   <si>
     <t>arg35638</t>
   </si>
   <si>
-    <t>457,0.0,8.23,0.0,0.02,1.0,0.0,0.0,0.0,0.15,0.25,0.2,0.0,0.0,198,0.0,10.37,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.2,0.2,0.0,0.0</t>
-  </si>
-  <si>
-    <t>457,0.0,8.23,0.0,0.02,1.0,0.0,0.0,0.0,0.15,0.25,0.2,0.0,0.0,356,0.33,12.99,0.0,0.01,1.0,0.0,0.0,0.0,0.25,0.4,0.45,0.0,0.0</t>
+    <t>16.83,4.52,1.32,1.47,0.9,0.0,8.23,0.0,0.02,1.0,0,0,0.0,0.0,0.0,0.14,0.05,0.25,0.07,0.07,0.19,0.0,0.0,0.0,0.0,15.93,42.0,4.71,0.55,0.24,2.25,0.0,10.37,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.12,0.07,0.29,0.05,0.05,0.07,0.02,0.0,0.0,0.0,29.0</t>
+  </si>
+  <si>
+    <t>16.83,4.52,1.32,1.47,0.9,0.0,8.23,0.0,0.02,1.0,0,0,0.0,0.0,0.0,0.14,0.05,0.25,0.07,0.07,0.19,0.0,0.0,0.0,0.0,15.93,23.0,5.16,0.9,0.73,1.23,0.33,12.99,0.0,0.01,1.0,0,0,0.0,0.0,0.0,0.16,0.07,0.19,0.03,0.03,0.13,0.01,0.0,0.0,0.0,19.31</t>
   </si>
   <si>
     <t>arg35666</t>
   </si>
   <si>
-    <t>361,0.2,13.32,0.0,0.02,1.0,0.0,0.0,0.0,0.2,0.2,0.2,0.07,0.13,429,1.0,9.71,0.0,0.0,1.0,0.0,0.0,0.0,0.2,0.25,0.2,0.07,0.13</t>
+    <t>13.0,5.55,0.85,1.22,0.7,0.2,13.32,0.0,0.02,1.0,0,0,0.0,0.0,0.0,0.14,0.11,0.25,0.05,0.05,0.05,0.05,0.27,0.13,0.13,10.9,22.75,4.71,1.19,0.98,1.22,1.0,9.71,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.12,0.07,0.23,0.05,0.05,0.18,0.0,0.0,0.13,0.13,18.83</t>
   </si>
   <si>
     <t>arg35746</t>
   </si>
   <si>
-    <t>254,0.0,11.28,0.0,0.0,1.0,0.0,0.0,0.0,0.15,0.15,0.15,0.0,0.0,429,1.0,9.71,0.0,0.0,1.0,0.0,0.0,0.0,0.2,0.25,0.2,0.07,0.13</t>
-  </si>
-  <si>
-    <t>300,0.5,17.77,0.0,0.02,2.5,0.0,0.0,0.0,0.0,0.2,0.2,0.0,0.0,552,0.29,12.33,0.0,0.02,1.0,0.0,0.0,0.0,0.25,0.35,0.35,0.07,0.13</t>
-  </si>
-  <si>
-    <t>198,0.0,10.37,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.2,0.2,0.0,0.0,316,1.33,12.53,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.25,0.25,0.0,0.0</t>
-  </si>
-  <si>
-    <t>373,0.2,8.66,0.0,0.01,1.0,0.0,0.0,0.0,0.1,0.2,0.2,0.07,0.13,528,0.2,11.74,0.0,0.0,1.0,0.0,0.0,0.0,0.15,0.3,0.25,0.07,0.13</t>
+    <t>17.0,4.98,0.67,0.73,0.91,0.0,11.28,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.14,0.08,0.16,0.08,0.08,0.14,0.0,0.0,0.0,0.0,17.11,22.75,4.71,1.19,0.98,1.22,1.0,9.71,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.12,0.07,0.23,0.05,0.05,0.18,0.0,0.0,0.13,0.13,18.83</t>
+  </si>
+  <si>
+    <t>23.0,6.52,0.6,0.49,1.23,0.5,17.77,0.0,0.02,2.5,0,0,0.0,0.0,0.0,0.22,0.17,0.13,0.02,0.02,0.04,0.11,0.18,0.0,0.0,4.25,14.71,5.36,1.35,1.71,0.79,0.29,12.33,0.0,0.02,1.0,0,0,0.0,0.0,0.0,0.18,0.1,0.19,0.07,0.07,0.06,0.01,0.0,0.13,0.13,12.48</t>
+  </si>
+  <si>
+    <t>42.0,4.71,0.55,0.24,2.25,0.0,10.37,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.12,0.07,0.29,0.05,0.05,0.07,0.02,0.0,0.0,0.0,29.0,20.33,5.18,0.8,0.73,1.09,1.33,12.53,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.18,0.03,0.2,0.07,0.07,0.1,0.0,0.0,0.0,0.0,19.5</t>
+  </si>
+  <si>
+    <t>16.4,4.55,1.07,1.22,0.88,0.2,8.66,0.0,0.01,1.0,0,0,0.0,0.0,0.0,0.09,0.05,0.23,0.05,0.05,0.17,0.0,0.0,0.13,0.13,19.91,21.0,5.03,1.37,1.22,1.12,0.2,11.74,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.11,0.04,0.25,0.09,0.09,0.1,0.01,0.0,0.13,0.13,14.94</t>
   </si>
   <si>
     <t>arg35697</t>
   </si>
   <si>
-    <t>347,0.25,12.59,0.0,0.0,1.0,0.0,0.0,0.0,0.35,0.5,0.4,0.07,0.13,535,0.75,10.46,0.0,0.02,1.0,0.0,0.0,0.0,0.2,0.3,0.25,0.07,0.13</t>
-  </si>
-  <si>
-    <t>457,0.0,8.23,0.0,0.02,1.0,0.0,0.0,0.0,0.15,0.25,0.2,0.0,0.0,300,0.5,17.77,0.0,0.02,2.5,0.0,0.0,0.0,0.0,0.2,0.2,0.0,0.0</t>
-  </si>
-  <si>
-    <t>300,0.5,17.77,0.0,0.02,2.5,0.0,0.0,0.0,0.0,0.2,0.2,0.0,0.0,535,0.75,10.46,0.0,0.02,1.0,0.0,0.0,0.0,0.2,0.3,0.25,0.07,0.13</t>
-  </si>
-  <si>
-    <t>371,0.5,11.98,0.0,0.03,1.0,0.0,0.0,0.0,0.2,0.15,0.2,0.0,0.0,511,0.17,9.94,0.0,0.02,1.0,0.0,0.0,0.0,0.2,0.4,0.4,0.0,0.0</t>
-  </si>
-  <si>
-    <t>313,0.33,16.98,0.0,0.04,1.0,0.0,0.0,0.0,0.3,0.35,0.35,0.07,0.0,545,0.25,10.37,0.0,0.01,1.0,0.0,0.0,0.0,0.2,0.25,0.25,0.13,0.13</t>
-  </si>
-  <si>
-    <t>300,0.5,17.77,0.0,0.02,2.5,0.0,0.0,0.0,0.0,0.2,0.2,0.0,0.0,429,1.0,9.71,0.0,0.0,1.0,0.0,0.0,0.0,0.2,0.25,0.2,0.07,0.13</t>
-  </si>
-  <si>
-    <t>482,0.67,10.86,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.2,0.25,0.07,0.0,318,3.0,11.9,0.0,0.0,1.0,0.0,0.0,0.0,0.15,0.35,0.4,0.0,0.0</t>
+    <t>16.25,5.34,0.85,0.98,0.87,0.25,12.59,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.17,0.08,0.23,0.02,0.02,0.11,0.0,0.0,0.13,0.13,15.39,27.25,4.91,1.43,0.98,1.46,0.75,10.46,0.0,0.02,1.0,0,0,0.0,0.0,0.0,0.15,0.07,0.22,0.06,0.06,0.16,0.01,0.0,0.13,0.13,9.52</t>
+  </si>
+  <si>
+    <t>16.83,4.52,1.32,1.47,0.9,0.0,8.23,0.0,0.02,1.0,0,0,0.0,0.0,0.0,0.14,0.05,0.25,0.07,0.07,0.19,0.0,0.0,0.0,0.0,15.93,23.0,6.52,0.6,0.49,1.23,0.5,17.77,0.0,0.02,2.5,0,0,0.0,0.0,0.0,0.22,0.17,0.13,0.02,0.02,0.04,0.11,0.18,0.0,0.0,4.25</t>
+  </si>
+  <si>
+    <t>23.0,6.52,0.6,0.49,1.23,0.5,17.77,0.0,0.02,2.5,0,0,0.0,0.0,0.0,0.22,0.17,0.13,0.02,0.02,0.04,0.11,0.18,0.0,0.0,4.25,27.25,4.91,1.43,0.98,1.46,0.75,10.46,0.0,0.02,1.0,0,0,0.0,0.0,0.0,0.15,0.07,0.22,0.06,0.06,0.16,0.01,0.0,0.13,0.13,9.52</t>
+  </si>
+  <si>
+    <t>18.25,5.08,0.96,0.98,0.98,0.5,11.98,0.0,0.03,1.0,0,0,0.0,0.0,0.0,0.15,0.07,0.18,0.07,0.07,0.12,0.0,0.0,0.0,0.0,16.85,18.0,4.73,1.41,1.47,0.96,0.17,9.94,0.0,0.02,1.0,0,0,0.0,0.0,0.0,0.11,0.06,0.19,0.06,0.06,0.11,0.0,0.0,0.0,0.0,15.94</t>
+  </si>
+  <si>
+    <t>17.33,6.02,0.68,0.73,0.93,0.33,16.98,0.0,0.04,1.0,0,0,0.0,0.0,0.0,0.23,0.08,0.19,0.08,0.08,0.06,0.06,0.09,0.0,0.0,12.94,13.5,5.05,1.41,1.96,0.72,0.25,10.37,0.0,0.01,1.0,0,0,0.0,0.0,0.0,0.1,0.06,0.18,0.06,0.06,0.09,0.02,0.18,0.13,0.13,12.2</t>
+  </si>
+  <si>
+    <t>23.0,6.52,0.6,0.49,1.23,0.5,17.77,0.0,0.02,2.5,0,0,0.0,0.0,0.0,0.22,0.17,0.13,0.02,0.02,0.04,0.11,0.18,0.0,0.0,4.25,22.75,4.71,1.19,0.98,1.22,1.0,9.71,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.12,0.07,0.23,0.05,0.05,0.18,0.0,0.0,0.13,0.13,18.83</t>
+  </si>
+  <si>
+    <t>16.17,4.97,1.27,1.47,0.87,0.67,10.86,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.14,0.1,0.21,0.05,0.05,0.12,0.01,0.09,0.0,0.0,13.06,66.0,4.82,0.86,0.24,3.53,3.0,11.9,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.15,0.05,0.23,0.09,0.09,0.08,0.02,0.0,0.0,0.0,18.14</t>
   </si>
   <si>
     <t>arg35731</t>
   </si>
   <si>
-    <t>343,0.33,14.05,0.0,0.03,1.0,0.0,0.0,0.0,0.25,0.2,0.2,0.0,0.0,356,0.33,12.99,0.0,0.01,1.0,0.0,0.0,0.0,0.25,0.4,0.45,0.0,0.0</t>
-  </si>
-  <si>
-    <t>350,1.0,13.33,0.0,0.0,1.0,0.0,0.0,0.0,0.2,0.35,0.35,0.0,0.0,250,0.5,12.61,0.0,0.0,1.0,0.0,0.0,0.0,0.2,0.25,0.25,0.0,0.0</t>
-  </si>
-  <si>
-    <t>350,1.0,13.33,0.0,0.0,1.0,0.0,0.0,0.0,0.2,0.35,0.35,0.0,0.0,343,0.33,14.05,0.0,0.03,1.0,0.0,0.0,0.0,0.25,0.2,0.2,0.0,0.0</t>
-  </si>
-  <si>
-    <t>457,0.0,8.23,0.0,0.02,1.0,0.0,0.0,0.0,0.15,0.25,0.2,0.0,0.0,348,0.2,8.88,0.0,0.0,1.0,0.0,0.0,0.0,0.15,0.1,0.1,0.07,0.13</t>
-  </si>
-  <si>
-    <t>423,1.0,13.98,0.0,0.04,1.5,0.0,0.0,0.0,0.0,0.3,0.35,0.0,0.0,482,0.67,10.86,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.2,0.25,0.07,0.0</t>
-  </si>
-  <si>
-    <t>383,0.5,12.24,0.0,0.01,1.0,0.0,0.0,0.0,0.05,0.2,0.15,0.0,0.0,316,1.33,12.53,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.25,0.25,0.0,0.0</t>
-  </si>
-  <si>
-    <t>552,0.29,12.33,0.0,0.02,1.0,0.0,0.0,0.0,0.25,0.35,0.35,0.07,0.13,318,3.0,11.9,0.0,0.0,1.0,0.0,0.0,0.0,0.15,0.35,0.4,0.0,0.0</t>
-  </si>
-  <si>
-    <t>347,0.25,12.59,0.0,0.0,1.0,0.0,0.0,0.0,0.35,0.5,0.4,0.07,0.13,254,0.0,11.28,0.0,0.0,1.0,0.0,0.0,0.0,0.15,0.15,0.15,0.0,0.0</t>
+    <t>21.33,5.36,0.84,0.73,1.14,0.33,14.05,0.0,0.03,1.0,0,0,0.0,0.0,0.0,0.19,0.06,0.14,0.09,0.09,0.16,0.05,0.09,0.0,0.0,14.0,23.0,5.16,0.9,0.73,1.23,0.33,12.99,0.0,0.01,1.0,0,0,0.0,0.0,0.0,0.16,0.07,0.19,0.03,0.03,0.13,0.01,0.0,0.0,0.0,19.31</t>
+  </si>
+  <si>
+    <t>33.5,5.22,0.88,0.49,1.79,1.0,13.33,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.12,0.09,0.21,0.06,0.06,0.1,0.01,0.0,0.0,0.0,16.47,24.0,5.21,0.63,0.49,1.28,0.5,12.61,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.15,0.02,0.25,0.08,0.08,0.1,0.04,0.0,0.0,0.0,23.67</t>
+  </si>
+  <si>
+    <t>33.5,5.22,0.88,0.49,1.79,1.0,13.33,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.12,0.09,0.21,0.06,0.06,0.1,0.01,0.0,0.0,0.0,16.47,21.33,5.36,0.84,0.73,1.14,0.33,14.05,0.0,0.03,1.0,0,0,0.0,0.0,0.0,0.19,0.06,0.14,0.09,0.09,0.16,0.05,0.09,0.0,0.0,14.0</t>
+  </si>
+  <si>
+    <t>16.83,4.52,1.32,1.47,0.9,0.0,8.23,0.0,0.02,1.0,0,0,0.0,0.0,0.0,0.14,0.05,0.25,0.07,0.07,0.19,0.0,0.0,0.0,0.0,15.93,15.0,4.64,0.98,1.22,0.8,0.2,8.88,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.11,0.09,0.2,0.09,0.09,0.13,0.0,0.0,0.13,0.13,25.5</t>
+  </si>
+  <si>
+    <t>39.0,5.42,1.02,0.49,2.09,1.0,13.98,0.0,0.04,1.5,0,0,0.0,0.0,0.0,0.09,0.1,0.21,0.04,0.04,0.1,0.01,0.0,0.0,0.0,13.05,16.17,4.97,1.27,1.47,0.87,0.67,10.86,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.14,0.1,0.21,0.05,0.05,0.12,0.01,0.09,0.0,0.0,13.06</t>
+  </si>
+  <si>
+    <t>18.5,5.18,0.97,0.98,0.99,0.5,12.24,0.0,0.01,1.0,0,0,0.0,0.0,0.0,0.15,0.11,0.22,0.03,0.03,0.14,0.0,0.0,0.0,0.0,22.2,20.33,5.18,0.8,0.73,1.09,1.33,12.53,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.18,0.03,0.2,0.07,0.07,0.1,0.0,0.0,0.0,0.0,19.5</t>
+  </si>
+  <si>
+    <t>14.71,5.36,1.35,1.71,0.79,0.29,12.33,0.0,0.02,1.0,0,0,0.0,0.0,0.0,0.18,0.1,0.19,0.07,0.07,0.06,0.01,0.0,0.13,0.13,12.48,66.0,4.82,0.86,0.24,3.53,3.0,11.9,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.15,0.05,0.23,0.09,0.09,0.08,0.02,0.0,0.0,0.0,18.14</t>
+  </si>
+  <si>
+    <t>16.25,5.34,0.85,0.98,0.87,0.25,12.59,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.17,0.08,0.23,0.02,0.02,0.11,0.0,0.0,0.13,0.13,15.39,17.0,4.98,0.67,0.73,0.91,0.0,11.28,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.14,0.08,0.16,0.08,0.08,0.14,0.0,0.0,0.0,0.0,17.11</t>
   </si>
   <si>
     <t>arg35747</t>
   </si>
   <si>
-    <t>299,0.0,9.92,0.0,0.0,1.0,0.0,0.0,0.0,0.15,0.3,0.3,0.0,0.0,313,0.33,16.98,0.0,0.04,1.0,0.0,0.0,0.0,0.3,0.35,0.35,0.07,0.0</t>
-  </si>
-  <si>
-    <t>535,0.75,10.46,0.0,0.02,1.0,0.0,0.0,0.0,0.2,0.3,0.25,0.07,0.13,361,0.2,13.32,0.0,0.02,1.0,0.0,0.0,0.0,0.2,0.2,0.2,0.07,0.13</t>
-  </si>
-  <si>
-    <t>254,0.0,11.28,0.0,0.0,1.0,0.0,0.0,0.0,0.15,0.15,0.15,0.0,0.0,316,1.33,12.53,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.25,0.25,0.0,0.0</t>
-  </si>
-  <si>
-    <t>528,0.2,11.74,0.0,0.0,1.0,0.0,0.0,0.0,0.15,0.3,0.25,0.07,0.13,299,0.0,9.92,0.0,0.0,1.0,0.0,0.0,0.0,0.15,0.3,0.3,0.0,0.0</t>
-  </si>
-  <si>
-    <t>198,0.0,10.37,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.2,0.2,0.0,0.0,383,0.5,12.24,0.0,0.01,1.0,0.0,0.0,0.0,0.05,0.2,0.15,0.0,0.0</t>
-  </si>
-  <si>
-    <t>535,0.75,10.46,0.0,0.02,1.0,0.0,0.0,0.0,0.2,0.3,0.25,0.07,0.13,348,0.2,8.88,0.0,0.0,1.0,0.0,0.0,0.0,0.15,0.1,0.1,0.07,0.13</t>
+    <t>15.25,4.9,0.8,0.98,0.82,0.0,9.92,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.15,0.11,0.16,0.1,0.1,0.05,0.03,0.09,0.0,0.0,22.2,17.33,6.02,0.68,0.73,0.93,0.33,16.98,0.0,0.04,1.0,0,0,0.0,0.0,0.0,0.23,0.08,0.19,0.08,0.08,0.06,0.06,0.09,0.0,0.0,12.94</t>
+  </si>
+  <si>
+    <t>27.25,4.91,1.43,0.98,1.46,0.75,10.46,0.0,0.02,1.0,0,0,0.0,0.0,0.0,0.15,0.07,0.22,0.06,0.06,0.16,0.01,0.0,0.13,0.13,9.52,13.0,5.55,0.85,1.22,0.7,0.2,13.32,0.0,0.02,1.0,0,0,0.0,0.0,0.0,0.14,0.11,0.25,0.05,0.05,0.05,0.05,0.27,0.13,0.13,10.9</t>
+  </si>
+  <si>
+    <t>17.0,4.98,0.67,0.73,0.91,0.0,11.28,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.14,0.08,0.16,0.08,0.08,0.14,0.0,0.0,0.0,0.0,17.11,20.33,5.18,0.8,0.73,1.09,1.33,12.53,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.18,0.03,0.2,0.07,0.07,0.1,0.0,0.0,0.0,0.0,19.5</t>
+  </si>
+  <si>
+    <t>21.0,5.03,1.37,1.22,1.12,0.2,11.74,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.11,0.04,0.25,0.09,0.09,0.1,0.01,0.0,0.13,0.13,14.94,15.25,4.9,0.8,0.98,0.82,0.0,9.92,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.15,0.11,0.16,0.1,0.1,0.05,0.03,0.09,0.0,0.0,22.2</t>
+  </si>
+  <si>
+    <t>42.0,4.71,0.55,0.24,2.25,0.0,10.37,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.12,0.07,0.29,0.05,0.05,0.07,0.02,0.0,0.0,0.0,29.0,18.5,5.18,0.97,0.98,0.99,0.5,12.24,0.0,0.01,1.0,0,0,0.0,0.0,0.0,0.15,0.11,0.22,0.03,0.03,0.14,0.0,0.0,0.0,0.0,22.2</t>
+  </si>
+  <si>
+    <t>27.25,4.91,1.43,0.98,1.46,0.75,10.46,0.0,0.02,1.0,0,0,0.0,0.0,0.0,0.15,0.07,0.22,0.06,0.06,0.16,0.01,0.0,0.13,0.13,9.52,15.0,4.64,0.98,1.22,0.8,0.2,8.88,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.11,0.09,0.2,0.09,0.09,0.13,0.0,0.0,0.13,0.13,25.5</t>
   </si>
   <si>
     <t>arg35698</t>
   </si>
   <si>
-    <t>270,0.0,8.74,0.0,0.0,1.0,0.0,0.0,0.0,0.2,0.2,0.2,0.0,0.0,552,0.29,12.33,0.0,0.02,1.0,0.0,0.0,0.0,0.25,0.35,0.35,0.07,0.13</t>
-  </si>
-  <si>
-    <t>545,0.25,10.37,0.0,0.01,1.0,0.0,0.0,0.0,0.2,0.25,0.25,0.13,0.13,254,0.0,11.28,0.0,0.0,1.0,0.0,0.0,0.0,0.15,0.15,0.15,0.0,0.0</t>
-  </si>
-  <si>
-    <t>299,0.0,9.92,0.0,0.0,1.0,0.0,0.0,0.0,0.15,0.3,0.3,0.0,0.0,198,0.0,10.37,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.2,0.2,0.0,0.0</t>
-  </si>
-  <si>
-    <t>390,0.25,10.25,0.0,0.0,1.0,0.0,0.0,0.0,0.2,0.25,0.25,0.0,0.0,316,1.33,12.53,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.25,0.25,0.0,0.0</t>
-  </si>
-  <si>
-    <t>318,3.0,11.9,0.0,0.0,1.0,0.0,0.0,0.0,0.15,0.35,0.4,0.0,0.0,300,0.5,17.77,0.0,0.02,2.5,0.0,0.0,0.0,0.0,0.2,0.2,0.0,0.0</t>
-  </si>
-  <si>
-    <t>198,0.0,10.37,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.2,0.2,0.0,0.0,503,0.25,8.94,0.0,0.01,1.0,0.0,0.0,0.0,0.05,0.1,0.1,0.0,0.0</t>
+    <t>14.25,4.74,0.75,0.98,0.76,0.0,8.74,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.09,0.09,0.23,0.14,0.14,0.12,0.0,0.0,0.0,0.0,41.8,14.71,5.36,1.35,1.71,0.79,0.29,12.33,0.0,0.02,1.0,0,0,0.0,0.0,0.0,0.18,0.1,0.19,0.07,0.07,0.06,0.01,0.0,0.13,0.13,12.48</t>
+  </si>
+  <si>
+    <t>13.5,5.05,1.41,1.96,0.72,0.25,10.37,0.0,0.01,1.0,0,0,0.0,0.0,0.0,0.1,0.06,0.18,0.06,0.06,0.09,0.02,0.18,0.13,0.13,12.2,17.0,4.98,0.67,0.73,0.91,0.0,11.28,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.14,0.08,0.16,0.08,0.08,0.14,0.0,0.0,0.0,0.0,17.11</t>
+  </si>
+  <si>
+    <t>15.25,4.9,0.8,0.98,0.82,0.0,9.92,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.15,0.11,0.16,0.1,0.1,0.05,0.03,0.09,0.0,0.0,22.2,42.0,4.71,0.55,0.24,2.25,0.0,10.37,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.12,0.07,0.29,0.05,0.05,0.07,0.02,0.0,0.0,0.0,29.0</t>
+  </si>
+  <si>
+    <t>20.25,4.81,1.06,0.98,1.08,0.25,10.25,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.07,0.1,0.22,0.06,0.06,0.15,0.01,0.0,0.0,0.0,26.38,20.33,5.18,0.8,0.73,1.09,1.33,12.53,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.18,0.03,0.2,0.07,0.07,0.1,0.0,0.0,0.0,0.0,19.5</t>
+  </si>
+  <si>
+    <t>66.0,4.82,0.86,0.24,3.53,3.0,11.9,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.15,0.05,0.23,0.09,0.09,0.08,0.02,0.0,0.0,0.0,18.14,23.0,6.52,0.6,0.49,1.23,0.5,17.77,0.0,0.02,2.5,0,0,0.0,0.0,0.0,0.22,0.17,0.13,0.02,0.02,0.04,0.11,0.18,0.0,0.0,4.25</t>
+  </si>
+  <si>
+    <t>42.0,4.71,0.55,0.24,2.25,0.0,10.37,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.12,0.07,0.29,0.05,0.05,0.07,0.02,0.0,0.0,0.0,29.0,13.25,4.75,1.39,1.96,0.71,0.25,8.94,0.0,0.01,1.0,0,0,0.0,0.0,0.0,0.11,0.08,0.26,0.02,0.02,0.2,0.01,0.0,0.0,0.0,25.13</t>
   </si>
   <si>
     <t>arg35676</t>
   </si>
   <si>
-    <t>198,0.0,10.37,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.2,0.2,0.0,0.0,544,0.75,12.11,0.0,0.02,1.0,0.0,0.0,0.0,0.2,0.25,0.2,0.0,0.0</t>
-  </si>
-  <si>
-    <t>347,0.25,12.59,0.0,0.0,1.0,0.0,0.0,0.0,0.35,0.5,0.4,0.07,0.13,482,0.67,10.86,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.2,0.25,0.07,0.0</t>
-  </si>
-  <si>
-    <t>343,0.33,14.05,0.0,0.03,1.0,0.0,0.0,0.0,0.25,0.2,0.2,0.0,0.0,198,0.0,10.37,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.2,0.2,0.0,0.0</t>
-  </si>
-  <si>
-    <t>482,0.67,10.86,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.2,0.25,0.07,0.0,270,0.0,8.74,0.0,0.0,1.0,0.0,0.0,0.0,0.2,0.2,0.2,0.0,0.0</t>
-  </si>
-  <si>
-    <t>511,0.17,9.94,0.0,0.02,1.0,0.0,0.0,0.0,0.2,0.4,0.4,0.0,0.0,373,0.2,8.66,0.0,0.01,1.0,0.0,0.0,0.0,0.1,0.2,0.2,0.07,0.13</t>
-  </si>
-  <si>
-    <t>299,0.0,9.92,0.0,0.0,1.0,0.0,0.0,0.0,0.15,0.3,0.3,0.0,0.0,503,0.25,8.94,0.0,0.01,1.0,0.0,0.0,0.0,0.05,0.1,0.1,0.0,0.0</t>
-  </si>
-  <si>
-    <t>511,0.17,9.94,0.0,0.02,1.0,0.0,0.0,0.0,0.2,0.4,0.4,0.0,0.0,270,0.0,8.74,0.0,0.0,1.0,0.0,0.0,0.0,0.2,0.2,0.2,0.0,0.0</t>
-  </si>
-  <si>
-    <t>503,0.25,8.94,0.0,0.01,1.0,0.0,0.0,0.0,0.05,0.1,0.1,0.0,0.0,254,0.0,11.28,0.0,0.0,1.0,0.0,0.0,0.0,0.15,0.15,0.15,0.0,0.0</t>
-  </si>
-  <si>
-    <t>348,0.2,8.88,0.0,0.0,1.0,0.0,0.0,0.0,0.15,0.1,0.1,0.07,0.13,383,0.5,12.24,0.0,0.01,1.0,0.0,0.0,0.0,0.05,0.2,0.15,0.0,0.0</t>
-  </si>
-  <si>
-    <t>254,0.0,11.28,0.0,0.0,1.0,0.0,0.0,0.0,0.15,0.15,0.15,0.0,0.0,528,0.2,11.74,0.0,0.0,1.0,0.0,0.0,0.0,0.15,0.3,0.25,0.07,0.13</t>
-  </si>
-  <si>
-    <t>356,0.33,12.99,0.0,0.01,1.0,0.0,0.0,0.0,0.25,0.4,0.45,0.0,0.0,383,0.5,12.24,0.0,0.01,1.0,0.0,0.0,0.0,0.05,0.2,0.15,0.0,0.0</t>
-  </si>
-  <si>
-    <t>354,0.25,10.16,0.0,0.0,1.0,0.0,0.0,0.0,0.15,0.35,0.35,0.0,0.0,318,3.0,11.9,0.0,0.0,1.0,0.0,0.0,0.0,0.15,0.35,0.4,0.0,0.0</t>
+    <t>42.0,4.71,0.55,0.24,2.25,0.0,10.37,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.12,0.07,0.29,0.05,0.05,0.07,0.02,0.0,0.0,0.0,29.0,26.75,5.08,1.4,0.98,1.43,0.75,12.11,0.0,0.02,1.0,0,0,0.0,0.0,0.0,0.19,0.05,0.18,0.12,0.12,0.16,0.01,0.0,0.0,0.0,11.41</t>
+  </si>
+  <si>
+    <t>16.25,5.34,0.85,0.98,0.87,0.25,12.59,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.17,0.08,0.23,0.02,0.02,0.11,0.0,0.0,0.13,0.13,15.39,16.17,4.97,1.27,1.47,0.87,0.67,10.86,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.14,0.1,0.21,0.05,0.05,0.12,0.01,0.09,0.0,0.0,13.06</t>
+  </si>
+  <si>
+    <t>21.33,5.36,0.84,0.73,1.14,0.33,14.05,0.0,0.03,1.0,0,0,0.0,0.0,0.0,0.19,0.06,0.14,0.09,0.09,0.16,0.05,0.09,0.0,0.0,14.0,42.0,4.71,0.55,0.24,2.25,0.0,10.37,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.12,0.07,0.29,0.05,0.05,0.07,0.02,0.0,0.0,0.0,29.0</t>
+  </si>
+  <si>
+    <t>16.17,4.97,1.27,1.47,0.87,0.67,10.86,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.14,0.1,0.21,0.05,0.05,0.12,0.01,0.09,0.0,0.0,13.06,14.25,4.74,0.75,0.98,0.76,0.0,8.74,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.09,0.09,0.23,0.14,0.14,0.12,0.0,0.0,0.0,0.0,41.8</t>
+  </si>
+  <si>
+    <t>18.0,4.73,1.41,1.47,0.96,0.17,9.94,0.0,0.02,1.0,0,0,0.0,0.0,0.0,0.11,0.06,0.19,0.06,0.06,0.11,0.0,0.0,0.0,0.0,15.94,16.4,4.55,1.07,1.22,0.88,0.2,8.66,0.0,0.01,1.0,0,0,0.0,0.0,0.0,0.09,0.05,0.23,0.05,0.05,0.17,0.0,0.0,0.13,0.13,19.91</t>
+  </si>
+  <si>
+    <t>15.25,4.9,0.8,0.98,0.82,0.0,9.92,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.15,0.11,0.16,0.1,0.1,0.05,0.03,0.09,0.0,0.0,22.2,13.25,4.75,1.39,1.96,0.71,0.25,8.94,0.0,0.01,1.0,0,0,0.0,0.0,0.0,0.11,0.08,0.26,0.02,0.02,0.2,0.01,0.0,0.0,0.0,25.13</t>
+  </si>
+  <si>
+    <t>18.0,4.73,1.41,1.47,0.96,0.17,9.94,0.0,0.02,1.0,0,0,0.0,0.0,0.0,0.11,0.06,0.19,0.06,0.06,0.11,0.0,0.0,0.0,0.0,15.94,14.25,4.74,0.75,0.98,0.76,0.0,8.74,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.09,0.09,0.23,0.14,0.14,0.12,0.0,0.0,0.0,0.0,41.8</t>
+  </si>
+  <si>
+    <t>13.25,4.75,1.39,1.96,0.71,0.25,8.94,0.0,0.01,1.0,0,0,0.0,0.0,0.0,0.11,0.08,0.26,0.02,0.02,0.2,0.01,0.0,0.0,0.0,25.13,17.0,4.98,0.67,0.73,0.91,0.0,11.28,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.14,0.08,0.16,0.08,0.08,0.14,0.0,0.0,0.0,0.0,17.11</t>
+  </si>
+  <si>
+    <t>15.0,4.64,0.98,1.22,0.8,0.2,8.88,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.11,0.09,0.2,0.09,0.09,0.13,0.0,0.0,0.13,0.13,25.5,18.5,5.18,0.97,0.98,0.99,0.5,12.24,0.0,0.01,1.0,0,0,0.0,0.0,0.0,0.15,0.11,0.22,0.03,0.03,0.14,0.0,0.0,0.0,0.0,22.2</t>
+  </si>
+  <si>
+    <t>17.0,4.98,0.67,0.73,0.91,0.0,11.28,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.14,0.08,0.16,0.08,0.08,0.14,0.0,0.0,0.0,0.0,17.11,21.0,5.03,1.37,1.22,1.12,0.2,11.74,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.11,0.04,0.25,0.09,0.09,0.1,0.01,0.0,0.13,0.13,14.94</t>
+  </si>
+  <si>
+    <t>23.0,5.16,0.9,0.73,1.23,0.33,12.99,0.0,0.01,1.0,0,0,0.0,0.0,0.0,0.16,0.07,0.19,0.03,0.03,0.13,0.01,0.0,0.0,0.0,19.31,18.5,5.18,0.97,0.98,0.99,0.5,12.24,0.0,0.01,1.0,0,0,0.0,0.0,0.0,0.15,0.11,0.22,0.03,0.03,0.14,0.0,0.0,0.0,0.0,22.2</t>
+  </si>
+  <si>
+    <t>18.0,4.92,0.94,0.98,0.96,0.25,10.16,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.13,0.08,0.26,0.04,0.04,0.15,0.01,0.0,0.0,0.0,22.6,66.0,4.82,0.86,0.24,3.53,3.0,11.9,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.15,0.05,0.23,0.09,0.09,0.08,0.02,0.0,0.0,0.0,18.14</t>
   </si>
   <si>
     <t>arg35700</t>
   </si>
   <si>
-    <t>364,0.5,11.95,0.0,0.01,1.0,0.0,0.0,0.0,0.2,0.2,0.2,0.0,0.0,552,0.29,12.33,0.0,0.02,1.0,0.0,0.0,0.0,0.25,0.35,0.35,0.07,0.13</t>
-  </si>
-  <si>
-    <t>250,0.5,12.61,0.0,0.0,1.0,0.0,0.0,0.0,0.2,0.25,0.25,0.0,0.0,361,0.2,13.32,0.0,0.02,1.0,0.0,0.0,0.0,0.2,0.2,0.2,0.07,0.13</t>
-  </si>
-  <si>
-    <t>300,0.5,17.77,0.0,0.02,2.5,0.0,0.0,0.0,0.0,0.2,0.2,0.0,0.0,364,0.5,11.95,0.0,0.01,1.0,0.0,0.0,0.0,0.2,0.2,0.2,0.0,0.0</t>
-  </si>
-  <si>
-    <t>373,0.2,8.66,0.0,0.01,1.0,0.0,0.0,0.0,0.1,0.2,0.2,0.07,0.13,343,0.33,14.05,0.0,0.03,1.0,0.0,0.0,0.0,0.25,0.2,0.2,0.0,0.0</t>
-  </si>
-  <si>
-    <t>555,0.8,11.9,0.0,0.02,1.0,0.0,0.0,0.0,0.15,0.25,0.2,0.2,0.0,348,0.2,8.88,0.0,0.0,1.0,0.0,0.0,0.0,0.15,0.1,0.1,0.07,0.13</t>
-  </si>
-  <si>
-    <t>356,0.33,12.99,0.0,0.01,1.0,0.0,0.0,0.0,0.25,0.4,0.45,0.0,0.0,270,0.0,8.74,0.0,0.0,1.0,0.0,0.0,0.0,0.2,0.2,0.2,0.0,0.0</t>
-  </si>
-  <si>
-    <t>350,1.0,13.33,0.0,0.0,1.0,0.0,0.0,0.0,0.2,0.35,0.35,0.0,0.0,198,0.0,10.37,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.2,0.2,0.0,0.0</t>
-  </si>
-  <si>
-    <t>383,0.5,12.24,0.0,0.01,1.0,0.0,0.0,0.0,0.05,0.2,0.15,0.0,0.0,361,0.2,13.32,0.0,0.02,1.0,0.0,0.0,0.0,0.2,0.2,0.2,0.07,0.13</t>
-  </si>
-  <si>
-    <t>300,0.5,17.77,0.0,0.02,2.5,0.0,0.0,0.0,0.0,0.2,0.2,0.0,0.0,354,0.25,10.16,0.0,0.0,1.0,0.0,0.0,0.0,0.15,0.35,0.35,0.0,0.0</t>
-  </si>
-  <si>
-    <t>361,0.2,13.32,0.0,0.02,1.0,0.0,0.0,0.0,0.2,0.2,0.2,0.07,0.13,198,0.0,10.37,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.2,0.2,0.0,0.0</t>
-  </si>
-  <si>
-    <t>254,0.0,11.28,0.0,0.0,1.0,0.0,0.0,0.0,0.15,0.15,0.15,0.0,0.0,300,0.5,17.77,0.0,0.02,2.5,0.0,0.0,0.0,0.0,0.2,0.2,0.0,0.0</t>
-  </si>
-  <si>
-    <t>348,0.2,8.88,0.0,0.0,1.0,0.0,0.0,0.0,0.15,0.1,0.1,0.07,0.13,390,0.25,10.25,0.0,0.0,1.0,0.0,0.0,0.0,0.2,0.25,0.25,0.0,0.0</t>
-  </si>
-  <si>
-    <t>350,1.0,13.33,0.0,0.0,1.0,0.0,0.0,0.0,0.2,0.35,0.35,0.0,0.0,299,0.0,9.92,0.0,0.0,1.0,0.0,0.0,0.0,0.15,0.3,0.3,0.0,0.0</t>
-  </si>
-  <si>
-    <t>343,0.33,14.05,0.0,0.03,1.0,0.0,0.0,0.0,0.25,0.2,0.2,0.0,0.0,555,0.8,11.9,0.0,0.02,1.0,0.0,0.0,0.0,0.15,0.25,0.2,0.2,0.0</t>
-  </si>
-  <si>
-    <t>528,0.2,11.74,0.0,0.0,1.0,0.0,0.0,0.0,0.15,0.3,0.25,0.07,0.13,313,0.33,16.98,0.0,0.04,1.0,0.0,0.0,0.0,0.3,0.35,0.35,0.07,0.0</t>
-  </si>
-  <si>
-    <t>347,0.25,12.59,0.0,0.0,1.0,0.0,0.0,0.0,0.35,0.5,0.4,0.07,0.13,316,1.33,12.53,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.25,0.25,0.0,0.0</t>
-  </si>
-  <si>
-    <t>552,0.29,12.33,0.0,0.02,1.0,0.0,0.0,0.0,0.25,0.35,0.35,0.07,0.13,354,0.25,10.16,0.0,0.0,1.0,0.0,0.0,0.0,0.15,0.35,0.35,0.0,0.0</t>
-  </si>
-  <si>
-    <t>511,0.17,9.94,0.0,0.02,1.0,0.0,0.0,0.0,0.2,0.4,0.4,0.0,0.0,429,1.0,9.71,0.0,0.0,1.0,0.0,0.0,0.0,0.2,0.25,0.2,0.07,0.13</t>
-  </si>
-  <si>
-    <t>371,0.5,11.98,0.0,0.03,1.0,0.0,0.0,0.0,0.2,0.15,0.2,0.0,0.0,552,0.29,12.33,0.0,0.02,1.0,0.0,0.0,0.0,0.25,0.35,0.35,0.07,0.13</t>
-  </si>
-  <si>
-    <t>356,0.33,12.99,0.0,0.01,1.0,0.0,0.0,0.0,0.25,0.4,0.45,0.0,0.0,300,0.5,17.77,0.0,0.02,2.5,0.0,0.0,0.0,0.0,0.2,0.2,0.0,0.0</t>
-  </si>
-  <si>
-    <t>423,1.0,13.98,0.0,0.04,1.5,0.0,0.0,0.0,0.0,0.3,0.35,0.0,0.0,354,0.25,10.16,0.0,0.0,1.0,0.0,0.0,0.0,0.15,0.35,0.35,0.0,0.0</t>
-  </si>
-  <si>
-    <t>356,0.33,12.99,0.0,0.01,1.0,0.0,0.0,0.0,0.25,0.4,0.45,0.0,0.0,373,0.2,8.66,0.0,0.01,1.0,0.0,0.0,0.0,0.1,0.2,0.2,0.07,0.13</t>
-  </si>
-  <si>
-    <t>371,0.5,11.98,0.0,0.03,1.0,0.0,0.0,0.0,0.2,0.15,0.2,0.0,0.0,356,0.33,12.99,0.0,0.01,1.0,0.0,0.0,0.0,0.25,0.4,0.45,0.0,0.0</t>
-  </si>
-  <si>
-    <t>299,0.0,9.92,0.0,0.0,1.0,0.0,0.0,0.0,0.15,0.3,0.3,0.0,0.0,354,0.25,10.16,0.0,0.0,1.0,0.0,0.0,0.0,0.15,0.35,0.35,0.0,0.0</t>
-  </si>
-  <si>
-    <t>555,0.8,11.9,0.0,0.02,1.0,0.0,0.0,0.0,0.15,0.25,0.2,0.2,0.0,361,0.2,13.32,0.0,0.02,1.0,0.0,0.0,0.0,0.2,0.2,0.2,0.07,0.13</t>
-  </si>
-  <si>
-    <t>343,0.33,14.05,0.0,0.03,1.0,0.0,0.0,0.0,0.25,0.2,0.2,0.0,0.0,503,0.25,8.94,0.0,0.01,1.0,0.0,0.0,0.0,0.05,0.1,0.1,0.0,0.0</t>
-  </si>
-  <si>
-    <t>316,1.33,12.53,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.25,0.25,0.0,0.0,552,0.29,12.33,0.0,0.02,1.0,0.0,0.0,0.0,0.25,0.35,0.35,0.07,0.13</t>
-  </si>
-  <si>
-    <t>354,0.25,10.16,0.0,0.0,1.0,0.0,0.0,0.0,0.15,0.35,0.35,0.0,0.0,544,0.75,12.11,0.0,0.02,1.0,0.0,0.0,0.0,0.2,0.25,0.2,0.0,0.0</t>
-  </si>
-  <si>
-    <t>390,0.25,10.25,0.0,0.0,1.0,0.0,0.0,0.0,0.2,0.25,0.25,0.0,0.0,361,0.2,13.32,0.0,0.02,1.0,0.0,0.0,0.0,0.2,0.2,0.2,0.07,0.13</t>
-  </si>
-  <si>
-    <t>555,0.8,11.9,0.0,0.02,1.0,0.0,0.0,0.0,0.15,0.25,0.2,0.2,0.0,356,0.33,12.99,0.0,0.01,1.0,0.0,0.0,0.0,0.25,0.4,0.45,0.0,0.0</t>
-  </si>
-  <si>
-    <t>348,0.2,10.27,0.0,0.01,1.0,0.0,0.0,0.0,0.3,0.25,0.3,0.0,0.0,373,0.2,8.66,0.0,0.01,1.0,0.0,0.0,0.0,0.1,0.2,0.2,0.07,0.13</t>
-  </si>
-  <si>
-    <t>343,0.33,14.05,0.0,0.03,1.0,0.0,0.0,0.0,0.25,0.2,0.2,0.0,0.0,423,1.0,13.98,0.0,0.04,1.5,0.0,0.0,0.0,0.0,0.3,0.35,0.0,0.0</t>
-  </si>
-  <si>
-    <t>313,0.33,16.98,0.0,0.04,1.0,0.0,0.0,0.0,0.3,0.35,0.35,0.07,0.0,198,0.0,10.37,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.2,0.2,0.0,0.0</t>
-  </si>
-  <si>
-    <t>354,0.25,10.16,0.0,0.0,1.0,0.0,0.0,0.0,0.15,0.35,0.35,0.0,0.0,511,0.17,9.94,0.0,0.02,1.0,0.0,0.0,0.0,0.2,0.4,0.4,0.0,0.0</t>
-  </si>
-  <si>
-    <t>482,0.67,10.86,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.2,0.25,0.07,0.0,198,0.0,10.37,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.2,0.2,0.0,0.0</t>
-  </si>
-  <si>
-    <t>318,3.0,11.9,0.0,0.0,1.0,0.0,0.0,0.0,0.15,0.35,0.4,0.0,0.0,361,0.2,13.32,0.0,0.02,1.0,0.0,0.0,0.0,0.2,0.2,0.2,0.07,0.13</t>
-  </si>
-  <si>
-    <t>552,0.29,12.33,0.0,0.02,1.0,0.0,0.0,0.0,0.25,0.35,0.35,0.07,0.13,390,0.25,10.25,0.0,0.0,1.0,0.0,0.0,0.0,0.2,0.25,0.25,0.0,0.0</t>
-  </si>
-  <si>
-    <t>364,0.5,11.95,0.0,0.01,1.0,0.0,0.0,0.0,0.2,0.2,0.2,0.0,0.0,482,0.67,10.86,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.2,0.25,0.07,0.0</t>
-  </si>
-  <si>
-    <t>318,3.0,11.9,0.0,0.0,1.0,0.0,0.0,0.0,0.15,0.35,0.4,0.0,0.0,544,0.75,12.11,0.0,0.02,1.0,0.0,0.0,0.0,0.2,0.25,0.2,0.0,0.0</t>
-  </si>
-  <si>
-    <t>198,0.0,10.37,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.2,0.2,0.0,0.0,545,0.25,10.37,0.0,0.01,1.0,0.0,0.0,0.0,0.2,0.25,0.25,0.13,0.13</t>
-  </si>
-  <si>
-    <t>270,0.0,8.74,0.0,0.0,1.0,0.0,0.0,0.0,0.2,0.2,0.2,0.0,0.0,390,0.25,10.25,0.0,0.0,1.0,0.0,0.0,0.0,0.2,0.25,0.25,0.0,0.0</t>
-  </si>
-  <si>
-    <t>552,0.29,12.33,0.0,0.02,1.0,0.0,0.0,0.0,0.25,0.35,0.35,0.07,0.13,254,0.0,11.28,0.0,0.0,1.0,0.0,0.0,0.0,0.15,0.15,0.15,0.0,0.0</t>
-  </si>
-  <si>
-    <t>348,0.2,10.27,0.0,0.01,1.0,0.0,0.0,0.0,0.3,0.25,0.3,0.0,0.0,371,0.5,11.98,0.0,0.03,1.0,0.0,0.0,0.0,0.2,0.15,0.2,0.0,0.0</t>
-  </si>
-  <si>
-    <t>198,0.0,10.37,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.2,0.2,0.0,0.0,429,1.0,9.71,0.0,0.0,1.0,0.0,0.0,0.0,0.2,0.25,0.2,0.07,0.13</t>
-  </si>
-  <si>
-    <t>356,0.33,12.99,0.0,0.01,1.0,0.0,0.0,0.0,0.25,0.4,0.45,0.0,0.0,528,0.2,11.74,0.0,0.0,1.0,0.0,0.0,0.0,0.15,0.3,0.25,0.07,0.13</t>
-  </si>
-  <si>
-    <t>270,0.0,8.74,0.0,0.0,1.0,0.0,0.0,0.0,0.2,0.2,0.2,0.0,0.0,535,0.75,10.46,0.0,0.02,1.0,0.0,0.0,0.0,0.2,0.3,0.25,0.07,0.13</t>
-  </si>
-  <si>
-    <t>350,1.0,13.33,0.0,0.0,1.0,0.0,0.0,0.0,0.2,0.35,0.35,0.0,0.0,361,0.2,13.32,0.0,0.02,1.0,0.0,0.0,0.0,0.2,0.2,0.2,0.07,0.13</t>
-  </si>
-  <si>
-    <t>348,0.2,10.27,0.0,0.01,1.0,0.0,0.0,0.0,0.3,0.25,0.3,0.0,0.0,552,0.29,12.33,0.0,0.02,1.0,0.0,0.0,0.0,0.25,0.35,0.35,0.07,0.13</t>
-  </si>
-  <si>
-    <t>348,0.2,10.27,0.0,0.01,1.0,0.0,0.0,0.0,0.3,0.25,0.3,0.0,0.0,555,0.8,11.9,0.0,0.02,1.0,0.0,0.0,0.0,0.15,0.25,0.2,0.2,0.0</t>
-  </si>
-  <si>
-    <t>300,0.5,17.77,0.0,0.02,2.5,0.0,0.0,0.0,0.0,0.2,0.2,0.0,0.0,423,1.0,13.98,0.0,0.04,1.5,0.0,0.0,0.0,0.0,0.3,0.35,0.0,0.0</t>
-  </si>
-  <si>
-    <t>300,0.5,17.77,0.0,0.02,2.5,0.0,0.0,0.0,0.0,0.2,0.2,0.0,0.0,528,0.2,11.74,0.0,0.0,1.0,0.0,0.0,0.0,0.15,0.3,0.25,0.07,0.13</t>
-  </si>
-  <si>
-    <t>300,0.5,17.77,0.0,0.02,2.5,0.0,0.0,0.0,0.0,0.2,0.2,0.0,0.0,503,0.25,8.94,0.0,0.01,1.0,0.0,0.0,0.0,0.05,0.1,0.1,0.0,0.0</t>
-  </si>
-  <si>
-    <t>482,0.67,10.86,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.2,0.25,0.07,0.0,361,0.2,13.32,0.0,0.02,1.0,0.0,0.0,0.0,0.2,0.2,0.2,0.07,0.13</t>
-  </si>
-  <si>
-    <t>356,0.33,12.99,0.0,0.01,1.0,0.0,0.0,0.0,0.25,0.4,0.45,0.0,0.0,299,0.0,9.92,0.0,0.0,1.0,0.0,0.0,0.0,0.15,0.3,0.3,0.0,0.0</t>
-  </si>
-  <si>
-    <t>350,1.0,13.33,0.0,0.0,1.0,0.0,0.0,0.0,0.2,0.35,0.35,0.0,0.0,503,0.25,8.94,0.0,0.01,1.0,0.0,0.0,0.0,0.05,0.1,0.1,0.0,0.0</t>
-  </si>
-  <si>
-    <t>390,0.25,10.25,0.0,0.0,1.0,0.0,0.0,0.0,0.2,0.25,0.25,0.0,0.0,198,0.0,10.37,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.2,0.2,0.0,0.0</t>
-  </si>
-  <si>
-    <t>555,0.8,11.9,0.0,0.02,1.0,0.0,0.0,0.0,0.15,0.25,0.2,0.2,0.0,390,0.25,10.25,0.0,0.0,1.0,0.0,0.0,0.0,0.2,0.25,0.25,0.0,0.0</t>
-  </si>
-  <si>
-    <t>364,0.5,11.95,0.0,0.01,1.0,0.0,0.0,0.0,0.2,0.2,0.2,0.0,0.0,544,0.75,12.11,0.0,0.02,1.0,0.0,0.0,0.0,0.2,0.25,0.2,0.0,0.0</t>
-  </si>
-  <si>
-    <t>270,0.0,8.74,0.0,0.0,1.0,0.0,0.0,0.0,0.2,0.2,0.2,0.0,0.0,343,0.33,14.05,0.0,0.03,1.0,0.0,0.0,0.0,0.25,0.2,0.2,0.0,0.0</t>
-  </si>
-  <si>
-    <t>348,0.2,10.27,0.0,0.01,1.0,0.0,0.0,0.0,0.3,0.25,0.3,0.0,0.0,318,3.0,11.9,0.0,0.0,1.0,0.0,0.0,0.0,0.15,0.35,0.4,0.0,0.0</t>
-  </si>
-  <si>
-    <t>390,0.25,10.25,0.0,0.0,1.0,0.0,0.0,0.0,0.2,0.25,0.25,0.0,0.0,318,3.0,11.9,0.0,0.0,1.0,0.0,0.0,0.0,0.15,0.35,0.4,0.0,0.0</t>
-  </si>
-  <si>
-    <t>535,0.75,10.46,0.0,0.02,1.0,0.0,0.0,0.0,0.2,0.3,0.25,0.07,0.13,356,0.33,12.99,0.0,0.01,1.0,0.0,0.0,0.0,0.25,0.4,0.45,0.0,0.0</t>
-  </si>
-  <si>
-    <t>545,0.25,10.37,0.0,0.01,1.0,0.0,0.0,0.0,0.2,0.25,0.25,0.13,0.13,300,0.5,17.77,0.0,0.02,2.5,0.0,0.0,0.0,0.0,0.2,0.2,0.0,0.0</t>
-  </si>
-  <si>
-    <t>545,0.25,10.37,0.0,0.01,1.0,0.0,0.0,0.0,0.2,0.25,0.25,0.13,0.13,356,0.33,12.99,0.0,0.01,1.0,0.0,0.0,0.0,0.25,0.4,0.45,0.0,0.0</t>
-  </si>
-  <si>
-    <t>535,0.75,10.46,0.0,0.02,1.0,0.0,0.0,0.0,0.2,0.3,0.25,0.07,0.13,555,0.8,11.9,0.0,0.02,1.0,0.0,0.0,0.0,0.15,0.25,0.2,0.2,0.0</t>
-  </si>
-  <si>
-    <t>503,0.25,8.94,0.0,0.01,1.0,0.0,0.0,0.0,0.05,0.1,0.1,0.0,0.0,361,0.2,13.32,0.0,0.02,1.0,0.0,0.0,0.0,0.2,0.2,0.2,0.07,0.13</t>
-  </si>
-  <si>
-    <t>555,0.8,11.9,0.0,0.02,1.0,0.0,0.0,0.0,0.15,0.25,0.2,0.2,0.0,254,0.0,11.28,0.0,0.0,1.0,0.0,0.0,0.0,0.15,0.15,0.15,0.0,0.0</t>
-  </si>
-  <si>
-    <t>555,0.8,11.9,0.0,0.02,1.0,0.0,0.0,0.0,0.15,0.25,0.2,0.2,0.0,270,0.0,8.74,0.0,0.0,1.0,0.0,0.0,0.0,0.2,0.2,0.2,0.0,0.0</t>
-  </si>
-  <si>
-    <t>371,0.5,11.98,0.0,0.03,1.0,0.0,0.0,0.0,0.2,0.15,0.2,0.0,0.0,250,0.5,12.61,0.0,0.0,1.0,0.0,0.0,0.0,0.2,0.25,0.25,0.0,0.0</t>
-  </si>
-  <si>
-    <t>390,0.25,10.25,0.0,0.0,1.0,0.0,0.0,0.0,0.2,0.25,0.25,0.0,0.0,545,0.25,10.37,0.0,0.01,1.0,0.0,0.0,0.0,0.2,0.25,0.25,0.13,0.13</t>
-  </si>
-  <si>
-    <t>318,3.0,11.9,0.0,0.0,1.0,0.0,0.0,0.0,0.15,0.35,0.4,0.0,0.0,535,0.75,10.46,0.0,0.02,1.0,0.0,0.0,0.0,0.2,0.3,0.25,0.07,0.13</t>
-  </si>
-  <si>
-    <t>313,0.33,16.98,0.0,0.04,1.0,0.0,0.0,0.0,0.3,0.35,0.35,0.07,0.0,347,0.25,12.59,0.0,0.0,1.0,0.0,0.0,0.0,0.35,0.5,0.4,0.07,0.13</t>
-  </si>
-  <si>
-    <t>198,0.0,10.37,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.2,0.2,0.0,0.0,270,0.0,8.74,0.0,0.0,1.0,0.0,0.0,0.0,0.2,0.2,0.2,0.0,0.0</t>
-  </si>
-  <si>
-    <t>429,1.0,9.71,0.0,0.0,1.0,0.0,0.0,0.0,0.2,0.25,0.2,0.07,0.13,299,0.0,9.92,0.0,0.0,1.0,0.0,0.0,0.0,0.15,0.3,0.3,0.0,0.0</t>
-  </si>
-  <si>
-    <t>364,0.5,11.95,0.0,0.01,1.0,0.0,0.0,0.0,0.2,0.2,0.2,0.0,0.0,390,0.25,10.25,0.0,0.0,1.0,0.0,0.0,0.0,0.2,0.25,0.25,0.0,0.0</t>
-  </si>
-  <si>
-    <t>198,0.0,10.37,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.2,0.2,0.0,0.0,535,0.75,10.46,0.0,0.02,1.0,0.0,0.0,0.0,0.2,0.3,0.25,0.07,0.13</t>
-  </si>
-  <si>
-    <t>250,0.5,12.61,0.0,0.0,1.0,0.0,0.0,0.0,0.2,0.25,0.25,0.0,0.0,313,0.33,16.98,0.0,0.04,1.0,0.0,0.0,0.0,0.3,0.35,0.35,0.07,0.0</t>
-  </si>
-  <si>
-    <t>544,0.75,12.11,0.0,0.02,1.0,0.0,0.0,0.0,0.2,0.25,0.2,0.0,0.0,300,0.5,17.77,0.0,0.02,2.5,0.0,0.0,0.0,0.0,0.2,0.2,0.0,0.0</t>
-  </si>
-  <si>
-    <t>270,0.0,8.74,0.0,0.0,1.0,0.0,0.0,0.0,0.2,0.2,0.2,0.0,0.0,361,0.2,13.32,0.0,0.02,1.0,0.0,0.0,0.0,0.2,0.2,0.2,0.07,0.13</t>
-  </si>
-  <si>
-    <t>383,0.5,12.24,0.0,0.01,1.0,0.0,0.0,0.0,0.05,0.2,0.15,0.0,0.0,511,0.17,9.94,0.0,0.02,1.0,0.0,0.0,0.0,0.2,0.4,0.4,0.0,0.0</t>
-  </si>
-  <si>
-    <t>364,0.5,11.95,0.0,0.01,1.0,0.0,0.0,0.0,0.2,0.2,0.2,0.0,0.0,318,3.0,11.9,0.0,0.0,1.0,0.0,0.0,0.0,0.15,0.35,0.4,0.0,0.0</t>
-  </si>
-  <si>
-    <t>364,0.5,11.95,0.0,0.01,1.0,0.0,0.0,0.0,0.2,0.2,0.2,0.0,0.0,361,0.2,13.32,0.0,0.02,1.0,0.0,0.0,0.0,0.2,0.2,0.2,0.07,0.13</t>
-  </si>
-  <si>
-    <t>552,0.29,12.33,0.0,0.02,1.0,0.0,0.0,0.0,0.25,0.35,0.35,0.07,0.13,361,0.2,13.32,0.0,0.02,1.0,0.0,0.0,0.0,0.2,0.2,0.2,0.07,0.13</t>
-  </si>
-  <si>
-    <t>371,0.5,11.98,0.0,0.03,1.0,0.0,0.0,0.0,0.2,0.15,0.2,0.0,0.0,423,1.0,13.98,0.0,0.04,1.5,0.0,0.0,0.0,0.0,0.3,0.35,0.0,0.0</t>
-  </si>
-  <si>
-    <t>300,0.5,17.77,0.0,0.02,2.5,0.0,0.0,0.0,0.0,0.2,0.2,0.0,0.0,250,0.5,12.61,0.0,0.0,1.0,0.0,0.0,0.0,0.2,0.25,0.25,0.0,0.0</t>
-  </si>
-  <si>
-    <t>383,0.5,12.24,0.0,0.01,1.0,0.0,0.0,0.0,0.05,0.2,0.15,0.0,0.0,300,0.5,17.77,0.0,0.02,2.5,0.0,0.0,0.0,0.0,0.2,0.2,0.0,0.0</t>
-  </si>
-  <si>
-    <t>511,0.17,9.94,0.0,0.02,1.0,0.0,0.0,0.0,0.2,0.4,0.4,0.0,0.0,300,0.5,17.77,0.0,0.02,2.5,0.0,0.0,0.0,0.0,0.2,0.2,0.0,0.0</t>
-  </si>
-  <si>
-    <t>350,1.0,13.33,0.0,0.0,1.0,0.0,0.0,0.0,0.2,0.35,0.35,0.0,0.0,482,0.67,10.86,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.2,0.25,0.07,0.0</t>
-  </si>
-  <si>
-    <t>555,0.8,11.9,0.0,0.02,1.0,0.0,0.0,0.0,0.15,0.25,0.2,0.2,0.0,250,0.5,12.61,0.0,0.0,1.0,0.0,0.0,0.0,0.2,0.25,0.25,0.0,0.0</t>
-  </si>
-  <si>
-    <t>318,3.0,11.9,0.0,0.0,1.0,0.0,0.0,0.0,0.15,0.35,0.4,0.0,0.0,429,1.0,9.71,0.0,0.0,1.0,0.0,0.0,0.0,0.2,0.25,0.2,0.07,0.13</t>
-  </si>
-  <si>
-    <t>429,1.0,9.71,0.0,0.0,1.0,0.0,0.0,0.0,0.2,0.25,0.2,0.07,0.13,356,0.33,12.99,0.0,0.01,1.0,0.0,0.0,0.0,0.25,0.4,0.45,0.0,0.0</t>
-  </si>
-  <si>
-    <t>535,0.75,10.46,0.0,0.02,1.0,0.0,0.0,0.0,0.2,0.3,0.25,0.07,0.13,371,0.5,11.98,0.0,0.03,1.0,0.0,0.0,0.0,0.2,0.15,0.2,0.0,0.0</t>
-  </si>
-  <si>
-    <t>457,0.0,8.23,0.0,0.02,1.0,0.0,0.0,0.0,0.15,0.25,0.2,0.0,0.0,545,0.25,10.37,0.0,0.01,1.0,0.0,0.0,0.0,0.2,0.25,0.25,0.13,0.13</t>
-  </si>
-  <si>
-    <t>482,0.67,10.86,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.2,0.25,0.07,0.0,457,0.0,8.23,0.0,0.02,1.0,0.0,0.0,0.0,0.15,0.25,0.2,0.0,0.0</t>
-  </si>
-  <si>
-    <t>316,1.33,12.53,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.25,0.25,0.0,0.0,423,1.0,13.98,0.0,0.04,1.5,0.0,0.0,0.0,0.0,0.3,0.35,0.0,0.0</t>
-  </si>
-  <si>
-    <t>343,0.33,14.05,0.0,0.03,1.0,0.0,0.0,0.0,0.25,0.2,0.2,0.0,0.0,482,0.67,10.86,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.2,0.25,0.07,0.0</t>
-  </si>
-  <si>
-    <t>361,0.2,13.32,0.0,0.02,1.0,0.0,0.0,0.0,0.2,0.2,0.2,0.07,0.13,254,0.0,11.28,0.0,0.0,1.0,0.0,0.0,0.0,0.15,0.15,0.15,0.0,0.0</t>
-  </si>
-  <si>
-    <t>300,0.5,17.77,0.0,0.02,2.5,0.0,0.0,0.0,0.0,0.2,0.2,0.0,0.0,348,0.2,10.27,0.0,0.01,1.0,0.0,0.0,0.0,0.3,0.25,0.3,0.0,0.0</t>
-  </si>
-  <si>
-    <t>364,0.5,11.95,0.0,0.01,1.0,0.0,0.0,0.0,0.2,0.2,0.2,0.0,0.0,254,0.0,11.28,0.0,0.0,1.0,0.0,0.0,0.0,0.15,0.15,0.15,0.0,0.0</t>
-  </si>
-  <si>
-    <t>300,0.5,17.77,0.0,0.02,2.5,0.0,0.0,0.0,0.0,0.2,0.2,0.0,0.0,482,0.67,10.86,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.2,0.25,0.07,0.0</t>
-  </si>
-  <si>
-    <t>423,1.0,13.98,0.0,0.04,1.5,0.0,0.0,0.0,0.0,0.3,0.35,0.0,0.0,254,0.0,11.28,0.0,0.0,1.0,0.0,0.0,0.0,0.15,0.15,0.15,0.0,0.0</t>
-  </si>
-  <si>
-    <t>354,0.25,10.16,0.0,0.0,1.0,0.0,0.0,0.0,0.15,0.35,0.35,0.0,0.0,356,0.33,12.99,0.0,0.01,1.0,0.0,0.0,0.0,0.25,0.4,0.45,0.0,0.0</t>
-  </si>
-  <si>
-    <t>429,1.0,9.71,0.0,0.0,1.0,0.0,0.0,0.0,0.2,0.25,0.2,0.07,0.13,383,0.5,12.24,0.0,0.01,1.0,0.0,0.0,0.0,0.05,0.2,0.15,0.0,0.0</t>
-  </si>
-  <si>
-    <t>198,0.0,10.37,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.2,0.2,0.0,0.0,254,0.0,11.28,0.0,0.0,1.0,0.0,0.0,0.0,0.15,0.15,0.15,0.0,0.0</t>
-  </si>
-  <si>
-    <t>429,1.0,9.71,0.0,0.0,1.0,0.0,0.0,0.0,0.2,0.25,0.2,0.07,0.13,313,0.33,16.98,0.0,0.04,1.0,0.0,0.0,0.0,0.3,0.35,0.35,0.07,0.0</t>
-  </si>
-  <si>
-    <t>348,0.2,10.27,0.0,0.01,1.0,0.0,0.0,0.0,0.3,0.25,0.3,0.0,0.0,544,0.75,12.11,0.0,0.02,1.0,0.0,0.0,0.0,0.2,0.25,0.2,0.0,0.0</t>
-  </si>
-  <si>
-    <t>364,0.5,11.95,0.0,0.01,1.0,0.0,0.0,0.0,0.2,0.2,0.2,0.0,0.0,545,0.25,10.37,0.0,0.01,1.0,0.0,0.0,0.0,0.2,0.25,0.25,0.13,0.13</t>
-  </si>
-  <si>
-    <t>348,0.2,10.27,0.0,0.01,1.0,0.0,0.0,0.0,0.3,0.25,0.3,0.0,0.0,356,0.33,12.99,0.0,0.01,1.0,0.0,0.0,0.0,0.25,0.4,0.45,0.0,0.0</t>
-  </si>
-  <si>
-    <t>348,0.2,8.88,0.0,0.0,1.0,0.0,0.0,0.0,0.15,0.1,0.1,0.07,0.13,354,0.25,10.16,0.0,0.0,1.0,0.0,0.0,0.0,0.15,0.35,0.35,0.0,0.0</t>
-  </si>
-  <si>
-    <t>318,3.0,11.9,0.0,0.0,1.0,0.0,0.0,0.0,0.15,0.35,0.4,0.0,0.0,457,0.0,8.23,0.0,0.02,1.0,0.0,0.0,0.0,0.15,0.25,0.2,0.0,0.0</t>
-  </si>
-  <si>
-    <t>545,0.25,10.37,0.0,0.01,1.0,0.0,0.0,0.0,0.2,0.25,0.25,0.13,0.13,318,3.0,11.9,0.0,0.0,1.0,0.0,0.0,0.0,0.15,0.35,0.4,0.0,0.0</t>
-  </si>
-  <si>
-    <t>482,0.67,10.86,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.2,0.25,0.07,0.0,545,0.25,10.37,0.0,0.01,1.0,0.0,0.0,0.0,0.2,0.25,0.25,0.13,0.13</t>
-  </si>
-  <si>
-    <t>511,0.17,9.94,0.0,0.02,1.0,0.0,0.0,0.0,0.2,0.4,0.4,0.0,0.0,316,1.33,12.53,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.25,0.25,0.0,0.0</t>
-  </si>
-  <si>
-    <t>350,1.0,13.33,0.0,0.0,1.0,0.0,0.0,0.0,0.2,0.35,0.35,0.0,0.0,254,0.0,11.28,0.0,0.0,1.0,0.0,0.0,0.0,0.15,0.15,0.15,0.0,0.0</t>
-  </si>
-  <si>
-    <t>361,0.2,13.32,0.0,0.02,1.0,0.0,0.0,0.0,0.2,0.2,0.2,0.07,0.13,356,0.33,12.99,0.0,0.01,1.0,0.0,0.0,0.0,0.25,0.4,0.45,0.0,0.0</t>
-  </si>
-  <si>
-    <t>423,1.0,13.98,0.0,0.04,1.5,0.0,0.0,0.0,0.0,0.3,0.35,0.0,0.0,348,0.2,10.27,0.0,0.01,1.0,0.0,0.0,0.0,0.3,0.25,0.3,0.0,0.0</t>
-  </si>
-  <si>
-    <t>503,0.25,8.94,0.0,0.01,1.0,0.0,0.0,0.0,0.05,0.1,0.1,0.0,0.0,316,1.33,12.53,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.25,0.25,0.0,0.0</t>
-  </si>
-  <si>
-    <t>429,1.0,9.71,0.0,0.0,1.0,0.0,0.0,0.0,0.2,0.25,0.2,0.07,0.13,503,0.25,8.94,0.0,0.01,1.0,0.0,0.0,0.0,0.05,0.1,0.1,0.0,0.0</t>
-  </si>
-  <si>
-    <t>555,0.8,11.9,0.0,0.02,1.0,0.0,0.0,0.0,0.15,0.25,0.2,0.2,0.0,318,3.0,11.9,0.0,0.0,1.0,0.0,0.0,0.0,0.15,0.35,0.4,0.0,0.0</t>
-  </si>
-  <si>
-    <t>423,1.0,13.98,0.0,0.04,1.5,0.0,0.0,0.0,0.0,0.3,0.35,0.0,0.0,545,0.25,10.37,0.0,0.01,1.0,0.0,0.0,0.0,0.2,0.25,0.25,0.13,0.13</t>
-  </si>
-  <si>
-    <t>371,0.5,11.98,0.0,0.03,1.0,0.0,0.0,0.0,0.2,0.15,0.2,0.0,0.0,555,0.8,11.9,0.0,0.02,1.0,0.0,0.0,0.0,0.15,0.25,0.2,0.2,0.0</t>
-  </si>
-  <si>
-    <t>354,0.25,10.16,0.0,0.0,1.0,0.0,0.0,0.0,0.15,0.35,0.35,0.0,0.0,528,0.2,11.74,0.0,0.0,1.0,0.0,0.0,0.0,0.15,0.3,0.25,0.07,0.13</t>
-  </si>
-  <si>
-    <t>545,0.25,10.37,0.0,0.01,1.0,0.0,0.0,0.0,0.2,0.25,0.25,0.13,0.13,383,0.5,12.24,0.0,0.01,1.0,0.0,0.0,0.0,0.05,0.2,0.15,0.0,0.0</t>
-  </si>
-  <si>
-    <t>373,0.2,8.66,0.0,0.01,1.0,0.0,0.0,0.0,0.1,0.2,0.2,0.07,0.13,198,0.0,10.37,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.2,0.2,0.0,0.0</t>
-  </si>
-  <si>
-    <t>545,0.25,10.37,0.0,0.01,1.0,0.0,0.0,0.0,0.2,0.25,0.25,0.13,0.13,250,0.5,12.61,0.0,0.0,1.0,0.0,0.0,0.0,0.2,0.25,0.25,0.0,0.0</t>
-  </si>
-  <si>
-    <t>348,0.2,8.88,0.0,0.0,1.0,0.0,0.0,0.0,0.15,0.1,0.1,0.07,0.13,545,0.25,10.37,0.0,0.01,1.0,0.0,0.0,0.0,0.2,0.25,0.25,0.13,0.13</t>
-  </si>
-  <si>
-    <t>383,0.5,12.24,0.0,0.01,1.0,0.0,0.0,0.0,0.05,0.2,0.15,0.0,0.0,544,0.75,12.11,0.0,0.02,1.0,0.0,0.0,0.0,0.2,0.25,0.2,0.0,0.0</t>
-  </si>
-  <si>
-    <t>361,0.2,13.32,0.0,0.02,1.0,0.0,0.0,0.0,0.2,0.2,0.2,0.07,0.13,457,0.0,8.23,0.0,0.02,1.0,0.0,0.0,0.0,0.15,0.25,0.2,0.0,0.0</t>
-  </si>
-  <si>
-    <t>371,0.5,11.98,0.0,0.03,1.0,0.0,0.0,0.0,0.2,0.15,0.2,0.0,0.0,299,0.0,9.92,0.0,0.0,1.0,0.0,0.0,0.0,0.15,0.3,0.3,0.0,0.0</t>
-  </si>
-  <si>
-    <t>535,0.75,10.46,0.0,0.02,1.0,0.0,0.0,0.0,0.2,0.3,0.25,0.07,0.13,383,0.5,12.24,0.0,0.01,1.0,0.0,0.0,0.0,0.05,0.2,0.15,0.0,0.0</t>
-  </si>
-  <si>
-    <t>270,0.0,8.74,0.0,0.0,1.0,0.0,0.0,0.0,0.2,0.2,0.2,0.0,0.0,528,0.2,11.74,0.0,0.0,1.0,0.0,0.0,0.0,0.15,0.3,0.25,0.07,0.13</t>
-  </si>
-  <si>
-    <t>373,0.2,8.66,0.0,0.01,1.0,0.0,0.0,0.0,0.1,0.2,0.2,0.07,0.13,545,0.25,10.37,0.0,0.01,1.0,0.0,0.0,0.0,0.2,0.25,0.25,0.13,0.13</t>
-  </si>
-  <si>
-    <t>318,3.0,11.9,0.0,0.0,1.0,0.0,0.0,0.0,0.15,0.35,0.4,0.0,0.0,270,0.0,8.74,0.0,0.0,1.0,0.0,0.0,0.0,0.2,0.2,0.2,0.0,0.0</t>
-  </si>
-  <si>
-    <t>318,3.0,11.9,0.0,0.0,1.0,0.0,0.0,0.0,0.15,0.35,0.4,0.0,0.0,356,0.33,12.99,0.0,0.01,1.0,0.0,0.0,0.0,0.25,0.4,0.45,0.0,0.0</t>
-  </si>
-  <si>
-    <t>348,0.2,10.27,0.0,0.01,1.0,0.0,0.0,0.0,0.3,0.25,0.3,0.0,0.0,482,0.67,10.86,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.2,0.25,0.07,0.0</t>
-  </si>
-  <si>
-    <t>544,0.75,12.11,0.0,0.02,1.0,0.0,0.0,0.0,0.2,0.25,0.2,0.0,0.0,361,0.2,13.32,0.0,0.02,1.0,0.0,0.0,0.0,0.2,0.2,0.2,0.07,0.13</t>
-  </si>
-  <si>
-    <t>383,0.5,12.24,0.0,0.01,1.0,0.0,0.0,0.0,0.05,0.2,0.15,0.0,0.0,552,0.29,12.33,0.0,0.02,1.0,0.0,0.0,0.0,0.25,0.35,0.35,0.07,0.13</t>
-  </si>
-  <si>
-    <t>348,0.2,8.88,0.0,0.0,1.0,0.0,0.0,0.0,0.15,0.1,0.1,0.07,0.13,528,0.2,11.74,0.0,0.0,1.0,0.0,0.0,0.0,0.15,0.3,0.25,0.07,0.13</t>
-  </si>
-  <si>
-    <t>198,0.0,10.37,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.2,0.2,0.0,0.0,528,0.2,11.74,0.0,0.0,1.0,0.0,0.0,0.0,0.15,0.3,0.25,0.07,0.13</t>
-  </si>
-  <si>
-    <t>270,0.0,8.74,0.0,0.0,1.0,0.0,0.0,0.0,0.2,0.2,0.2,0.0,0.0,350,1.0,13.33,0.0,0.0,1.0,0.0,0.0,0.0,0.2,0.35,0.35,0.0,0.0</t>
-  </si>
-  <si>
-    <t>300,0.5,17.77,0.0,0.02,2.5,0.0,0.0,0.0,0.0,0.2,0.2,0.0,0.0,350,1.0,13.33,0.0,0.0,1.0,0.0,0.0,0.0,0.2,0.35,0.35,0.0,0.0</t>
-  </si>
-  <si>
-    <t>356,0.33,12.99,0.0,0.01,1.0,0.0,0.0,0.0,0.25,0.4,0.45,0.0,0.0,482,0.67,10.86,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.2,0.25,0.07,0.0</t>
-  </si>
-  <si>
-    <t>423,1.0,13.98,0.0,0.04,1.5,0.0,0.0,0.0,0.0,0.3,0.35,0.0,0.0,429,1.0,9.71,0.0,0.0,1.0,0.0,0.0,0.0,0.2,0.25,0.2,0.07,0.13</t>
-  </si>
-  <si>
-    <t>316,1.33,12.53,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.25,0.25,0.0,0.0,361,0.2,13.32,0.0,0.02,1.0,0.0,0.0,0.0,0.2,0.2,0.2,0.07,0.13</t>
-  </si>
-  <si>
-    <t>354,0.25,10.16,0.0,0.0,1.0,0.0,0.0,0.0,0.15,0.35,0.35,0.0,0.0,316,1.33,12.53,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.25,0.25,0.0,0.0</t>
-  </si>
-  <si>
-    <t>555,0.8,11.9,0.0,0.02,1.0,0.0,0.0,0.0,0.15,0.25,0.2,0.2,0.0,552,0.29,12.33,0.0,0.02,1.0,0.0,0.0,0.0,0.25,0.35,0.35,0.07,0.13</t>
-  </si>
-  <si>
-    <t>535,0.75,10.46,0.0,0.02,1.0,0.0,0.0,0.0,0.2,0.3,0.25,0.07,0.13,316,1.33,12.53,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.25,0.25,0.0,0.0</t>
-  </si>
-  <si>
-    <t>535,0.75,10.46,0.0,0.02,1.0,0.0,0.0,0.0,0.2,0.3,0.25,0.07,0.13,364,0.5,11.95,0.0,0.01,1.0,0.0,0.0,0.0,0.2,0.2,0.2,0.0,0.0</t>
-  </si>
-  <si>
-    <t>390,0.25,10.25,0.0,0.0,1.0,0.0,0.0,0.0,0.2,0.25,0.25,0.0,0.0,354,0.25,10.16,0.0,0.0,1.0,0.0,0.0,0.0,0.15,0.35,0.35,0.0,0.0</t>
-  </si>
-  <si>
-    <t>316,1.33,12.53,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.25,0.25,0.0,0.0,318,3.0,11.9,0.0,0.0,1.0,0.0,0.0,0.0,0.15,0.35,0.4,0.0,0.0</t>
-  </si>
-  <si>
-    <t>361,0.2,13.32,0.0,0.02,1.0,0.0,0.0,0.0,0.2,0.2,0.2,0.07,0.13,299,0.0,9.92,0.0,0.0,1.0,0.0,0.0,0.0,0.15,0.3,0.3,0.0,0.0</t>
-  </si>
-  <si>
-    <t>364,0.5,11.95,0.0,0.01,1.0,0.0,0.0,0.0,0.2,0.2,0.2,0.0,0.0,503,0.25,8.94,0.0,0.01,1.0,0.0,0.0,0.0,0.05,0.1,0.1,0.0,0.0</t>
-  </si>
-  <si>
-    <t>535,0.75,10.46,0.0,0.02,1.0,0.0,0.0,0.0,0.2,0.3,0.25,0.07,0.13,299,0.0,9.92,0.0,0.0,1.0,0.0,0.0,0.0,0.15,0.3,0.3,0.0,0.0</t>
-  </si>
-  <si>
-    <t>552,0.29,12.33,0.0,0.02,1.0,0.0,0.0,0.0,0.25,0.35,0.35,0.07,0.13,457,0.0,8.23,0.0,0.02,1.0,0.0,0.0,0.0,0.15,0.25,0.2,0.0,0.0</t>
-  </si>
-  <si>
-    <t>250,0.5,12.61,0.0,0.0,1.0,0.0,0.0,0.0,0.2,0.25,0.25,0.0,0.0,318,3.0,11.9,0.0,0.0,1.0,0.0,0.0,0.0,0.15,0.35,0.4,0.0,0.0</t>
-  </si>
-  <si>
-    <t>457,0.0,8.23,0.0,0.02,1.0,0.0,0.0,0.0,0.15,0.25,0.2,0.0,0.0,354,0.25,10.16,0.0,0.0,1.0,0.0,0.0,0.0,0.15,0.35,0.35,0.0,0.0</t>
-  </si>
-  <si>
-    <t>457,0.0,8.23,0.0,0.02,1.0,0.0,0.0,0.0,0.15,0.25,0.2,0.0,0.0,511,0.17,9.94,0.0,0.02,1.0,0.0,0.0,0.0,0.2,0.4,0.4,0.0,0.0</t>
-  </si>
-  <si>
-    <t>511,0.17,9.94,0.0,0.02,1.0,0.0,0.0,0.0,0.2,0.4,0.4,0.0,0.0,313,0.33,16.98,0.0,0.04,1.0,0.0,0.0,0.0,0.3,0.35,0.35,0.07,0.0</t>
-  </si>
-  <si>
-    <t>429,1.0,9.71,0.0,0.0,1.0,0.0,0.0,0.0,0.2,0.25,0.2,0.07,0.13,270,0.0,8.74,0.0,0.0,1.0,0.0,0.0,0.0,0.2,0.2,0.2,0.0,0.0</t>
-  </si>
-  <si>
-    <t>535,0.75,10.46,0.0,0.02,1.0,0.0,0.0,0.0,0.2,0.3,0.25,0.07,0.13,503,0.25,8.94,0.0,0.01,1.0,0.0,0.0,0.0,0.05,0.1,0.1,0.0,0.0</t>
-  </si>
-  <si>
-    <t>482,0.67,10.86,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.2,0.25,0.07,0.0,356,0.33,12.99,0.0,0.01,1.0,0.0,0.0,0.0,0.25,0.4,0.45,0.0,0.0</t>
-  </si>
-  <si>
-    <t>555,0.8,11.9,0.0,0.02,1.0,0.0,0.0,0.0,0.15,0.25,0.2,0.2,0.0,364,0.5,11.95,0.0,0.01,1.0,0.0,0.0,0.0,0.2,0.2,0.2,0.0,0.0</t>
-  </si>
-  <si>
-    <t>250,0.5,12.61,0.0,0.0,1.0,0.0,0.0,0.0,0.2,0.25,0.25,0.0,0.0,354,0.25,10.16,0.0,0.0,1.0,0.0,0.0,0.0,0.15,0.35,0.35,0.0,0.0</t>
-  </si>
-  <si>
-    <t>300,0.5,17.77,0.0,0.02,2.5,0.0,0.0,0.0,0.0,0.2,0.2,0.0,0.0,316,1.33,12.53,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.25,0.25,0.0,0.0</t>
-  </si>
-  <si>
-    <t>423,1.0,13.98,0.0,0.04,1.5,0.0,0.0,0.0,0.0,0.3,0.35,0.0,0.0,313,0.33,16.98,0.0,0.04,1.0,0.0,0.0,0.0,0.3,0.35,0.35,0.07,0.0</t>
-  </si>
-  <si>
-    <t>348,0.2,8.88,0.0,0.0,1.0,0.0,0.0,0.0,0.15,0.1,0.1,0.07,0.13,299,0.0,9.92,0.0,0.0,1.0,0.0,0.0,0.0,0.15,0.3,0.3,0.0,0.0</t>
-  </si>
-  <si>
-    <t>528,0.2,11.74,0.0,0.0,1.0,0.0,0.0,0.0,0.15,0.3,0.25,0.07,0.13,544,0.75,12.11,0.0,0.02,1.0,0.0,0.0,0.0,0.2,0.25,0.2,0.0,0.0</t>
-  </si>
-  <si>
-    <t>511,0.17,9.94,0.0,0.02,1.0,0.0,0.0,0.0,0.2,0.4,0.4,0.0,0.0,555,0.8,11.9,0.0,0.02,1.0,0.0,0.0,0.0,0.15,0.25,0.2,0.2,0.0</t>
-  </si>
-  <si>
-    <t>356,0.33,12.99,0.0,0.01,1.0,0.0,0.0,0.0,0.25,0.4,0.45,0.0,0.0,361,0.2,13.32,0.0,0.02,1.0,0.0,0.0,0.0,0.2,0.2,0.2,0.07,0.13</t>
-  </si>
-  <si>
-    <t>429,1.0,9.71,0.0,0.0,1.0,0.0,0.0,0.0,0.2,0.25,0.2,0.07,0.13,316,1.33,12.53,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.25,0.25,0.0,0.0</t>
-  </si>
-  <si>
-    <t>348,0.2,8.88,0.0,0.0,1.0,0.0,0.0,0.0,0.15,0.1,0.1,0.07,0.13,318,3.0,11.9,0.0,0.0,1.0,0.0,0.0,0.0,0.15,0.35,0.4,0.0,0.0</t>
-  </si>
-  <si>
-    <t>348,0.2,10.27,0.0,0.01,1.0,0.0,0.0,0.0,0.3,0.25,0.3,0.0,0.0,313,0.33,16.98,0.0,0.04,1.0,0.0,0.0,0.0,0.3,0.35,0.35,0.07,0.0</t>
-  </si>
-  <si>
-    <t>371,0.5,11.98,0.0,0.03,1.0,0.0,0.0,0.0,0.2,0.15,0.2,0.0,0.0,254,0.0,11.28,0.0,0.0,1.0,0.0,0.0,0.0,0.15,0.15,0.15,0.0,0.0</t>
-  </si>
-  <si>
-    <t>250,0.5,12.61,0.0,0.0,1.0,0.0,0.0,0.0,0.2,0.25,0.25,0.0,0.0,552,0.29,12.33,0.0,0.02,1.0,0.0,0.0,0.0,0.25,0.35,0.35,0.07,0.13</t>
-  </si>
-  <si>
-    <t>348,0.2,10.27,0.0,0.01,1.0,0.0,0.0,0.0,0.3,0.25,0.3,0.0,0.0,511,0.17,9.94,0.0,0.02,1.0,0.0,0.0,0.0,0.2,0.4,0.4,0.0,0.0</t>
-  </si>
-  <si>
-    <t>347,0.25,12.59,0.0,0.0,1.0,0.0,0.0,0.0,0.35,0.5,0.4,0.07,0.13,361,0.2,13.32,0.0,0.02,1.0,0.0,0.0,0.0,0.2,0.2,0.2,0.07,0.13</t>
-  </si>
-  <si>
-    <t>373,0.2,8.66,0.0,0.01,1.0,0.0,0.0,0.0,0.1,0.2,0.2,0.07,0.13,503,0.25,8.94,0.0,0.01,1.0,0.0,0.0,0.0,0.05,0.1,0.1,0.0,0.0</t>
-  </si>
-  <si>
-    <t>511,0.17,9.94,0.0,0.02,1.0,0.0,0.0,0.0,0.2,0.4,0.4,0.0,0.0,198,0.0,10.37,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.2,0.2,0.0,0.0</t>
-  </si>
-  <si>
-    <t>356,0.33,12.99,0.0,0.01,1.0,0.0,0.0,0.0,0.25,0.4,0.45,0.0,0.0,254,0.0,11.28,0.0,0.0,1.0,0.0,0.0,0.0,0.15,0.15,0.15,0.0,0.0</t>
-  </si>
-  <si>
-    <t>482,0.67,10.86,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.2,0.25,0.07,0.0,511,0.17,9.94,0.0,0.02,1.0,0.0,0.0,0.0,0.2,0.4,0.4,0.0,0.0</t>
-  </si>
-  <si>
-    <t>299,0.0,9.92,0.0,0.0,1.0,0.0,0.0,0.0,0.15,0.3,0.3,0.0,0.0,555,0.8,11.9,0.0,0.02,1.0,0.0,0.0,0.0,0.15,0.25,0.2,0.2,0.0</t>
-  </si>
-  <si>
-    <t>552,0.29,12.33,0.0,0.02,1.0,0.0,0.0,0.0,0.25,0.35,0.35,0.07,0.13,350,1.0,13.33,0.0,0.0,1.0,0.0,0.0,0.0,0.2,0.35,0.35,0.0,0.0</t>
-  </si>
-  <si>
-    <t>250,0.5,12.61,0.0,0.0,1.0,0.0,0.0,0.0,0.2,0.25,0.25,0.0,0.0,390,0.25,10.25,0.0,0.0,1.0,0.0,0.0,0.0,0.2,0.25,0.25,0.0,0.0</t>
-  </si>
-  <si>
-    <t>348,0.2,10.27,0.0,0.01,1.0,0.0,0.0,0.0,0.3,0.25,0.3,0.0,0.0,354,0.25,10.16,0.0,0.0,1.0,0.0,0.0,0.0,0.15,0.35,0.35,0.0,0.0</t>
-  </si>
-  <si>
-    <t>350,1.0,13.33,0.0,0.0,1.0,0.0,0.0,0.0,0.2,0.35,0.35,0.0,0.0,535,0.75,10.46,0.0,0.02,1.0,0.0,0.0,0.0,0.2,0.3,0.25,0.07,0.13</t>
-  </si>
-  <si>
-    <t>361,0.2,13.32,0.0,0.02,1.0,0.0,0.0,0.0,0.2,0.2,0.2,0.07,0.13,300,0.5,17.77,0.0,0.02,2.5,0.0,0.0,0.0,0.0,0.2,0.2,0.0,0.0</t>
-  </si>
-  <si>
-    <t>270,0.0,8.74,0.0,0.0,1.0,0.0,0.0,0.0,0.2,0.2,0.2,0.0,0.0,371,0.5,11.98,0.0,0.03,1.0,0.0,0.0,0.0,0.2,0.15,0.2,0.0,0.0</t>
-  </si>
-  <si>
-    <t>250,0.5,12.61,0.0,0.0,1.0,0.0,0.0,0.0,0.2,0.25,0.25,0.0,0.0,429,1.0,9.71,0.0,0.0,1.0,0.0,0.0,0.0,0.2,0.25,0.2,0.07,0.13</t>
-  </si>
-  <si>
-    <t>390,0.25,10.25,0.0,0.0,1.0,0.0,0.0,0.0,0.2,0.25,0.25,0.0,0.0,511,0.17,9.94,0.0,0.02,1.0,0.0,0.0,0.0,0.2,0.4,0.4,0.0,0.0</t>
-  </si>
-  <si>
-    <t>348,0.2,8.88,0.0,0.0,1.0,0.0,0.0,0.0,0.15,0.1,0.1,0.07,0.13,300,0.5,17.77,0.0,0.02,2.5,0.0,0.0,0.0,0.0,0.2,0.2,0.0,0.0</t>
-  </si>
-  <si>
-    <t>318,3.0,11.9,0.0,0.0,1.0,0.0,0.0,0.0,0.15,0.35,0.4,0.0,0.0,254,0.0,11.28,0.0,0.0,1.0,0.0,0.0,0.0,0.15,0.15,0.15,0.0,0.0</t>
-  </si>
-  <si>
-    <t>348,0.2,10.27,0.0,0.01,1.0,0.0,0.0,0.0,0.3,0.25,0.3,0.0,0.0,361,0.2,13.32,0.0,0.02,1.0,0.0,0.0,0.0,0.2,0.2,0.2,0.07,0.13</t>
-  </si>
-  <si>
-    <t>511,0.17,9.94,0.0,0.02,1.0,0.0,0.0,0.0,0.2,0.4,0.4,0.0,0.0,545,0.25,10.37,0.0,0.01,1.0,0.0,0.0,0.0,0.2,0.25,0.25,0.13,0.13</t>
-  </si>
-  <si>
-    <t>250,0.5,12.61,0.0,0.0,1.0,0.0,0.0,0.0,0.2,0.25,0.25,0.0,0.0,535,0.75,10.46,0.0,0.02,1.0,0.0,0.0,0.0,0.2,0.3,0.25,0.07,0.13</t>
-  </si>
-  <si>
-    <t>354,0.25,10.16,0.0,0.0,1.0,0.0,0.0,0.0,0.15,0.35,0.35,0.0,0.0,373,0.2,8.66,0.0,0.01,1.0,0.0,0.0,0.0,0.1,0.2,0.2,0.07,0.13</t>
-  </si>
-  <si>
-    <t>347,0.25,12.59,0.0,0.0,1.0,0.0,0.0,0.0,0.35,0.5,0.4,0.07,0.13,348,0.2,8.88,0.0,0.0,1.0,0.0,0.0,0.0,0.15,0.1,0.1,0.07,0.13</t>
-  </si>
-  <si>
-    <t>270,0.0,8.74,0.0,0.0,1.0,0.0,0.0,0.0,0.2,0.2,0.2,0.0,0.0,457,0.0,8.23,0.0,0.02,1.0,0.0,0.0,0.0,0.15,0.25,0.2,0.0,0.0</t>
-  </si>
-  <si>
-    <t>482,0.67,10.86,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.2,0.25,0.07,0.0,250,0.5,12.61,0.0,0.0,1.0,0.0,0.0,0.0,0.2,0.25,0.25,0.0,0.0</t>
-  </si>
-  <si>
-    <t>545,0.25,10.37,0.0,0.01,1.0,0.0,0.0,0.0,0.2,0.25,0.25,0.13,0.13,270,0.0,8.74,0.0,0.0,1.0,0.0,0.0,0.0,0.2,0.2,0.2,0.0,0.0</t>
-  </si>
-  <si>
-    <t>383,0.5,12.24,0.0,0.01,1.0,0.0,0.0,0.0,0.05,0.2,0.15,0.0,0.0,457,0.0,8.23,0.0,0.02,1.0,0.0,0.0,0.0,0.15,0.25,0.2,0.0,0.0</t>
-  </si>
-  <si>
-    <t>250,0.5,12.61,0.0,0.0,1.0,0.0,0.0,0.0,0.2,0.25,0.25,0.0,0.0,511,0.17,9.94,0.0,0.02,1.0,0.0,0.0,0.0,0.2,0.4,0.4,0.0,0.0</t>
-  </si>
-  <si>
-    <t>429,1.0,9.71,0.0,0.0,1.0,0.0,0.0,0.0,0.2,0.25,0.2,0.07,0.13,348,0.2,10.27,0.0,0.01,1.0,0.0,0.0,0.0,0.3,0.25,0.3,0.0,0.0</t>
-  </si>
-  <si>
-    <t>350,1.0,13.33,0.0,0.0,1.0,0.0,0.0,0.0,0.2,0.35,0.35,0.0,0.0,318,3.0,11.9,0.0,0.0,1.0,0.0,0.0,0.0,0.15,0.35,0.4,0.0,0.0</t>
-  </si>
-  <si>
-    <t>356,0.33,12.99,0.0,0.01,1.0,0.0,0.0,0.0,0.25,0.4,0.45,0.0,0.0,354,0.25,10.16,0.0,0.0,1.0,0.0,0.0,0.0,0.15,0.35,0.35,0.0,0.0</t>
-  </si>
-  <si>
-    <t>347,0.25,12.59,0.0,0.0,1.0,0.0,0.0,0.0,0.35,0.5,0.4,0.07,0.13,371,0.5,11.98,0.0,0.03,1.0,0.0,0.0,0.0,0.2,0.15,0.2,0.0,0.0</t>
-  </si>
-  <si>
-    <t>348,0.2,10.27,0.0,0.01,1.0,0.0,0.0,0.0,0.3,0.25,0.3,0.0,0.0,528,0.2,11.74,0.0,0.0,1.0,0.0,0.0,0.0,0.15,0.3,0.25,0.07,0.13</t>
-  </si>
-  <si>
-    <t>482,0.67,10.86,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.2,0.25,0.07,0.0,316,1.33,12.53,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.25,0.25,0.0,0.0</t>
-  </si>
-  <si>
-    <t>250,0.5,12.61,0.0,0.0,1.0,0.0,0.0,0.0,0.2,0.25,0.25,0.0,0.0,383,0.5,12.24,0.0,0.01,1.0,0.0,0.0,0.0,0.05,0.2,0.15,0.0,0.0</t>
-  </si>
-  <si>
-    <t>528,0.2,11.74,0.0,0.0,1.0,0.0,0.0,0.0,0.15,0.3,0.25,0.07,0.13,316,1.33,12.53,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.25,0.25,0.0,0.0</t>
-  </si>
-  <si>
-    <t>356,0.33,12.99,0.0,0.01,1.0,0.0,0.0,0.0,0.25,0.4,0.45,0.0,0.0,457,0.0,8.23,0.0,0.02,1.0,0.0,0.0,0.0,0.15,0.25,0.2,0.0,0.0</t>
-  </si>
-  <si>
-    <t>544,0.75,12.11,0.0,0.02,1.0,0.0,0.0,0.0,0.2,0.25,0.2,0.0,0.0,545,0.25,10.37,0.0,0.01,1.0,0.0,0.0,0.0,0.2,0.25,0.25,0.13,0.13</t>
-  </si>
-  <si>
-    <t>250,0.5,12.61,0.0,0.0,1.0,0.0,0.0,0.0,0.2,0.25,0.25,0.0,0.0,198,0.0,10.37,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.2,0.2,0.0,0.0</t>
-  </si>
-  <si>
-    <t>371,0.5,11.98,0.0,0.03,1.0,0.0,0.0,0.0,0.2,0.15,0.2,0.0,0.0,429,1.0,9.71,0.0,0.0,1.0,0.0,0.0,0.0,0.2,0.25,0.2,0.07,0.13</t>
-  </si>
-  <si>
-    <t>354,0.25,10.16,0.0,0.0,1.0,0.0,0.0,0.0,0.15,0.35,0.35,0.0,0.0,198,0.0,10.37,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.2,0.2,0.0,0.0</t>
-  </si>
-  <si>
-    <t>348,0.2,8.88,0.0,0.0,1.0,0.0,0.0,0.0,0.15,0.1,0.1,0.07,0.13,198,0.0,10.37,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.2,0.2,0.0,0.0</t>
-  </si>
-  <si>
-    <t>364,0.5,11.95,0.0,0.01,1.0,0.0,0.0,0.0,0.2,0.2,0.2,0.0,0.0,347,0.25,12.59,0.0,0.0,1.0,0.0,0.0,0.0,0.35,0.5,0.4,0.07,0.13</t>
-  </si>
-  <si>
-    <t>457,0.0,8.23,0.0,0.02,1.0,0.0,0.0,0.0,0.15,0.25,0.2,0.0,0.0,535,0.75,10.46,0.0,0.02,1.0,0.0,0.0,0.0,0.2,0.3,0.25,0.07,0.13</t>
-  </si>
-  <si>
-    <t>482,0.67,10.86,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.2,0.25,0.07,0.0,555,0.8,11.9,0.0,0.02,1.0,0.0,0.0,0.0,0.15,0.25,0.2,0.2,0.0</t>
-  </si>
-  <si>
-    <t>250,0.5,12.61,0.0,0.0,1.0,0.0,0.0,0.0,0.2,0.25,0.25,0.0,0.0,423,1.0,13.98,0.0,0.04,1.5,0.0,0.0,0.0,0.0,0.3,0.35,0.0,0.0</t>
-  </si>
-  <si>
-    <t>361,0.2,13.32,0.0,0.02,1.0,0.0,0.0,0.0,0.2,0.2,0.2,0.07,0.13,423,1.0,13.98,0.0,0.04,1.5,0.0,0.0,0.0,0.0,0.3,0.35,0.0,0.0</t>
-  </si>
-  <si>
-    <t>361,0.2,13.32,0.0,0.02,1.0,0.0,0.0,0.0,0.2,0.2,0.2,0.07,0.13,371,0.5,11.98,0.0,0.03,1.0,0.0,0.0,0.0,0.2,0.15,0.2,0.0,0.0</t>
-  </si>
-  <si>
-    <t>300,0.5,17.77,0.0,0.02,2.5,0.0,0.0,0.0,0.0,0.2,0.2,0.0,0.0,555,0.8,11.9,0.0,0.02,1.0,0.0,0.0,0.0,0.15,0.25,0.2,0.2,0.0</t>
-  </si>
-  <si>
-    <t>528,0.2,11.74,0.0,0.0,1.0,0.0,0.0,0.0,0.15,0.3,0.25,0.07,0.13,350,1.0,13.33,0.0,0.0,1.0,0.0,0.0,0.0,0.2,0.35,0.35,0.0,0.0</t>
-  </si>
-  <si>
-    <t>545,0.25,10.37,0.0,0.01,1.0,0.0,0.0,0.0,0.2,0.25,0.25,0.13,0.13,348,0.2,10.27,0.0,0.01,1.0,0.0,0.0,0.0,0.3,0.25,0.3,0.0,0.0</t>
-  </si>
-  <si>
-    <t>429,1.0,9.71,0.0,0.0,1.0,0.0,0.0,0.0,0.2,0.25,0.2,0.07,0.13,555,0.8,11.9,0.0,0.02,1.0,0.0,0.0,0.0,0.15,0.25,0.2,0.2,0.0</t>
-  </si>
-  <si>
-    <t>429,1.0,9.71,0.0,0.0,1.0,0.0,0.0,0.0,0.2,0.25,0.2,0.07,0.13,544,0.75,12.11,0.0,0.02,1.0,0.0,0.0,0.0,0.2,0.25,0.2,0.0,0.0</t>
-  </si>
-  <si>
-    <t>373,0.2,8.66,0.0,0.01,1.0,0.0,0.0,0.0,0.1,0.2,0.2,0.07,0.13,555,0.8,11.9,0.0,0.02,1.0,0.0,0.0,0.0,0.15,0.25,0.2,0.2,0.0</t>
-  </si>
-  <si>
-    <t>299,0.0,9.92,0.0,0.0,1.0,0.0,0.0,0.0,0.15,0.3,0.3,0.0,0.0,373,0.2,8.66,0.0,0.01,1.0,0.0,0.0,0.0,0.1,0.2,0.2,0.07,0.13</t>
-  </si>
-  <si>
-    <t>350,1.0,13.33,0.0,0.0,1.0,0.0,0.0,0.0,0.2,0.35,0.35,0.0,0.0,356,0.33,12.99,0.0,0.01,1.0,0.0,0.0,0.0,0.25,0.4,0.45,0.0,0.0</t>
-  </si>
-  <si>
-    <t>482,0.67,10.86,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.2,0.25,0.07,0.0,299,0.0,9.92,0.0,0.0,1.0,0.0,0.0,0.0,0.15,0.3,0.3,0.0,0.0</t>
-  </si>
-  <si>
-    <t>254,0.0,11.28,0.0,0.0,1.0,0.0,0.0,0.0,0.15,0.15,0.15,0.0,0.0,544,0.75,12.11,0.0,0.02,1.0,0.0,0.0,0.0,0.2,0.25,0.2,0.0,0.0</t>
-  </si>
-  <si>
-    <t>373,0.2,8.66,0.0,0.01,1.0,0.0,0.0,0.0,0.1,0.2,0.2,0.07,0.13,552,0.29,12.33,0.0,0.02,1.0,0.0,0.0,0.0,0.25,0.35,0.35,0.07,0.13</t>
-  </si>
-  <si>
-    <t>356,0.33,12.99,0.0,0.01,1.0,0.0,0.0,0.0,0.25,0.4,0.45,0.0,0.0,350,1.0,13.33,0.0,0.0,1.0,0.0,0.0,0.0,0.2,0.35,0.35,0.0,0.0</t>
-  </si>
-  <si>
-    <t>361,0.2,13.32,0.0,0.02,1.0,0.0,0.0,0.0,0.2,0.2,0.2,0.07,0.13,343,0.33,14.05,0.0,0.03,1.0,0.0,0.0,0.0,0.25,0.2,0.2,0.0,0.0</t>
-  </si>
-  <si>
-    <t>503,0.25,8.94,0.0,0.01,1.0,0.0,0.0,0.0,0.05,0.1,0.1,0.0,0.0,347,0.25,12.59,0.0,0.0,1.0,0.0,0.0,0.0,0.35,0.5,0.4,0.07,0.13</t>
-  </si>
-  <si>
-    <t>254,0.0,11.28,0.0,0.0,1.0,0.0,0.0,0.0,0.15,0.15,0.15,0.0,0.0,457,0.0,8.23,0.0,0.02,1.0,0.0,0.0,0.0,0.15,0.25,0.2,0.0,0.0</t>
-  </si>
-  <si>
-    <t>299,0.0,9.92,0.0,0.0,1.0,0.0,0.0,0.0,0.15,0.3,0.3,0.0,0.0,250,0.5,12.61,0.0,0.0,1.0,0.0,0.0,0.0,0.2,0.25,0.25,0.0,0.0</t>
-  </si>
-  <si>
-    <t>254,0.0,11.28,0.0,0.0,1.0,0.0,0.0,0.0,0.15,0.15,0.15,0.0,0.0,343,0.33,14.05,0.0,0.03,1.0,0.0,0.0,0.0,0.25,0.2,0.2,0.0,0.0</t>
-  </si>
-  <si>
-    <t>361,0.2,13.32,0.0,0.02,1.0,0.0,0.0,0.0,0.2,0.2,0.2,0.07,0.13,528,0.2,11.74,0.0,0.0,1.0,0.0,0.0,0.0,0.15,0.3,0.25,0.07,0.13</t>
-  </si>
-  <si>
-    <t>503,0.25,8.94,0.0,0.01,1.0,0.0,0.0,0.0,0.05,0.1,0.1,0.0,0.0,544,0.75,12.11,0.0,0.02,1.0,0.0,0.0,0.0,0.2,0.25,0.2,0.0,0.0</t>
-  </si>
-  <si>
-    <t>552,0.29,12.33,0.0,0.02,1.0,0.0,0.0,0.0,0.25,0.35,0.35,0.07,0.13,423,1.0,13.98,0.0,0.04,1.5,0.0,0.0,0.0,0.0,0.3,0.35,0.0,0.0</t>
-  </si>
-  <si>
-    <t>482,0.67,10.86,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.2,0.25,0.07,0.0,390,0.25,10.25,0.0,0.0,1.0,0.0,0.0,0.0,0.2,0.25,0.25,0.0,0.0</t>
-  </si>
-  <si>
-    <t>347,0.25,12.59,0.0,0.0,1.0,0.0,0.0,0.0,0.35,0.5,0.4,0.07,0.13,528,0.2,11.74,0.0,0.0,1.0,0.0,0.0,0.0,0.15,0.3,0.25,0.07,0.13</t>
-  </si>
-  <si>
-    <t>350,1.0,13.33,0.0,0.0,1.0,0.0,0.0,0.0,0.2,0.35,0.35,0.0,0.0,383,0.5,12.24,0.0,0.01,1.0,0.0,0.0,0.0,0.05,0.2,0.15,0.0,0.0</t>
-  </si>
-  <si>
-    <t>535,0.75,10.46,0.0,0.02,1.0,0.0,0.0,0.0,0.2,0.3,0.25,0.07,0.13,545,0.25,10.37,0.0,0.01,1.0,0.0,0.0,0.0,0.2,0.25,0.25,0.13,0.13</t>
-  </si>
-  <si>
-    <t>299,0.0,9.92,0.0,0.0,1.0,0.0,0.0,0.0,0.15,0.3,0.3,0.0,0.0,318,3.0,11.9,0.0,0.0,1.0,0.0,0.0,0.0,0.15,0.35,0.4,0.0,0.0</t>
-  </si>
-  <si>
-    <t>555,0.8,11.9,0.0,0.02,1.0,0.0,0.0,0.0,0.15,0.25,0.2,0.2,0.0,423,1.0,13.98,0.0,0.04,1.5,0.0,0.0,0.0,0.0,0.3,0.35,0.0,0.0</t>
-  </si>
-  <si>
-    <t>371,0.5,11.98,0.0,0.03,1.0,0.0,0.0,0.0,0.2,0.15,0.2,0.0,0.0,318,3.0,11.9,0.0,0.0,1.0,0.0,0.0,0.0,0.15,0.35,0.4,0.0,0.0</t>
-  </si>
-  <si>
-    <t>390,0.25,10.25,0.0,0.0,1.0,0.0,0.0,0.0,0.2,0.25,0.25,0.0,0.0,544,0.75,12.11,0.0,0.02,1.0,0.0,0.0,0.0,0.2,0.25,0.2,0.0,0.0</t>
-  </si>
-  <si>
-    <t>545,0.25,10.37,0.0,0.01,1.0,0.0,0.0,0.0,0.2,0.25,0.25,0.13,0.13,361,0.2,13.32,0.0,0.02,1.0,0.0,0.0,0.0,0.2,0.2,0.2,0.07,0.13</t>
-  </si>
-  <si>
-    <t>390,0.25,10.25,0.0,0.0,1.0,0.0,0.0,0.0,0.2,0.25,0.25,0.0,0.0,457,0.0,8.23,0.0,0.02,1.0,0.0,0.0,0.0,0.15,0.25,0.2,0.0,0.0</t>
-  </si>
-  <si>
-    <t>348,0.2,8.88,0.0,0.0,1.0,0.0,0.0,0.0,0.15,0.1,0.1,0.07,0.13,552,0.29,12.33,0.0,0.02,1.0,0.0,0.0,0.0,0.25,0.35,0.35,0.07,0.13</t>
-  </si>
-  <si>
-    <t>347,0.25,12.59,0.0,0.0,1.0,0.0,0.0,0.0,0.35,0.5,0.4,0.07,0.13,350,1.0,13.33,0.0,0.0,1.0,0.0,0.0,0.0,0.2,0.35,0.35,0.0,0.0</t>
-  </si>
-  <si>
-    <t>364,0.5,11.95,0.0,0.01,1.0,0.0,0.0,0.0,0.2,0.2,0.2,0.0,0.0,423,1.0,13.98,0.0,0.04,1.5,0.0,0.0,0.0,0.0,0.3,0.35,0.0,0.0</t>
+    <t>18.0,5.06,0.94,0.98,0.96,0.5,11.95,0.0,0.01,1.0,0,0,0.0,0.0,0.0,0.15,0.11,0.18,0.08,0.08,0.15,0.0,0.0,0.0,0.0,15.13,14.71,5.36,1.35,1.71,0.79,0.29,12.33,0.0,0.02,1.0,0,0,0.0,0.0,0.0,0.18,0.1,0.19,0.07,0.07,0.06,0.01,0.0,0.13,0.13,12.48</t>
+  </si>
+  <si>
+    <t>24.0,5.21,0.63,0.49,1.28,0.5,12.61,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.15,0.02,0.25,0.08,0.08,0.1,0.04,0.0,0.0,0.0,23.67,13.0,5.55,0.85,1.22,0.7,0.2,13.32,0.0,0.02,1.0,0,0,0.0,0.0,0.0,0.14,0.11,0.25,0.05,0.05,0.05,0.05,0.27,0.13,0.13,10.9</t>
+  </si>
+  <si>
+    <t>23.0,6.52,0.6,0.49,1.23,0.5,17.77,0.0,0.02,2.5,0,0,0.0,0.0,0.0,0.22,0.17,0.13,0.02,0.02,0.04,0.11,0.18,0.0,0.0,4.25,18.0,5.06,0.94,0.98,0.96,0.5,11.95,0.0,0.01,1.0,0,0,0.0,0.0,0.0,0.15,0.11,0.18,0.08,0.08,0.15,0.0,0.0,0.0,0.0,15.13</t>
+  </si>
+  <si>
+    <t>16.4,4.55,1.07,1.22,0.88,0.2,8.66,0.0,0.01,1.0,0,0,0.0,0.0,0.0,0.09,0.05,0.23,0.05,0.05,0.17,0.0,0.0,0.13,0.13,19.91,21.33,5.36,0.84,0.73,1.14,0.33,14.05,0.0,0.03,1.0,0,0,0.0,0.0,0.0,0.19,0.06,0.14,0.09,0.09,0.16,0.05,0.09,0.0,0.0,14.0</t>
+  </si>
+  <si>
+    <t>21.6,5.14,1.41,1.22,1.16,0.8,11.9,0.0,0.02,1.0,0,0,0.0,0.0,0.0,0.17,0.05,0.2,0.05,0.05,0.21,0.0,0.0,0.0,0.0,8.33,15.0,4.64,0.98,1.22,0.8,0.2,8.88,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.11,0.09,0.2,0.09,0.09,0.13,0.0,0.0,0.13,0.13,25.5</t>
+  </si>
+  <si>
+    <t>23.0,5.16,0.9,0.73,1.23,0.33,12.99,0.0,0.01,1.0,0,0,0.0,0.0,0.0,0.16,0.07,0.19,0.03,0.03,0.13,0.01,0.0,0.0,0.0,19.31,14.25,4.74,0.75,0.98,0.76,0.0,8.74,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.09,0.09,0.23,0.14,0.14,0.12,0.0,0.0,0.0,0.0,41.8</t>
+  </si>
+  <si>
+    <t>33.5,5.22,0.88,0.49,1.79,1.0,13.33,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.12,0.09,0.21,0.06,0.06,0.1,0.01,0.0,0.0,0.0,16.47,42.0,4.71,0.55,0.24,2.25,0.0,10.37,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.12,0.07,0.29,0.05,0.05,0.07,0.02,0.0,0.0,0.0,29.0</t>
+  </si>
+  <si>
+    <t>18.5,5.18,0.97,0.98,0.99,0.5,12.24,0.0,0.01,1.0,0,0,0.0,0.0,0.0,0.15,0.11,0.22,0.03,0.03,0.14,0.0,0.0,0.0,0.0,22.2,13.0,5.55,0.85,1.22,0.7,0.2,13.32,0.0,0.02,1.0,0,0,0.0,0.0,0.0,0.14,0.11,0.25,0.05,0.05,0.05,0.05,0.27,0.13,0.13,10.9</t>
+  </si>
+  <si>
+    <t>23.0,6.52,0.6,0.49,1.23,0.5,17.77,0.0,0.02,2.5,0,0,0.0,0.0,0.0,0.22,0.17,0.13,0.02,0.02,0.04,0.11,0.18,0.0,0.0,4.25,18.0,4.92,0.94,0.98,0.96,0.25,10.16,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.13,0.08,0.26,0.04,0.04,0.15,0.01,0.0,0.0,0.0,22.6</t>
+  </si>
+  <si>
+    <t>13.0,5.55,0.85,1.22,0.7,0.2,13.32,0.0,0.02,1.0,0,0,0.0,0.0,0.0,0.14,0.11,0.25,0.05,0.05,0.05,0.05,0.27,0.13,0.13,10.9,42.0,4.71,0.55,0.24,2.25,0.0,10.37,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.12,0.07,0.29,0.05,0.05,0.07,0.02,0.0,0.0,0.0,29.0</t>
+  </si>
+  <si>
+    <t>17.0,4.98,0.67,0.73,0.91,0.0,11.28,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.14,0.08,0.16,0.08,0.08,0.14,0.0,0.0,0.0,0.0,17.11,23.0,6.52,0.6,0.49,1.23,0.5,17.77,0.0,0.02,2.5,0,0,0.0,0.0,0.0,0.22,0.17,0.13,0.02,0.02,0.04,0.11,0.18,0.0,0.0,4.25</t>
+  </si>
+  <si>
+    <t>15.0,4.64,0.98,1.22,0.8,0.2,8.88,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.11,0.09,0.2,0.09,0.09,0.13,0.0,0.0,0.13,0.13,25.5,20.25,4.81,1.06,0.98,1.08,0.25,10.25,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.07,0.1,0.22,0.06,0.06,0.15,0.01,0.0,0.0,0.0,26.38</t>
+  </si>
+  <si>
+    <t>33.5,5.22,0.88,0.49,1.79,1.0,13.33,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.12,0.09,0.21,0.06,0.06,0.1,0.01,0.0,0.0,0.0,16.47,15.25,4.9,0.8,0.98,0.82,0.0,9.92,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.15,0.11,0.16,0.1,0.1,0.05,0.03,0.09,0.0,0.0,22.2</t>
+  </si>
+  <si>
+    <t>21.33,5.36,0.84,0.73,1.14,0.33,14.05,0.0,0.03,1.0,0,0,0.0,0.0,0.0,0.19,0.06,0.14,0.09,0.09,0.16,0.05,0.09,0.0,0.0,14.0,21.6,5.14,1.41,1.22,1.16,0.8,11.9,0.0,0.02,1.0,0,0,0.0,0.0,0.0,0.17,0.05,0.2,0.05,0.05,0.21,0.0,0.0,0.0,0.0,8.33</t>
+  </si>
+  <si>
+    <t>21.0,5.03,1.37,1.22,1.12,0.2,11.74,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.11,0.04,0.25,0.09,0.09,0.1,0.01,0.0,0.13,0.13,14.94,17.33,6.02,0.68,0.73,0.93,0.33,16.98,0.0,0.04,1.0,0,0,0.0,0.0,0.0,0.23,0.08,0.19,0.08,0.08,0.06,0.06,0.09,0.0,0.0,12.94</t>
+  </si>
+  <si>
+    <t>16.25,5.34,0.85,0.98,0.87,0.25,12.59,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.17,0.08,0.23,0.02,0.02,0.11,0.0,0.0,0.13,0.13,15.39,20.33,5.18,0.8,0.73,1.09,1.33,12.53,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.18,0.03,0.2,0.07,0.07,0.1,0.0,0.0,0.0,0.0,19.5</t>
+  </si>
+  <si>
+    <t>14.71,5.36,1.35,1.71,0.79,0.29,12.33,0.0,0.02,1.0,0,0,0.0,0.0,0.0,0.18,0.1,0.19,0.07,0.07,0.06,0.01,0.0,0.13,0.13,12.48,18.0,4.92,0.94,0.98,0.96,0.25,10.16,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.13,0.08,0.26,0.04,0.04,0.15,0.01,0.0,0.0,0.0,22.6</t>
+  </si>
+  <si>
+    <t>18.0,4.73,1.41,1.47,0.96,0.17,9.94,0.0,0.02,1.0,0,0,0.0,0.0,0.0,0.11,0.06,0.19,0.06,0.06,0.11,0.0,0.0,0.0,0.0,15.94,22.75,4.71,1.19,0.98,1.22,1.0,9.71,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.12,0.07,0.23,0.05,0.05,0.18,0.0,0.0,0.13,0.13,18.83</t>
+  </si>
+  <si>
+    <t>18.25,5.08,0.96,0.98,0.98,0.5,11.98,0.0,0.03,1.0,0,0,0.0,0.0,0.0,0.15,0.07,0.18,0.07,0.07,0.12,0.0,0.0,0.0,0.0,16.85,14.71,5.36,1.35,1.71,0.79,0.29,12.33,0.0,0.02,1.0,0,0,0.0,0.0,0.0,0.18,0.1,0.19,0.07,0.07,0.06,0.01,0.0,0.13,0.13,12.48</t>
+  </si>
+  <si>
+    <t>23.0,5.16,0.9,0.73,1.23,0.33,12.99,0.0,0.01,1.0,0,0,0.0,0.0,0.0,0.16,0.07,0.19,0.03,0.03,0.13,0.01,0.0,0.0,0.0,19.31,23.0,6.52,0.6,0.49,1.23,0.5,17.77,0.0,0.02,2.5,0,0,0.0,0.0,0.0,0.22,0.17,0.13,0.02,0.02,0.04,0.11,0.18,0.0,0.0,4.25</t>
+  </si>
+  <si>
+    <t>39.0,5.42,1.02,0.49,2.09,1.0,13.98,0.0,0.04,1.5,0,0,0.0,0.0,0.0,0.09,0.1,0.21,0.04,0.04,0.1,0.01,0.0,0.0,0.0,13.05,18.0,4.92,0.94,0.98,0.96,0.25,10.16,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.13,0.08,0.26,0.04,0.04,0.15,0.01,0.0,0.0,0.0,22.6</t>
+  </si>
+  <si>
+    <t>23.0,5.16,0.9,0.73,1.23,0.33,12.99,0.0,0.01,1.0,0,0,0.0,0.0,0.0,0.16,0.07,0.19,0.03,0.03,0.13,0.01,0.0,0.0,0.0,19.31,16.4,4.55,1.07,1.22,0.88,0.2,8.66,0.0,0.01,1.0,0,0,0.0,0.0,0.0,0.09,0.05,0.23,0.05,0.05,0.17,0.0,0.0,0.13,0.13,19.91</t>
+  </si>
+  <si>
+    <t>18.25,5.08,0.96,0.98,0.98,0.5,11.98,0.0,0.03,1.0,0,0,0.0,0.0,0.0,0.15,0.07,0.18,0.07,0.07,0.12,0.0,0.0,0.0,0.0,16.85,23.0,5.16,0.9,0.73,1.23,0.33,12.99,0.0,0.01,1.0,0,0,0.0,0.0,0.0,0.16,0.07,0.19,0.03,0.03,0.13,0.01,0.0,0.0,0.0,19.31</t>
+  </si>
+  <si>
+    <t>15.25,4.9,0.8,0.98,0.82,0.0,9.92,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.15,0.11,0.16,0.1,0.1,0.05,0.03,0.09,0.0,0.0,22.2,18.0,4.92,0.94,0.98,0.96,0.25,10.16,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.13,0.08,0.26,0.04,0.04,0.15,0.01,0.0,0.0,0.0,22.6</t>
+  </si>
+  <si>
+    <t>21.6,5.14,1.41,1.22,1.16,0.8,11.9,0.0,0.02,1.0,0,0,0.0,0.0,0.0,0.17,0.05,0.2,0.05,0.05,0.21,0.0,0.0,0.0,0.0,8.33,13.0,5.55,0.85,1.22,0.7,0.2,13.32,0.0,0.02,1.0,0,0,0.0,0.0,0.0,0.14,0.11,0.25,0.05,0.05,0.05,0.05,0.27,0.13,0.13,10.9</t>
+  </si>
+  <si>
+    <t>21.33,5.36,0.84,0.73,1.14,0.33,14.05,0.0,0.03,1.0,0,0,0.0,0.0,0.0,0.19,0.06,0.14,0.09,0.09,0.16,0.05,0.09,0.0,0.0,14.0,13.25,4.75,1.39,1.96,0.71,0.25,8.94,0.0,0.01,1.0,0,0,0.0,0.0,0.0,0.11,0.08,0.26,0.02,0.02,0.2,0.01,0.0,0.0,0.0,25.13</t>
+  </si>
+  <si>
+    <t>20.33,5.18,0.8,0.73,1.09,1.33,12.53,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.18,0.03,0.2,0.07,0.07,0.1,0.0,0.0,0.0,0.0,19.5,14.71,5.36,1.35,1.71,0.79,0.29,12.33,0.0,0.02,1.0,0,0,0.0,0.0,0.0,0.18,0.1,0.19,0.07,0.07,0.06,0.01,0.0,0.13,0.13,12.48</t>
+  </si>
+  <si>
+    <t>18.0,4.92,0.94,0.98,0.96,0.25,10.16,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.13,0.08,0.26,0.04,0.04,0.15,0.01,0.0,0.0,0.0,22.6,26.75,5.08,1.4,0.98,1.43,0.75,12.11,0.0,0.02,1.0,0,0,0.0,0.0,0.0,0.19,0.05,0.18,0.12,0.12,0.16,0.01,0.0,0.0,0.0,11.41</t>
+  </si>
+  <si>
+    <t>20.25,4.81,1.06,0.98,1.08,0.25,10.25,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.07,0.1,0.22,0.06,0.06,0.15,0.01,0.0,0.0,0.0,26.38,13.0,5.55,0.85,1.22,0.7,0.2,13.32,0.0,0.02,1.0,0,0,0.0,0.0,0.0,0.14,0.11,0.25,0.05,0.05,0.05,0.05,0.27,0.13,0.13,10.9</t>
+  </si>
+  <si>
+    <t>21.6,5.14,1.41,1.22,1.16,0.8,11.9,0.0,0.02,1.0,0,0,0.0,0.0,0.0,0.17,0.05,0.2,0.05,0.05,0.21,0.0,0.0,0.0,0.0,8.33,23.0,5.16,0.9,0.73,1.23,0.33,12.99,0.0,0.01,1.0,0,0,0.0,0.0,0.0,0.16,0.07,0.19,0.03,0.03,0.13,0.01,0.0,0.0,0.0,19.31</t>
+  </si>
+  <si>
+    <t>14.2,4.9,0.93,1.22,0.76,0.2,10.27,0.0,0.01,1.0,0,0,0.0,0.0,0.0,0.15,0.07,0.18,0.06,0.06,0.15,0.01,0.0,0.0,0.0,19.18,16.4,4.55,1.07,1.22,0.88,0.2,8.66,0.0,0.01,1.0,0,0,0.0,0.0,0.0,0.09,0.05,0.23,0.05,0.05,0.17,0.0,0.0,0.13,0.13,19.91</t>
+  </si>
+  <si>
+    <t>21.33,5.36,0.84,0.73,1.14,0.33,14.05,0.0,0.03,1.0,0,0,0.0,0.0,0.0,0.19,0.06,0.14,0.09,0.09,0.16,0.05,0.09,0.0,0.0,14.0,39.0,5.42,1.02,0.49,2.09,1.0,13.98,0.0,0.04,1.5,0,0,0.0,0.0,0.0,0.09,0.1,0.21,0.04,0.04,0.1,0.01,0.0,0.0,0.0,13.05</t>
+  </si>
+  <si>
+    <t>17.33,6.02,0.68,0.73,0.93,0.33,16.98,0.0,0.04,1.0,0,0,0.0,0.0,0.0,0.23,0.08,0.19,0.08,0.08,0.06,0.06,0.09,0.0,0.0,12.94,42.0,4.71,0.55,0.24,2.25,0.0,10.37,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.12,0.07,0.29,0.05,0.05,0.07,0.02,0.0,0.0,0.0,29.0</t>
+  </si>
+  <si>
+    <t>18.0,4.92,0.94,0.98,0.96,0.25,10.16,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.13,0.08,0.26,0.04,0.04,0.15,0.01,0.0,0.0,0.0,22.6,18.0,4.73,1.41,1.47,0.96,0.17,9.94,0.0,0.02,1.0,0,0,0.0,0.0,0.0,0.11,0.06,0.19,0.06,0.06,0.11,0.0,0.0,0.0,0.0,15.94</t>
+  </si>
+  <si>
+    <t>16.17,4.97,1.27,1.47,0.87,0.67,10.86,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.14,0.1,0.21,0.05,0.05,0.12,0.01,0.09,0.0,0.0,13.06,42.0,4.71,0.55,0.24,2.25,0.0,10.37,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.12,0.07,0.29,0.05,0.05,0.07,0.02,0.0,0.0,0.0,29.0</t>
+  </si>
+  <si>
+    <t>66.0,4.82,0.86,0.24,3.53,3.0,11.9,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.15,0.05,0.23,0.09,0.09,0.08,0.02,0.0,0.0,0.0,18.14,13.0,5.55,0.85,1.22,0.7,0.2,13.32,0.0,0.02,1.0,0,0,0.0,0.0,0.0,0.14,0.11,0.25,0.05,0.05,0.05,0.05,0.27,0.13,0.13,10.9</t>
+  </si>
+  <si>
+    <t>14.71,5.36,1.35,1.71,0.79,0.29,12.33,0.0,0.02,1.0,0,0,0.0,0.0,0.0,0.18,0.1,0.19,0.07,0.07,0.06,0.01,0.0,0.13,0.13,12.48,20.25,4.81,1.06,0.98,1.08,0.25,10.25,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.07,0.1,0.22,0.06,0.06,0.15,0.01,0.0,0.0,0.0,26.38</t>
+  </si>
+  <si>
+    <t>18.0,5.06,0.94,0.98,0.96,0.5,11.95,0.0,0.01,1.0,0,0,0.0,0.0,0.0,0.15,0.11,0.18,0.08,0.08,0.15,0.0,0.0,0.0,0.0,15.13,16.17,4.97,1.27,1.47,0.87,0.67,10.86,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.14,0.1,0.21,0.05,0.05,0.12,0.01,0.09,0.0,0.0,13.06</t>
+  </si>
+  <si>
+    <t>66.0,4.82,0.86,0.24,3.53,3.0,11.9,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.15,0.05,0.23,0.09,0.09,0.08,0.02,0.0,0.0,0.0,18.14,26.75,5.08,1.4,0.98,1.43,0.75,12.11,0.0,0.02,1.0,0,0,0.0,0.0,0.0,0.19,0.05,0.18,0.12,0.12,0.16,0.01,0.0,0.0,0.0,11.41</t>
+  </si>
+  <si>
+    <t>42.0,4.71,0.55,0.24,2.25,0.0,10.37,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.12,0.07,0.29,0.05,0.05,0.07,0.02,0.0,0.0,0.0,29.0,13.5,5.05,1.41,1.96,0.72,0.25,10.37,0.0,0.01,1.0,0,0,0.0,0.0,0.0,0.1,0.06,0.18,0.06,0.06,0.09,0.02,0.18,0.13,0.13,12.2</t>
+  </si>
+  <si>
+    <t>14.25,4.74,0.75,0.98,0.76,0.0,8.74,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.09,0.09,0.23,0.14,0.14,0.12,0.0,0.0,0.0,0.0,41.8,20.25,4.81,1.06,0.98,1.08,0.25,10.25,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.07,0.1,0.22,0.06,0.06,0.15,0.01,0.0,0.0,0.0,26.38</t>
+  </si>
+  <si>
+    <t>14.71,5.36,1.35,1.71,0.79,0.29,12.33,0.0,0.02,1.0,0,0,0.0,0.0,0.0,0.18,0.1,0.19,0.07,0.07,0.06,0.01,0.0,0.13,0.13,12.48,17.0,4.98,0.67,0.73,0.91,0.0,11.28,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.14,0.08,0.16,0.08,0.08,0.14,0.0,0.0,0.0,0.0,17.11</t>
+  </si>
+  <si>
+    <t>14.2,4.9,0.93,1.22,0.76,0.2,10.27,0.0,0.01,1.0,0,0,0.0,0.0,0.0,0.15,0.07,0.18,0.06,0.06,0.15,0.01,0.0,0.0,0.0,19.18,18.25,5.08,0.96,0.98,0.98,0.5,11.98,0.0,0.03,1.0,0,0,0.0,0.0,0.0,0.15,0.07,0.18,0.07,0.07,0.12,0.0,0.0,0.0,0.0,16.85</t>
+  </si>
+  <si>
+    <t>42.0,4.71,0.55,0.24,2.25,0.0,10.37,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.12,0.07,0.29,0.05,0.05,0.07,0.02,0.0,0.0,0.0,29.0,22.75,4.71,1.19,0.98,1.22,1.0,9.71,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.12,0.07,0.23,0.05,0.05,0.18,0.0,0.0,0.13,0.13,18.83</t>
+  </si>
+  <si>
+    <t>23.0,5.16,0.9,0.73,1.23,0.33,12.99,0.0,0.01,1.0,0,0,0.0,0.0,0.0,0.16,0.07,0.19,0.03,0.03,0.13,0.01,0.0,0.0,0.0,19.31,21.0,5.03,1.37,1.22,1.12,0.2,11.74,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.11,0.04,0.25,0.09,0.09,0.1,0.01,0.0,0.13,0.13,14.94</t>
+  </si>
+  <si>
+    <t>14.25,4.74,0.75,0.98,0.76,0.0,8.74,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.09,0.09,0.23,0.14,0.14,0.12,0.0,0.0,0.0,0.0,41.8,27.25,4.91,1.43,0.98,1.46,0.75,10.46,0.0,0.02,1.0,0,0,0.0,0.0,0.0,0.15,0.07,0.22,0.06,0.06,0.16,0.01,0.0,0.13,0.13,9.52</t>
+  </si>
+  <si>
+    <t>33.5,5.22,0.88,0.49,1.79,1.0,13.33,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.12,0.09,0.21,0.06,0.06,0.1,0.01,0.0,0.0,0.0,16.47,13.0,5.55,0.85,1.22,0.7,0.2,13.32,0.0,0.02,1.0,0,0,0.0,0.0,0.0,0.14,0.11,0.25,0.05,0.05,0.05,0.05,0.27,0.13,0.13,10.9</t>
+  </si>
+  <si>
+    <t>14.2,4.9,0.93,1.22,0.76,0.2,10.27,0.0,0.01,1.0,0,0,0.0,0.0,0.0,0.15,0.07,0.18,0.06,0.06,0.15,0.01,0.0,0.0,0.0,19.18,14.71,5.36,1.35,1.71,0.79,0.29,12.33,0.0,0.02,1.0,0,0,0.0,0.0,0.0,0.18,0.1,0.19,0.07,0.07,0.06,0.01,0.0,0.13,0.13,12.48</t>
+  </si>
+  <si>
+    <t>14.2,4.9,0.93,1.22,0.76,0.2,10.27,0.0,0.01,1.0,0,0,0.0,0.0,0.0,0.15,0.07,0.18,0.06,0.06,0.15,0.01,0.0,0.0,0.0,19.18,21.6,5.14,1.41,1.22,1.16,0.8,11.9,0.0,0.02,1.0,0,0,0.0,0.0,0.0,0.17,0.05,0.2,0.05,0.05,0.21,0.0,0.0,0.0,0.0,8.33</t>
+  </si>
+  <si>
+    <t>23.0,6.52,0.6,0.49,1.23,0.5,17.77,0.0,0.02,2.5,0,0,0.0,0.0,0.0,0.22,0.17,0.13,0.02,0.02,0.04,0.11,0.18,0.0,0.0,4.25,39.0,5.42,1.02,0.49,2.09,1.0,13.98,0.0,0.04,1.5,0,0,0.0,0.0,0.0,0.09,0.1,0.21,0.04,0.04,0.1,0.01,0.0,0.0,0.0,13.05</t>
+  </si>
+  <si>
+    <t>23.0,6.52,0.6,0.49,1.23,0.5,17.77,0.0,0.02,2.5,0,0,0.0,0.0,0.0,0.22,0.17,0.13,0.02,0.02,0.04,0.11,0.18,0.0,0.0,4.25,21.0,5.03,1.37,1.22,1.12,0.2,11.74,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.11,0.04,0.25,0.09,0.09,0.1,0.01,0.0,0.13,0.13,14.94</t>
+  </si>
+  <si>
+    <t>23.0,6.52,0.6,0.49,1.23,0.5,17.77,0.0,0.02,2.5,0,0,0.0,0.0,0.0,0.22,0.17,0.13,0.02,0.02,0.04,0.11,0.18,0.0,0.0,4.25,13.25,4.75,1.39,1.96,0.71,0.25,8.94,0.0,0.01,1.0,0,0,0.0,0.0,0.0,0.11,0.08,0.26,0.02,0.02,0.2,0.01,0.0,0.0,0.0,25.13</t>
+  </si>
+  <si>
+    <t>16.17,4.97,1.27,1.47,0.87,0.67,10.86,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.14,0.1,0.21,0.05,0.05,0.12,0.01,0.09,0.0,0.0,13.06,13.0,5.55,0.85,1.22,0.7,0.2,13.32,0.0,0.02,1.0,0,0,0.0,0.0,0.0,0.14,0.11,0.25,0.05,0.05,0.05,0.05,0.27,0.13,0.13,10.9</t>
+  </si>
+  <si>
+    <t>23.0,5.16,0.9,0.73,1.23,0.33,12.99,0.0,0.01,1.0,0,0,0.0,0.0,0.0,0.16,0.07,0.19,0.03,0.03,0.13,0.01,0.0,0.0,0.0,19.31,15.25,4.9,0.8,0.98,0.82,0.0,9.92,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.15,0.11,0.16,0.1,0.1,0.05,0.03,0.09,0.0,0.0,22.2</t>
+  </si>
+  <si>
+    <t>33.5,5.22,0.88,0.49,1.79,1.0,13.33,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.12,0.09,0.21,0.06,0.06,0.1,0.01,0.0,0.0,0.0,16.47,13.25,4.75,1.39,1.96,0.71,0.25,8.94,0.0,0.01,1.0,0,0,0.0,0.0,0.0,0.11,0.08,0.26,0.02,0.02,0.2,0.01,0.0,0.0,0.0,25.13</t>
+  </si>
+  <si>
+    <t>20.25,4.81,1.06,0.98,1.08,0.25,10.25,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.07,0.1,0.22,0.06,0.06,0.15,0.01,0.0,0.0,0.0,26.38,42.0,4.71,0.55,0.24,2.25,0.0,10.37,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.12,0.07,0.29,0.05,0.05,0.07,0.02,0.0,0.0,0.0,29.0</t>
+  </si>
+  <si>
+    <t>21.6,5.14,1.41,1.22,1.16,0.8,11.9,0.0,0.02,1.0,0,0,0.0,0.0,0.0,0.17,0.05,0.2,0.05,0.05,0.21,0.0,0.0,0.0,0.0,8.33,20.25,4.81,1.06,0.98,1.08,0.25,10.25,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.07,0.1,0.22,0.06,0.06,0.15,0.01,0.0,0.0,0.0,26.38</t>
+  </si>
+  <si>
+    <t>18.0,5.06,0.94,0.98,0.96,0.5,11.95,0.0,0.01,1.0,0,0,0.0,0.0,0.0,0.15,0.11,0.18,0.08,0.08,0.15,0.0,0.0,0.0,0.0,15.13,26.75,5.08,1.4,0.98,1.43,0.75,12.11,0.0,0.02,1.0,0,0,0.0,0.0,0.0,0.19,0.05,0.18,0.12,0.12,0.16,0.01,0.0,0.0,0.0,11.41</t>
+  </si>
+  <si>
+    <t>14.25,4.74,0.75,0.98,0.76,0.0,8.74,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.09,0.09,0.23,0.14,0.14,0.12,0.0,0.0,0.0,0.0,41.8,21.33,5.36,0.84,0.73,1.14,0.33,14.05,0.0,0.03,1.0,0,0,0.0,0.0,0.0,0.19,0.06,0.14,0.09,0.09,0.16,0.05,0.09,0.0,0.0,14.0</t>
+  </si>
+  <si>
+    <t>14.2,4.9,0.93,1.22,0.76,0.2,10.27,0.0,0.01,1.0,0,0,0.0,0.0,0.0,0.15,0.07,0.18,0.06,0.06,0.15,0.01,0.0,0.0,0.0,19.18,66.0,4.82,0.86,0.24,3.53,3.0,11.9,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.15,0.05,0.23,0.09,0.09,0.08,0.02,0.0,0.0,0.0,18.14</t>
+  </si>
+  <si>
+    <t>20.25,4.81,1.06,0.98,1.08,0.25,10.25,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.07,0.1,0.22,0.06,0.06,0.15,0.01,0.0,0.0,0.0,26.38,66.0,4.82,0.86,0.24,3.53,3.0,11.9,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.15,0.05,0.23,0.09,0.09,0.08,0.02,0.0,0.0,0.0,18.14</t>
+  </si>
+  <si>
+    <t>27.25,4.91,1.43,0.98,1.46,0.75,10.46,0.0,0.02,1.0,0,0,0.0,0.0,0.0,0.15,0.07,0.22,0.06,0.06,0.16,0.01,0.0,0.13,0.13,9.52,23.0,5.16,0.9,0.73,1.23,0.33,12.99,0.0,0.01,1.0,0,0,0.0,0.0,0.0,0.16,0.07,0.19,0.03,0.03,0.13,0.01,0.0,0.0,0.0,19.31</t>
+  </si>
+  <si>
+    <t>13.5,5.05,1.41,1.96,0.72,0.25,10.37,0.0,0.01,1.0,0,0,0.0,0.0,0.0,0.1,0.06,0.18,0.06,0.06,0.09,0.02,0.18,0.13,0.13,12.2,23.0,6.52,0.6,0.49,1.23,0.5,17.77,0.0,0.02,2.5,0,0,0.0,0.0,0.0,0.22,0.17,0.13,0.02,0.02,0.04,0.11,0.18,0.0,0.0,4.25</t>
+  </si>
+  <si>
+    <t>13.5,5.05,1.41,1.96,0.72,0.25,10.37,0.0,0.01,1.0,0,0,0.0,0.0,0.0,0.1,0.06,0.18,0.06,0.06,0.09,0.02,0.18,0.13,0.13,12.2,23.0,5.16,0.9,0.73,1.23,0.33,12.99,0.0,0.01,1.0,0,0,0.0,0.0,0.0,0.16,0.07,0.19,0.03,0.03,0.13,0.01,0.0,0.0,0.0,19.31</t>
+  </si>
+  <si>
+    <t>27.25,4.91,1.43,0.98,1.46,0.75,10.46,0.0,0.02,1.0,0,0,0.0,0.0,0.0,0.15,0.07,0.22,0.06,0.06,0.16,0.01,0.0,0.13,0.13,9.52,21.6,5.14,1.41,1.22,1.16,0.8,11.9,0.0,0.02,1.0,0,0,0.0,0.0,0.0,0.17,0.05,0.2,0.05,0.05,0.21,0.0,0.0,0.0,0.0,8.33</t>
+  </si>
+  <si>
+    <t>13.25,4.75,1.39,1.96,0.71,0.25,8.94,0.0,0.01,1.0,0,0,0.0,0.0,0.0,0.11,0.08,0.26,0.02,0.02,0.2,0.01,0.0,0.0,0.0,25.13,13.0,5.55,0.85,1.22,0.7,0.2,13.32,0.0,0.02,1.0,0,0,0.0,0.0,0.0,0.14,0.11,0.25,0.05,0.05,0.05,0.05,0.27,0.13,0.13,10.9</t>
+  </si>
+  <si>
+    <t>21.6,5.14,1.41,1.22,1.16,0.8,11.9,0.0,0.02,1.0,0,0,0.0,0.0,0.0,0.17,0.05,0.2,0.05,0.05,0.21,0.0,0.0,0.0,0.0,8.33,17.0,4.98,0.67,0.73,0.91,0.0,11.28,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.14,0.08,0.16,0.08,0.08,0.14,0.0,0.0,0.0,0.0,17.11</t>
+  </si>
+  <si>
+    <t>21.6,5.14,1.41,1.22,1.16,0.8,11.9,0.0,0.02,1.0,0,0,0.0,0.0,0.0,0.17,0.05,0.2,0.05,0.05,0.21,0.0,0.0,0.0,0.0,8.33,14.25,4.74,0.75,0.98,0.76,0.0,8.74,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.09,0.09,0.23,0.14,0.14,0.12,0.0,0.0,0.0,0.0,41.8</t>
+  </si>
+  <si>
+    <t>18.25,5.08,0.96,0.98,0.98,0.5,11.98,0.0,0.03,1.0,0,0,0.0,0.0,0.0,0.15,0.07,0.18,0.07,0.07,0.12,0.0,0.0,0.0,0.0,16.85,24.0,5.21,0.63,0.49,1.28,0.5,12.61,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.15,0.02,0.25,0.08,0.08,0.1,0.04,0.0,0.0,0.0,23.67</t>
+  </si>
+  <si>
+    <t>20.25,4.81,1.06,0.98,1.08,0.25,10.25,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.07,0.1,0.22,0.06,0.06,0.15,0.01,0.0,0.0,0.0,26.38,13.5,5.05,1.41,1.96,0.72,0.25,10.37,0.0,0.01,1.0,0,0,0.0,0.0,0.0,0.1,0.06,0.18,0.06,0.06,0.09,0.02,0.18,0.13,0.13,12.2</t>
+  </si>
+  <si>
+    <t>66.0,4.82,0.86,0.24,3.53,3.0,11.9,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.15,0.05,0.23,0.09,0.09,0.08,0.02,0.0,0.0,0.0,18.14,27.25,4.91,1.43,0.98,1.46,0.75,10.46,0.0,0.02,1.0,0,0,0.0,0.0,0.0,0.15,0.07,0.22,0.06,0.06,0.16,0.01,0.0,0.13,0.13,9.52</t>
+  </si>
+  <si>
+    <t>17.33,6.02,0.68,0.73,0.93,0.33,16.98,0.0,0.04,1.0,0,0,0.0,0.0,0.0,0.23,0.08,0.19,0.08,0.08,0.06,0.06,0.09,0.0,0.0,12.94,16.25,5.34,0.85,0.98,0.87,0.25,12.59,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.17,0.08,0.23,0.02,0.02,0.11,0.0,0.0,0.13,0.13,15.39</t>
+  </si>
+  <si>
+    <t>42.0,4.71,0.55,0.24,2.25,0.0,10.37,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.12,0.07,0.29,0.05,0.05,0.07,0.02,0.0,0.0,0.0,29.0,14.25,4.74,0.75,0.98,0.76,0.0,8.74,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.09,0.09,0.23,0.14,0.14,0.12,0.0,0.0,0.0,0.0,41.8</t>
+  </si>
+  <si>
+    <t>22.75,4.71,1.19,0.98,1.22,1.0,9.71,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.12,0.07,0.23,0.05,0.05,0.18,0.0,0.0,0.13,0.13,18.83,15.25,4.9,0.8,0.98,0.82,0.0,9.92,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.15,0.11,0.16,0.1,0.1,0.05,0.03,0.09,0.0,0.0,22.2</t>
+  </si>
+  <si>
+    <t>18.0,5.06,0.94,0.98,0.96,0.5,11.95,0.0,0.01,1.0,0,0,0.0,0.0,0.0,0.15,0.11,0.18,0.08,0.08,0.15,0.0,0.0,0.0,0.0,15.13,20.25,4.81,1.06,0.98,1.08,0.25,10.25,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.07,0.1,0.22,0.06,0.06,0.15,0.01,0.0,0.0,0.0,26.38</t>
+  </si>
+  <si>
+    <t>42.0,4.71,0.55,0.24,2.25,0.0,10.37,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.12,0.07,0.29,0.05,0.05,0.07,0.02,0.0,0.0,0.0,29.0,27.25,4.91,1.43,0.98,1.46,0.75,10.46,0.0,0.02,1.0,0,0,0.0,0.0,0.0,0.15,0.07,0.22,0.06,0.06,0.16,0.01,0.0,0.13,0.13,9.52</t>
+  </si>
+  <si>
+    <t>24.0,5.21,0.63,0.49,1.28,0.5,12.61,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.15,0.02,0.25,0.08,0.08,0.1,0.04,0.0,0.0,0.0,23.67,17.33,6.02,0.68,0.73,0.93,0.33,16.98,0.0,0.04,1.0,0,0,0.0,0.0,0.0,0.23,0.08,0.19,0.08,0.08,0.06,0.06,0.09,0.0,0.0,12.94</t>
+  </si>
+  <si>
+    <t>26.75,5.08,1.4,0.98,1.43,0.75,12.11,0.0,0.02,1.0,0,0,0.0,0.0,0.0,0.19,0.05,0.18,0.12,0.12,0.16,0.01,0.0,0.0,0.0,11.41,23.0,6.52,0.6,0.49,1.23,0.5,17.77,0.0,0.02,2.5,0,0,0.0,0.0,0.0,0.22,0.17,0.13,0.02,0.02,0.04,0.11,0.18,0.0,0.0,4.25</t>
+  </si>
+  <si>
+    <t>14.25,4.74,0.75,0.98,0.76,0.0,8.74,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.09,0.09,0.23,0.14,0.14,0.12,0.0,0.0,0.0,0.0,41.8,13.0,5.55,0.85,1.22,0.7,0.2,13.32,0.0,0.02,1.0,0,0,0.0,0.0,0.0,0.14,0.11,0.25,0.05,0.05,0.05,0.05,0.27,0.13,0.13,10.9</t>
+  </si>
+  <si>
+    <t>18.5,5.18,0.97,0.98,0.99,0.5,12.24,0.0,0.01,1.0,0,0,0.0,0.0,0.0,0.15,0.11,0.22,0.03,0.03,0.14,0.0,0.0,0.0,0.0,22.2,18.0,4.73,1.41,1.47,0.96,0.17,9.94,0.0,0.02,1.0,0,0,0.0,0.0,0.0,0.11,0.06,0.19,0.06,0.06,0.11,0.0,0.0,0.0,0.0,15.94</t>
+  </si>
+  <si>
+    <t>18.0,5.06,0.94,0.98,0.96,0.5,11.95,0.0,0.01,1.0,0,0,0.0,0.0,0.0,0.15,0.11,0.18,0.08,0.08,0.15,0.0,0.0,0.0,0.0,15.13,66.0,4.82,0.86,0.24,3.53,3.0,11.9,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.15,0.05,0.23,0.09,0.09,0.08,0.02,0.0,0.0,0.0,18.14</t>
+  </si>
+  <si>
+    <t>18.0,5.06,0.94,0.98,0.96,0.5,11.95,0.0,0.01,1.0,0,0,0.0,0.0,0.0,0.15,0.11,0.18,0.08,0.08,0.15,0.0,0.0,0.0,0.0,15.13,13.0,5.55,0.85,1.22,0.7,0.2,13.32,0.0,0.02,1.0,0,0,0.0,0.0,0.0,0.14,0.11,0.25,0.05,0.05,0.05,0.05,0.27,0.13,0.13,10.9</t>
+  </si>
+  <si>
+    <t>14.71,5.36,1.35,1.71,0.79,0.29,12.33,0.0,0.02,1.0,0,0,0.0,0.0,0.0,0.18,0.1,0.19,0.07,0.07,0.06,0.01,0.0,0.13,0.13,12.48,13.0,5.55,0.85,1.22,0.7,0.2,13.32,0.0,0.02,1.0,0,0,0.0,0.0,0.0,0.14,0.11,0.25,0.05,0.05,0.05,0.05,0.27,0.13,0.13,10.9</t>
+  </si>
+  <si>
+    <t>18.25,5.08,0.96,0.98,0.98,0.5,11.98,0.0,0.03,1.0,0,0,0.0,0.0,0.0,0.15,0.07,0.18,0.07,0.07,0.12,0.0,0.0,0.0,0.0,16.85,39.0,5.42,1.02,0.49,2.09,1.0,13.98,0.0,0.04,1.5,0,0,0.0,0.0,0.0,0.09,0.1,0.21,0.04,0.04,0.1,0.01,0.0,0.0,0.0,13.05</t>
+  </si>
+  <si>
+    <t>23.0,6.52,0.6,0.49,1.23,0.5,17.77,0.0,0.02,2.5,0,0,0.0,0.0,0.0,0.22,0.17,0.13,0.02,0.02,0.04,0.11,0.18,0.0,0.0,4.25,24.0,5.21,0.63,0.49,1.28,0.5,12.61,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.15,0.02,0.25,0.08,0.08,0.1,0.04,0.0,0.0,0.0,23.67</t>
+  </si>
+  <si>
+    <t>18.5,5.18,0.97,0.98,0.99,0.5,12.24,0.0,0.01,1.0,0,0,0.0,0.0,0.0,0.15,0.11,0.22,0.03,0.03,0.14,0.0,0.0,0.0,0.0,22.2,23.0,6.52,0.6,0.49,1.23,0.5,17.77,0.0,0.02,2.5,0,0,0.0,0.0,0.0,0.22,0.17,0.13,0.02,0.02,0.04,0.11,0.18,0.0,0.0,4.25</t>
+  </si>
+  <si>
+    <t>18.0,4.73,1.41,1.47,0.96,0.17,9.94,0.0,0.02,1.0,0,0,0.0,0.0,0.0,0.11,0.06,0.19,0.06,0.06,0.11,0.0,0.0,0.0,0.0,15.94,23.0,6.52,0.6,0.49,1.23,0.5,17.77,0.0,0.02,2.5,0,0,0.0,0.0,0.0,0.22,0.17,0.13,0.02,0.02,0.04,0.11,0.18,0.0,0.0,4.25</t>
+  </si>
+  <si>
+    <t>33.5,5.22,0.88,0.49,1.79,1.0,13.33,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.12,0.09,0.21,0.06,0.06,0.1,0.01,0.0,0.0,0.0,16.47,16.17,4.97,1.27,1.47,0.87,0.67,10.86,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.14,0.1,0.21,0.05,0.05,0.12,0.01,0.09,0.0,0.0,13.06</t>
+  </si>
+  <si>
+    <t>21.6,5.14,1.41,1.22,1.16,0.8,11.9,0.0,0.02,1.0,0,0,0.0,0.0,0.0,0.17,0.05,0.2,0.05,0.05,0.21,0.0,0.0,0.0,0.0,8.33,24.0,5.21,0.63,0.49,1.28,0.5,12.61,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.15,0.02,0.25,0.08,0.08,0.1,0.04,0.0,0.0,0.0,23.67</t>
+  </si>
+  <si>
+    <t>66.0,4.82,0.86,0.24,3.53,3.0,11.9,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.15,0.05,0.23,0.09,0.09,0.08,0.02,0.0,0.0,0.0,18.14,22.75,4.71,1.19,0.98,1.22,1.0,9.71,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.12,0.07,0.23,0.05,0.05,0.18,0.0,0.0,0.13,0.13,18.83</t>
+  </si>
+  <si>
+    <t>22.75,4.71,1.19,0.98,1.22,1.0,9.71,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.12,0.07,0.23,0.05,0.05,0.18,0.0,0.0,0.13,0.13,18.83,23.0,5.16,0.9,0.73,1.23,0.33,12.99,0.0,0.01,1.0,0,0,0.0,0.0,0.0,0.16,0.07,0.19,0.03,0.03,0.13,0.01,0.0,0.0,0.0,19.31</t>
+  </si>
+  <si>
+    <t>27.25,4.91,1.43,0.98,1.46,0.75,10.46,0.0,0.02,1.0,0,0,0.0,0.0,0.0,0.15,0.07,0.22,0.06,0.06,0.16,0.01,0.0,0.13,0.13,9.52,18.25,5.08,0.96,0.98,0.98,0.5,11.98,0.0,0.03,1.0,0,0,0.0,0.0,0.0,0.15,0.07,0.18,0.07,0.07,0.12,0.0,0.0,0.0,0.0,16.85</t>
+  </si>
+  <si>
+    <t>16.83,4.52,1.32,1.47,0.9,0.0,8.23,0.0,0.02,1.0,0,0,0.0,0.0,0.0,0.14,0.05,0.25,0.07,0.07,0.19,0.0,0.0,0.0,0.0,15.93,13.5,5.05,1.41,1.96,0.72,0.25,10.37,0.0,0.01,1.0,0,0,0.0,0.0,0.0,0.1,0.06,0.18,0.06,0.06,0.09,0.02,0.18,0.13,0.13,12.2</t>
+  </si>
+  <si>
+    <t>16.17,4.97,1.27,1.47,0.87,0.67,10.86,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.14,0.1,0.21,0.05,0.05,0.12,0.01,0.09,0.0,0.0,13.06,16.83,4.52,1.32,1.47,0.9,0.0,8.23,0.0,0.02,1.0,0,0,0.0,0.0,0.0,0.14,0.05,0.25,0.07,0.07,0.19,0.0,0.0,0.0,0.0,15.93</t>
+  </si>
+  <si>
+    <t>20.33,5.18,0.8,0.73,1.09,1.33,12.53,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.18,0.03,0.2,0.07,0.07,0.1,0.0,0.0,0.0,0.0,19.5,39.0,5.42,1.02,0.49,2.09,1.0,13.98,0.0,0.04,1.5,0,0,0.0,0.0,0.0,0.09,0.1,0.21,0.04,0.04,0.1,0.01,0.0,0.0,0.0,13.05</t>
+  </si>
+  <si>
+    <t>21.33,5.36,0.84,0.73,1.14,0.33,14.05,0.0,0.03,1.0,0,0,0.0,0.0,0.0,0.19,0.06,0.14,0.09,0.09,0.16,0.05,0.09,0.0,0.0,14.0,16.17,4.97,1.27,1.47,0.87,0.67,10.86,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.14,0.1,0.21,0.05,0.05,0.12,0.01,0.09,0.0,0.0,13.06</t>
+  </si>
+  <si>
+    <t>13.0,5.55,0.85,1.22,0.7,0.2,13.32,0.0,0.02,1.0,0,0,0.0,0.0,0.0,0.14,0.11,0.25,0.05,0.05,0.05,0.05,0.27,0.13,0.13,10.9,17.0,4.98,0.67,0.73,0.91,0.0,11.28,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.14,0.08,0.16,0.08,0.08,0.14,0.0,0.0,0.0,0.0,17.11</t>
+  </si>
+  <si>
+    <t>23.0,6.52,0.6,0.49,1.23,0.5,17.77,0.0,0.02,2.5,0,0,0.0,0.0,0.0,0.22,0.17,0.13,0.02,0.02,0.04,0.11,0.18,0.0,0.0,4.25,14.2,4.9,0.93,1.22,0.76,0.2,10.27,0.0,0.01,1.0,0,0,0.0,0.0,0.0,0.15,0.07,0.18,0.06,0.06,0.15,0.01,0.0,0.0,0.0,19.18</t>
+  </si>
+  <si>
+    <t>18.0,5.06,0.94,0.98,0.96,0.5,11.95,0.0,0.01,1.0,0,0,0.0,0.0,0.0,0.15,0.11,0.18,0.08,0.08,0.15,0.0,0.0,0.0,0.0,15.13,17.0,4.98,0.67,0.73,0.91,0.0,11.28,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.14,0.08,0.16,0.08,0.08,0.14,0.0,0.0,0.0,0.0,17.11</t>
+  </si>
+  <si>
+    <t>23.0,6.52,0.6,0.49,1.23,0.5,17.77,0.0,0.02,2.5,0,0,0.0,0.0,0.0,0.22,0.17,0.13,0.02,0.02,0.04,0.11,0.18,0.0,0.0,4.25,16.17,4.97,1.27,1.47,0.87,0.67,10.86,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.14,0.1,0.21,0.05,0.05,0.12,0.01,0.09,0.0,0.0,13.06</t>
+  </si>
+  <si>
+    <t>39.0,5.42,1.02,0.49,2.09,1.0,13.98,0.0,0.04,1.5,0,0,0.0,0.0,0.0,0.09,0.1,0.21,0.04,0.04,0.1,0.01,0.0,0.0,0.0,13.05,17.0,4.98,0.67,0.73,0.91,0.0,11.28,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.14,0.08,0.16,0.08,0.08,0.14,0.0,0.0,0.0,0.0,17.11</t>
+  </si>
+  <si>
+    <t>18.0,4.92,0.94,0.98,0.96,0.25,10.16,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.13,0.08,0.26,0.04,0.04,0.15,0.01,0.0,0.0,0.0,22.6,23.0,5.16,0.9,0.73,1.23,0.33,12.99,0.0,0.01,1.0,0,0,0.0,0.0,0.0,0.16,0.07,0.19,0.03,0.03,0.13,0.01,0.0,0.0,0.0,19.31</t>
+  </si>
+  <si>
+    <t>22.75,4.71,1.19,0.98,1.22,1.0,9.71,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.12,0.07,0.23,0.05,0.05,0.18,0.0,0.0,0.13,0.13,18.83,18.5,5.18,0.97,0.98,0.99,0.5,12.24,0.0,0.01,1.0,0,0,0.0,0.0,0.0,0.15,0.11,0.22,0.03,0.03,0.14,0.0,0.0,0.0,0.0,22.2</t>
+  </si>
+  <si>
+    <t>42.0,4.71,0.55,0.24,2.25,0.0,10.37,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.12,0.07,0.29,0.05,0.05,0.07,0.02,0.0,0.0,0.0,29.0,17.0,4.98,0.67,0.73,0.91,0.0,11.28,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.14,0.08,0.16,0.08,0.08,0.14,0.0,0.0,0.0,0.0,17.11</t>
+  </si>
+  <si>
+    <t>22.75,4.71,1.19,0.98,1.22,1.0,9.71,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.12,0.07,0.23,0.05,0.05,0.18,0.0,0.0,0.13,0.13,18.83,17.33,6.02,0.68,0.73,0.93,0.33,16.98,0.0,0.04,1.0,0,0,0.0,0.0,0.0,0.23,0.08,0.19,0.08,0.08,0.06,0.06,0.09,0.0,0.0,12.94</t>
+  </si>
+  <si>
+    <t>14.2,4.9,0.93,1.22,0.76,0.2,10.27,0.0,0.01,1.0,0,0,0.0,0.0,0.0,0.15,0.07,0.18,0.06,0.06,0.15,0.01,0.0,0.0,0.0,19.18,26.75,5.08,1.4,0.98,1.43,0.75,12.11,0.0,0.02,1.0,0,0,0.0,0.0,0.0,0.19,0.05,0.18,0.12,0.12,0.16,0.01,0.0,0.0,0.0,11.41</t>
+  </si>
+  <si>
+    <t>18.0,5.06,0.94,0.98,0.96,0.5,11.95,0.0,0.01,1.0,0,0,0.0,0.0,0.0,0.15,0.11,0.18,0.08,0.08,0.15,0.0,0.0,0.0,0.0,15.13,13.5,5.05,1.41,1.96,0.72,0.25,10.37,0.0,0.01,1.0,0,0,0.0,0.0,0.0,0.1,0.06,0.18,0.06,0.06,0.09,0.02,0.18,0.13,0.13,12.2</t>
+  </si>
+  <si>
+    <t>14.2,4.9,0.93,1.22,0.76,0.2,10.27,0.0,0.01,1.0,0,0,0.0,0.0,0.0,0.15,0.07,0.18,0.06,0.06,0.15,0.01,0.0,0.0,0.0,19.18,23.0,5.16,0.9,0.73,1.23,0.33,12.99,0.0,0.01,1.0,0,0,0.0,0.0,0.0,0.16,0.07,0.19,0.03,0.03,0.13,0.01,0.0,0.0,0.0,19.31</t>
+  </si>
+  <si>
+    <t>15.0,4.64,0.98,1.22,0.8,0.2,8.88,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.11,0.09,0.2,0.09,0.09,0.13,0.0,0.0,0.13,0.13,25.5,18.0,4.92,0.94,0.98,0.96,0.25,10.16,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.13,0.08,0.26,0.04,0.04,0.15,0.01,0.0,0.0,0.0,22.6</t>
+  </si>
+  <si>
+    <t>66.0,4.82,0.86,0.24,3.53,3.0,11.9,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.15,0.05,0.23,0.09,0.09,0.08,0.02,0.0,0.0,0.0,18.14,16.83,4.52,1.32,1.47,0.9,0.0,8.23,0.0,0.02,1.0,0,0,0.0,0.0,0.0,0.14,0.05,0.25,0.07,0.07,0.19,0.0,0.0,0.0,0.0,15.93</t>
+  </si>
+  <si>
+    <t>13.5,5.05,1.41,1.96,0.72,0.25,10.37,0.0,0.01,1.0,0,0,0.0,0.0,0.0,0.1,0.06,0.18,0.06,0.06,0.09,0.02,0.18,0.13,0.13,12.2,66.0,4.82,0.86,0.24,3.53,3.0,11.9,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.15,0.05,0.23,0.09,0.09,0.08,0.02,0.0,0.0,0.0,18.14</t>
+  </si>
+  <si>
+    <t>16.17,4.97,1.27,1.47,0.87,0.67,10.86,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.14,0.1,0.21,0.05,0.05,0.12,0.01,0.09,0.0,0.0,13.06,13.5,5.05,1.41,1.96,0.72,0.25,10.37,0.0,0.01,1.0,0,0,0.0,0.0,0.0,0.1,0.06,0.18,0.06,0.06,0.09,0.02,0.18,0.13,0.13,12.2</t>
+  </si>
+  <si>
+    <t>18.0,4.73,1.41,1.47,0.96,0.17,9.94,0.0,0.02,1.0,0,0,0.0,0.0,0.0,0.11,0.06,0.19,0.06,0.06,0.11,0.0,0.0,0.0,0.0,15.94,20.33,5.18,0.8,0.73,1.09,1.33,12.53,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.18,0.03,0.2,0.07,0.07,0.1,0.0,0.0,0.0,0.0,19.5</t>
+  </si>
+  <si>
+    <t>33.5,5.22,0.88,0.49,1.79,1.0,13.33,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.12,0.09,0.21,0.06,0.06,0.1,0.01,0.0,0.0,0.0,16.47,17.0,4.98,0.67,0.73,0.91,0.0,11.28,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.14,0.08,0.16,0.08,0.08,0.14,0.0,0.0,0.0,0.0,17.11</t>
+  </si>
+  <si>
+    <t>13.0,5.55,0.85,1.22,0.7,0.2,13.32,0.0,0.02,1.0,0,0,0.0,0.0,0.0,0.14,0.11,0.25,0.05,0.05,0.05,0.05,0.27,0.13,0.13,10.9,23.0,5.16,0.9,0.73,1.23,0.33,12.99,0.0,0.01,1.0,0,0,0.0,0.0,0.0,0.16,0.07,0.19,0.03,0.03,0.13,0.01,0.0,0.0,0.0,19.31</t>
+  </si>
+  <si>
+    <t>39.0,5.42,1.02,0.49,2.09,1.0,13.98,0.0,0.04,1.5,0,0,0.0,0.0,0.0,0.09,0.1,0.21,0.04,0.04,0.1,0.01,0.0,0.0,0.0,13.05,14.2,4.9,0.93,1.22,0.76,0.2,10.27,0.0,0.01,1.0,0,0,0.0,0.0,0.0,0.15,0.07,0.18,0.06,0.06,0.15,0.01,0.0,0.0,0.0,19.18</t>
+  </si>
+  <si>
+    <t>13.25,4.75,1.39,1.96,0.71,0.25,8.94,0.0,0.01,1.0,0,0,0.0,0.0,0.0,0.11,0.08,0.26,0.02,0.02,0.2,0.01,0.0,0.0,0.0,25.13,20.33,5.18,0.8,0.73,1.09,1.33,12.53,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.18,0.03,0.2,0.07,0.07,0.1,0.0,0.0,0.0,0.0,19.5</t>
+  </si>
+  <si>
+    <t>22.75,4.71,1.19,0.98,1.22,1.0,9.71,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.12,0.07,0.23,0.05,0.05,0.18,0.0,0.0,0.13,0.13,18.83,13.25,4.75,1.39,1.96,0.71,0.25,8.94,0.0,0.01,1.0,0,0,0.0,0.0,0.0,0.11,0.08,0.26,0.02,0.02,0.2,0.01,0.0,0.0,0.0,25.13</t>
+  </si>
+  <si>
+    <t>21.6,5.14,1.41,1.22,1.16,0.8,11.9,0.0,0.02,1.0,0,0,0.0,0.0,0.0,0.17,0.05,0.2,0.05,0.05,0.21,0.0,0.0,0.0,0.0,8.33,66.0,4.82,0.86,0.24,3.53,3.0,11.9,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.15,0.05,0.23,0.09,0.09,0.08,0.02,0.0,0.0,0.0,18.14</t>
+  </si>
+  <si>
+    <t>39.0,5.42,1.02,0.49,2.09,1.0,13.98,0.0,0.04,1.5,0,0,0.0,0.0,0.0,0.09,0.1,0.21,0.04,0.04,0.1,0.01,0.0,0.0,0.0,13.05,13.5,5.05,1.41,1.96,0.72,0.25,10.37,0.0,0.01,1.0,0,0,0.0,0.0,0.0,0.1,0.06,0.18,0.06,0.06,0.09,0.02,0.18,0.13,0.13,12.2</t>
+  </si>
+  <si>
+    <t>18.25,5.08,0.96,0.98,0.98,0.5,11.98,0.0,0.03,1.0,0,0,0.0,0.0,0.0,0.15,0.07,0.18,0.07,0.07,0.12,0.0,0.0,0.0,0.0,16.85,21.6,5.14,1.41,1.22,1.16,0.8,11.9,0.0,0.02,1.0,0,0,0.0,0.0,0.0,0.17,0.05,0.2,0.05,0.05,0.21,0.0,0.0,0.0,0.0,8.33</t>
+  </si>
+  <si>
+    <t>18.0,4.92,0.94,0.98,0.96,0.25,10.16,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.13,0.08,0.26,0.04,0.04,0.15,0.01,0.0,0.0,0.0,22.6,21.0,5.03,1.37,1.22,1.12,0.2,11.74,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.11,0.04,0.25,0.09,0.09,0.1,0.01,0.0,0.13,0.13,14.94</t>
+  </si>
+  <si>
+    <t>13.5,5.05,1.41,1.96,0.72,0.25,10.37,0.0,0.01,1.0,0,0,0.0,0.0,0.0,0.1,0.06,0.18,0.06,0.06,0.09,0.02,0.18,0.13,0.13,12.2,18.5,5.18,0.97,0.98,0.99,0.5,12.24,0.0,0.01,1.0,0,0,0.0,0.0,0.0,0.15,0.11,0.22,0.03,0.03,0.14,0.0,0.0,0.0,0.0,22.2</t>
+  </si>
+  <si>
+    <t>16.4,4.55,1.07,1.22,0.88,0.2,8.66,0.0,0.01,1.0,0,0,0.0,0.0,0.0,0.09,0.05,0.23,0.05,0.05,0.17,0.0,0.0,0.13,0.13,19.91,42.0,4.71,0.55,0.24,2.25,0.0,10.37,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.12,0.07,0.29,0.05,0.05,0.07,0.02,0.0,0.0,0.0,29.0</t>
+  </si>
+  <si>
+    <t>13.5,5.05,1.41,1.96,0.72,0.25,10.37,0.0,0.01,1.0,0,0,0.0,0.0,0.0,0.1,0.06,0.18,0.06,0.06,0.09,0.02,0.18,0.13,0.13,12.2,24.0,5.21,0.63,0.49,1.28,0.5,12.61,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.15,0.02,0.25,0.08,0.08,0.1,0.04,0.0,0.0,0.0,23.67</t>
+  </si>
+  <si>
+    <t>15.0,4.64,0.98,1.22,0.8,0.2,8.88,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.11,0.09,0.2,0.09,0.09,0.13,0.0,0.0,0.13,0.13,25.5,13.5,5.05,1.41,1.96,0.72,0.25,10.37,0.0,0.01,1.0,0,0,0.0,0.0,0.0,0.1,0.06,0.18,0.06,0.06,0.09,0.02,0.18,0.13,0.13,12.2</t>
+  </si>
+  <si>
+    <t>18.5,5.18,0.97,0.98,0.99,0.5,12.24,0.0,0.01,1.0,0,0,0.0,0.0,0.0,0.15,0.11,0.22,0.03,0.03,0.14,0.0,0.0,0.0,0.0,22.2,26.75,5.08,1.4,0.98,1.43,0.75,12.11,0.0,0.02,1.0,0,0,0.0,0.0,0.0,0.19,0.05,0.18,0.12,0.12,0.16,0.01,0.0,0.0,0.0,11.41</t>
+  </si>
+  <si>
+    <t>13.0,5.55,0.85,1.22,0.7,0.2,13.32,0.0,0.02,1.0,0,0,0.0,0.0,0.0,0.14,0.11,0.25,0.05,0.05,0.05,0.05,0.27,0.13,0.13,10.9,16.83,4.52,1.32,1.47,0.9,0.0,8.23,0.0,0.02,1.0,0,0,0.0,0.0,0.0,0.14,0.05,0.25,0.07,0.07,0.19,0.0,0.0,0.0,0.0,15.93</t>
+  </si>
+  <si>
+    <t>18.25,5.08,0.96,0.98,0.98,0.5,11.98,0.0,0.03,1.0,0,0,0.0,0.0,0.0,0.15,0.07,0.18,0.07,0.07,0.12,0.0,0.0,0.0,0.0,16.85,15.25,4.9,0.8,0.98,0.82,0.0,9.92,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.15,0.11,0.16,0.1,0.1,0.05,0.03,0.09,0.0,0.0,22.2</t>
+  </si>
+  <si>
+    <t>27.25,4.91,1.43,0.98,1.46,0.75,10.46,0.0,0.02,1.0,0,0,0.0,0.0,0.0,0.15,0.07,0.22,0.06,0.06,0.16,0.01,0.0,0.13,0.13,9.52,18.5,5.18,0.97,0.98,0.99,0.5,12.24,0.0,0.01,1.0,0,0,0.0,0.0,0.0,0.15,0.11,0.22,0.03,0.03,0.14,0.0,0.0,0.0,0.0,22.2</t>
+  </si>
+  <si>
+    <t>14.25,4.74,0.75,0.98,0.76,0.0,8.74,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.09,0.09,0.23,0.14,0.14,0.12,0.0,0.0,0.0,0.0,41.8,21.0,5.03,1.37,1.22,1.12,0.2,11.74,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.11,0.04,0.25,0.09,0.09,0.1,0.01,0.0,0.13,0.13,14.94</t>
+  </si>
+  <si>
+    <t>16.4,4.55,1.07,1.22,0.88,0.2,8.66,0.0,0.01,1.0,0,0,0.0,0.0,0.0,0.09,0.05,0.23,0.05,0.05,0.17,0.0,0.0,0.13,0.13,19.91,13.5,5.05,1.41,1.96,0.72,0.25,10.37,0.0,0.01,1.0,0,0,0.0,0.0,0.0,0.1,0.06,0.18,0.06,0.06,0.09,0.02,0.18,0.13,0.13,12.2</t>
+  </si>
+  <si>
+    <t>66.0,4.82,0.86,0.24,3.53,3.0,11.9,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.15,0.05,0.23,0.09,0.09,0.08,0.02,0.0,0.0,0.0,18.14,14.25,4.74,0.75,0.98,0.76,0.0,8.74,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.09,0.09,0.23,0.14,0.14,0.12,0.0,0.0,0.0,0.0,41.8</t>
+  </si>
+  <si>
+    <t>66.0,4.82,0.86,0.24,3.53,3.0,11.9,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.15,0.05,0.23,0.09,0.09,0.08,0.02,0.0,0.0,0.0,18.14,23.0,5.16,0.9,0.73,1.23,0.33,12.99,0.0,0.01,1.0,0,0,0.0,0.0,0.0,0.16,0.07,0.19,0.03,0.03,0.13,0.01,0.0,0.0,0.0,19.31</t>
+  </si>
+  <si>
+    <t>14.2,4.9,0.93,1.22,0.76,0.2,10.27,0.0,0.01,1.0,0,0,0.0,0.0,0.0,0.15,0.07,0.18,0.06,0.06,0.15,0.01,0.0,0.0,0.0,19.18,16.17,4.97,1.27,1.47,0.87,0.67,10.86,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.14,0.1,0.21,0.05,0.05,0.12,0.01,0.09,0.0,0.0,13.06</t>
+  </si>
+  <si>
+    <t>26.75,5.08,1.4,0.98,1.43,0.75,12.11,0.0,0.02,1.0,0,0,0.0,0.0,0.0,0.19,0.05,0.18,0.12,0.12,0.16,0.01,0.0,0.0,0.0,11.41,13.0,5.55,0.85,1.22,0.7,0.2,13.32,0.0,0.02,1.0,0,0,0.0,0.0,0.0,0.14,0.11,0.25,0.05,0.05,0.05,0.05,0.27,0.13,0.13,10.9</t>
+  </si>
+  <si>
+    <t>18.5,5.18,0.97,0.98,0.99,0.5,12.24,0.0,0.01,1.0,0,0,0.0,0.0,0.0,0.15,0.11,0.22,0.03,0.03,0.14,0.0,0.0,0.0,0.0,22.2,14.71,5.36,1.35,1.71,0.79,0.29,12.33,0.0,0.02,1.0,0,0,0.0,0.0,0.0,0.18,0.1,0.19,0.07,0.07,0.06,0.01,0.0,0.13,0.13,12.48</t>
+  </si>
+  <si>
+    <t>15.0,4.64,0.98,1.22,0.8,0.2,8.88,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.11,0.09,0.2,0.09,0.09,0.13,0.0,0.0,0.13,0.13,25.5,21.0,5.03,1.37,1.22,1.12,0.2,11.74,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.11,0.04,0.25,0.09,0.09,0.1,0.01,0.0,0.13,0.13,14.94</t>
+  </si>
+  <si>
+    <t>42.0,4.71,0.55,0.24,2.25,0.0,10.37,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.12,0.07,0.29,0.05,0.05,0.07,0.02,0.0,0.0,0.0,29.0,21.0,5.03,1.37,1.22,1.12,0.2,11.74,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.11,0.04,0.25,0.09,0.09,0.1,0.01,0.0,0.13,0.13,14.94</t>
+  </si>
+  <si>
+    <t>14.25,4.74,0.75,0.98,0.76,0.0,8.74,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.09,0.09,0.23,0.14,0.14,0.12,0.0,0.0,0.0,0.0,41.8,33.5,5.22,0.88,0.49,1.79,1.0,13.33,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.12,0.09,0.21,0.06,0.06,0.1,0.01,0.0,0.0,0.0,16.47</t>
+  </si>
+  <si>
+    <t>23.0,6.52,0.6,0.49,1.23,0.5,17.77,0.0,0.02,2.5,0,0,0.0,0.0,0.0,0.22,0.17,0.13,0.02,0.02,0.04,0.11,0.18,0.0,0.0,4.25,33.5,5.22,0.88,0.49,1.79,1.0,13.33,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.12,0.09,0.21,0.06,0.06,0.1,0.01,0.0,0.0,0.0,16.47</t>
+  </si>
+  <si>
+    <t>23.0,5.16,0.9,0.73,1.23,0.33,12.99,0.0,0.01,1.0,0,0,0.0,0.0,0.0,0.16,0.07,0.19,0.03,0.03,0.13,0.01,0.0,0.0,0.0,19.31,16.17,4.97,1.27,1.47,0.87,0.67,10.86,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.14,0.1,0.21,0.05,0.05,0.12,0.01,0.09,0.0,0.0,13.06</t>
+  </si>
+  <si>
+    <t>39.0,5.42,1.02,0.49,2.09,1.0,13.98,0.0,0.04,1.5,0,0,0.0,0.0,0.0,0.09,0.1,0.21,0.04,0.04,0.1,0.01,0.0,0.0,0.0,13.05,22.75,4.71,1.19,0.98,1.22,1.0,9.71,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.12,0.07,0.23,0.05,0.05,0.18,0.0,0.0,0.13,0.13,18.83</t>
+  </si>
+  <si>
+    <t>20.33,5.18,0.8,0.73,1.09,1.33,12.53,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.18,0.03,0.2,0.07,0.07,0.1,0.0,0.0,0.0,0.0,19.5,13.0,5.55,0.85,1.22,0.7,0.2,13.32,0.0,0.02,1.0,0,0,0.0,0.0,0.0,0.14,0.11,0.25,0.05,0.05,0.05,0.05,0.27,0.13,0.13,10.9</t>
+  </si>
+  <si>
+    <t>18.0,4.92,0.94,0.98,0.96,0.25,10.16,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.13,0.08,0.26,0.04,0.04,0.15,0.01,0.0,0.0,0.0,22.6,20.33,5.18,0.8,0.73,1.09,1.33,12.53,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.18,0.03,0.2,0.07,0.07,0.1,0.0,0.0,0.0,0.0,19.5</t>
+  </si>
+  <si>
+    <t>21.6,5.14,1.41,1.22,1.16,0.8,11.9,0.0,0.02,1.0,0,0,0.0,0.0,0.0,0.17,0.05,0.2,0.05,0.05,0.21,0.0,0.0,0.0,0.0,8.33,14.71,5.36,1.35,1.71,0.79,0.29,12.33,0.0,0.02,1.0,0,0,0.0,0.0,0.0,0.18,0.1,0.19,0.07,0.07,0.06,0.01,0.0,0.13,0.13,12.48</t>
+  </si>
+  <si>
+    <t>27.25,4.91,1.43,0.98,1.46,0.75,10.46,0.0,0.02,1.0,0,0,0.0,0.0,0.0,0.15,0.07,0.22,0.06,0.06,0.16,0.01,0.0,0.13,0.13,9.52,20.33,5.18,0.8,0.73,1.09,1.33,12.53,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.18,0.03,0.2,0.07,0.07,0.1,0.0,0.0,0.0,0.0,19.5</t>
+  </si>
+  <si>
+    <t>27.25,4.91,1.43,0.98,1.46,0.75,10.46,0.0,0.02,1.0,0,0,0.0,0.0,0.0,0.15,0.07,0.22,0.06,0.06,0.16,0.01,0.0,0.13,0.13,9.52,18.0,5.06,0.94,0.98,0.96,0.5,11.95,0.0,0.01,1.0,0,0,0.0,0.0,0.0,0.15,0.11,0.18,0.08,0.08,0.15,0.0,0.0,0.0,0.0,15.13</t>
+  </si>
+  <si>
+    <t>20.25,4.81,1.06,0.98,1.08,0.25,10.25,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.07,0.1,0.22,0.06,0.06,0.15,0.01,0.0,0.0,0.0,26.38,18.0,4.92,0.94,0.98,0.96,0.25,10.16,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.13,0.08,0.26,0.04,0.04,0.15,0.01,0.0,0.0,0.0,22.6</t>
+  </si>
+  <si>
+    <t>20.33,5.18,0.8,0.73,1.09,1.33,12.53,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.18,0.03,0.2,0.07,0.07,0.1,0.0,0.0,0.0,0.0,19.5,66.0,4.82,0.86,0.24,3.53,3.0,11.9,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.15,0.05,0.23,0.09,0.09,0.08,0.02,0.0,0.0,0.0,18.14</t>
+  </si>
+  <si>
+    <t>13.0,5.55,0.85,1.22,0.7,0.2,13.32,0.0,0.02,1.0,0,0,0.0,0.0,0.0,0.14,0.11,0.25,0.05,0.05,0.05,0.05,0.27,0.13,0.13,10.9,15.25,4.9,0.8,0.98,0.82,0.0,9.92,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.15,0.11,0.16,0.1,0.1,0.05,0.03,0.09,0.0,0.0,22.2</t>
+  </si>
+  <si>
+    <t>18.0,5.06,0.94,0.98,0.96,0.5,11.95,0.0,0.01,1.0,0,0,0.0,0.0,0.0,0.15,0.11,0.18,0.08,0.08,0.15,0.0,0.0,0.0,0.0,15.13,13.25,4.75,1.39,1.96,0.71,0.25,8.94,0.0,0.01,1.0,0,0,0.0,0.0,0.0,0.11,0.08,0.26,0.02,0.02,0.2,0.01,0.0,0.0,0.0,25.13</t>
+  </si>
+  <si>
+    <t>27.25,4.91,1.43,0.98,1.46,0.75,10.46,0.0,0.02,1.0,0,0,0.0,0.0,0.0,0.15,0.07,0.22,0.06,0.06,0.16,0.01,0.0,0.13,0.13,9.52,15.25,4.9,0.8,0.98,0.82,0.0,9.92,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.15,0.11,0.16,0.1,0.1,0.05,0.03,0.09,0.0,0.0,22.2</t>
+  </si>
+  <si>
+    <t>14.71,5.36,1.35,1.71,0.79,0.29,12.33,0.0,0.02,1.0,0,0,0.0,0.0,0.0,0.18,0.1,0.19,0.07,0.07,0.06,0.01,0.0,0.13,0.13,12.48,16.83,4.52,1.32,1.47,0.9,0.0,8.23,0.0,0.02,1.0,0,0,0.0,0.0,0.0,0.14,0.05,0.25,0.07,0.07,0.19,0.0,0.0,0.0,0.0,15.93</t>
+  </si>
+  <si>
+    <t>24.0,5.21,0.63,0.49,1.28,0.5,12.61,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.15,0.02,0.25,0.08,0.08,0.1,0.04,0.0,0.0,0.0,23.67,66.0,4.82,0.86,0.24,3.53,3.0,11.9,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.15,0.05,0.23,0.09,0.09,0.08,0.02,0.0,0.0,0.0,18.14</t>
+  </si>
+  <si>
+    <t>16.83,4.52,1.32,1.47,0.9,0.0,8.23,0.0,0.02,1.0,0,0,0.0,0.0,0.0,0.14,0.05,0.25,0.07,0.07,0.19,0.0,0.0,0.0,0.0,15.93,18.0,4.92,0.94,0.98,0.96,0.25,10.16,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.13,0.08,0.26,0.04,0.04,0.15,0.01,0.0,0.0,0.0,22.6</t>
+  </si>
+  <si>
+    <t>16.83,4.52,1.32,1.47,0.9,0.0,8.23,0.0,0.02,1.0,0,0,0.0,0.0,0.0,0.14,0.05,0.25,0.07,0.07,0.19,0.0,0.0,0.0,0.0,15.93,18.0,4.73,1.41,1.47,0.96,0.17,9.94,0.0,0.02,1.0,0,0,0.0,0.0,0.0,0.11,0.06,0.19,0.06,0.06,0.11,0.0,0.0,0.0,0.0,15.94</t>
+  </si>
+  <si>
+    <t>18.0,4.73,1.41,1.47,0.96,0.17,9.94,0.0,0.02,1.0,0,0,0.0,0.0,0.0,0.11,0.06,0.19,0.06,0.06,0.11,0.0,0.0,0.0,0.0,15.94,17.33,6.02,0.68,0.73,0.93,0.33,16.98,0.0,0.04,1.0,0,0,0.0,0.0,0.0,0.23,0.08,0.19,0.08,0.08,0.06,0.06,0.09,0.0,0.0,12.94</t>
+  </si>
+  <si>
+    <t>22.75,4.71,1.19,0.98,1.22,1.0,9.71,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.12,0.07,0.23,0.05,0.05,0.18,0.0,0.0,0.13,0.13,18.83,14.25,4.74,0.75,0.98,0.76,0.0,8.74,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.09,0.09,0.23,0.14,0.14,0.12,0.0,0.0,0.0,0.0,41.8</t>
+  </si>
+  <si>
+    <t>27.25,4.91,1.43,0.98,1.46,0.75,10.46,0.0,0.02,1.0,0,0,0.0,0.0,0.0,0.15,0.07,0.22,0.06,0.06,0.16,0.01,0.0,0.13,0.13,9.52,13.25,4.75,1.39,1.96,0.71,0.25,8.94,0.0,0.01,1.0,0,0,0.0,0.0,0.0,0.11,0.08,0.26,0.02,0.02,0.2,0.01,0.0,0.0,0.0,25.13</t>
+  </si>
+  <si>
+    <t>16.17,4.97,1.27,1.47,0.87,0.67,10.86,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.14,0.1,0.21,0.05,0.05,0.12,0.01,0.09,0.0,0.0,13.06,23.0,5.16,0.9,0.73,1.23,0.33,12.99,0.0,0.01,1.0,0,0,0.0,0.0,0.0,0.16,0.07,0.19,0.03,0.03,0.13,0.01,0.0,0.0,0.0,19.31</t>
+  </si>
+  <si>
+    <t>21.6,5.14,1.41,1.22,1.16,0.8,11.9,0.0,0.02,1.0,0,0,0.0,0.0,0.0,0.17,0.05,0.2,0.05,0.05,0.21,0.0,0.0,0.0,0.0,8.33,18.0,5.06,0.94,0.98,0.96,0.5,11.95,0.0,0.01,1.0,0,0,0.0,0.0,0.0,0.15,0.11,0.18,0.08,0.08,0.15,0.0,0.0,0.0,0.0,15.13</t>
+  </si>
+  <si>
+    <t>24.0,5.21,0.63,0.49,1.28,0.5,12.61,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.15,0.02,0.25,0.08,0.08,0.1,0.04,0.0,0.0,0.0,23.67,18.0,4.92,0.94,0.98,0.96,0.25,10.16,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.13,0.08,0.26,0.04,0.04,0.15,0.01,0.0,0.0,0.0,22.6</t>
+  </si>
+  <si>
+    <t>23.0,6.52,0.6,0.49,1.23,0.5,17.77,0.0,0.02,2.5,0,0,0.0,0.0,0.0,0.22,0.17,0.13,0.02,0.02,0.04,0.11,0.18,0.0,0.0,4.25,20.33,5.18,0.8,0.73,1.09,1.33,12.53,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.18,0.03,0.2,0.07,0.07,0.1,0.0,0.0,0.0,0.0,19.5</t>
+  </si>
+  <si>
+    <t>39.0,5.42,1.02,0.49,2.09,1.0,13.98,0.0,0.04,1.5,0,0,0.0,0.0,0.0,0.09,0.1,0.21,0.04,0.04,0.1,0.01,0.0,0.0,0.0,13.05,17.33,6.02,0.68,0.73,0.93,0.33,16.98,0.0,0.04,1.0,0,0,0.0,0.0,0.0,0.23,0.08,0.19,0.08,0.08,0.06,0.06,0.09,0.0,0.0,12.94</t>
+  </si>
+  <si>
+    <t>15.0,4.64,0.98,1.22,0.8,0.2,8.88,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.11,0.09,0.2,0.09,0.09,0.13,0.0,0.0,0.13,0.13,25.5,15.25,4.9,0.8,0.98,0.82,0.0,9.92,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.15,0.11,0.16,0.1,0.1,0.05,0.03,0.09,0.0,0.0,22.2</t>
+  </si>
+  <si>
+    <t>21.0,5.03,1.37,1.22,1.12,0.2,11.74,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.11,0.04,0.25,0.09,0.09,0.1,0.01,0.0,0.13,0.13,14.94,26.75,5.08,1.4,0.98,1.43,0.75,12.11,0.0,0.02,1.0,0,0,0.0,0.0,0.0,0.19,0.05,0.18,0.12,0.12,0.16,0.01,0.0,0.0,0.0,11.41</t>
+  </si>
+  <si>
+    <t>18.0,4.73,1.41,1.47,0.96,0.17,9.94,0.0,0.02,1.0,0,0,0.0,0.0,0.0,0.11,0.06,0.19,0.06,0.06,0.11,0.0,0.0,0.0,0.0,15.94,21.6,5.14,1.41,1.22,1.16,0.8,11.9,0.0,0.02,1.0,0,0,0.0,0.0,0.0,0.17,0.05,0.2,0.05,0.05,0.21,0.0,0.0,0.0,0.0,8.33</t>
+  </si>
+  <si>
+    <t>23.0,5.16,0.9,0.73,1.23,0.33,12.99,0.0,0.01,1.0,0,0,0.0,0.0,0.0,0.16,0.07,0.19,0.03,0.03,0.13,0.01,0.0,0.0,0.0,19.31,13.0,5.55,0.85,1.22,0.7,0.2,13.32,0.0,0.02,1.0,0,0,0.0,0.0,0.0,0.14,0.11,0.25,0.05,0.05,0.05,0.05,0.27,0.13,0.13,10.9</t>
+  </si>
+  <si>
+    <t>22.75,4.71,1.19,0.98,1.22,1.0,9.71,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.12,0.07,0.23,0.05,0.05,0.18,0.0,0.0,0.13,0.13,18.83,20.33,5.18,0.8,0.73,1.09,1.33,12.53,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.18,0.03,0.2,0.07,0.07,0.1,0.0,0.0,0.0,0.0,19.5</t>
+  </si>
+  <si>
+    <t>15.0,4.64,0.98,1.22,0.8,0.2,8.88,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.11,0.09,0.2,0.09,0.09,0.13,0.0,0.0,0.13,0.13,25.5,66.0,4.82,0.86,0.24,3.53,3.0,11.9,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.15,0.05,0.23,0.09,0.09,0.08,0.02,0.0,0.0,0.0,18.14</t>
+  </si>
+  <si>
+    <t>14.2,4.9,0.93,1.22,0.76,0.2,10.27,0.0,0.01,1.0,0,0,0.0,0.0,0.0,0.15,0.07,0.18,0.06,0.06,0.15,0.01,0.0,0.0,0.0,19.18,17.33,6.02,0.68,0.73,0.93,0.33,16.98,0.0,0.04,1.0,0,0,0.0,0.0,0.0,0.23,0.08,0.19,0.08,0.08,0.06,0.06,0.09,0.0,0.0,12.94</t>
+  </si>
+  <si>
+    <t>18.25,5.08,0.96,0.98,0.98,0.5,11.98,0.0,0.03,1.0,0,0,0.0,0.0,0.0,0.15,0.07,0.18,0.07,0.07,0.12,0.0,0.0,0.0,0.0,16.85,17.0,4.98,0.67,0.73,0.91,0.0,11.28,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.14,0.08,0.16,0.08,0.08,0.14,0.0,0.0,0.0,0.0,17.11</t>
+  </si>
+  <si>
+    <t>24.0,5.21,0.63,0.49,1.28,0.5,12.61,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.15,0.02,0.25,0.08,0.08,0.1,0.04,0.0,0.0,0.0,23.67,14.71,5.36,1.35,1.71,0.79,0.29,12.33,0.0,0.02,1.0,0,0,0.0,0.0,0.0,0.18,0.1,0.19,0.07,0.07,0.06,0.01,0.0,0.13,0.13,12.48</t>
+  </si>
+  <si>
+    <t>14.2,4.9,0.93,1.22,0.76,0.2,10.27,0.0,0.01,1.0,0,0,0.0,0.0,0.0,0.15,0.07,0.18,0.06,0.06,0.15,0.01,0.0,0.0,0.0,19.18,18.0,4.73,1.41,1.47,0.96,0.17,9.94,0.0,0.02,1.0,0,0,0.0,0.0,0.0,0.11,0.06,0.19,0.06,0.06,0.11,0.0,0.0,0.0,0.0,15.94</t>
+  </si>
+  <si>
+    <t>16.25,5.34,0.85,0.98,0.87,0.25,12.59,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.17,0.08,0.23,0.02,0.02,0.11,0.0,0.0,0.13,0.13,15.39,13.0,5.55,0.85,1.22,0.7,0.2,13.32,0.0,0.02,1.0,0,0,0.0,0.0,0.0,0.14,0.11,0.25,0.05,0.05,0.05,0.05,0.27,0.13,0.13,10.9</t>
+  </si>
+  <si>
+    <t>16.4,4.55,1.07,1.22,0.88,0.2,8.66,0.0,0.01,1.0,0,0,0.0,0.0,0.0,0.09,0.05,0.23,0.05,0.05,0.17,0.0,0.0,0.13,0.13,19.91,13.25,4.75,1.39,1.96,0.71,0.25,8.94,0.0,0.01,1.0,0,0,0.0,0.0,0.0,0.11,0.08,0.26,0.02,0.02,0.2,0.01,0.0,0.0,0.0,25.13</t>
+  </si>
+  <si>
+    <t>18.0,4.73,1.41,1.47,0.96,0.17,9.94,0.0,0.02,1.0,0,0,0.0,0.0,0.0,0.11,0.06,0.19,0.06,0.06,0.11,0.0,0.0,0.0,0.0,15.94,42.0,4.71,0.55,0.24,2.25,0.0,10.37,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.12,0.07,0.29,0.05,0.05,0.07,0.02,0.0,0.0,0.0,29.0</t>
+  </si>
+  <si>
+    <t>23.0,5.16,0.9,0.73,1.23,0.33,12.99,0.0,0.01,1.0,0,0,0.0,0.0,0.0,0.16,0.07,0.19,0.03,0.03,0.13,0.01,0.0,0.0,0.0,19.31,17.0,4.98,0.67,0.73,0.91,0.0,11.28,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.14,0.08,0.16,0.08,0.08,0.14,0.0,0.0,0.0,0.0,17.11</t>
+  </si>
+  <si>
+    <t>16.17,4.97,1.27,1.47,0.87,0.67,10.86,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.14,0.1,0.21,0.05,0.05,0.12,0.01,0.09,0.0,0.0,13.06,18.0,4.73,1.41,1.47,0.96,0.17,9.94,0.0,0.02,1.0,0,0,0.0,0.0,0.0,0.11,0.06,0.19,0.06,0.06,0.11,0.0,0.0,0.0,0.0,15.94</t>
+  </si>
+  <si>
+    <t>15.25,4.9,0.8,0.98,0.82,0.0,9.92,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.15,0.11,0.16,0.1,0.1,0.05,0.03,0.09,0.0,0.0,22.2,21.6,5.14,1.41,1.22,1.16,0.8,11.9,0.0,0.02,1.0,0,0,0.0,0.0,0.0,0.17,0.05,0.2,0.05,0.05,0.21,0.0,0.0,0.0,0.0,8.33</t>
+  </si>
+  <si>
+    <t>14.71,5.36,1.35,1.71,0.79,0.29,12.33,0.0,0.02,1.0,0,0,0.0,0.0,0.0,0.18,0.1,0.19,0.07,0.07,0.06,0.01,0.0,0.13,0.13,12.48,33.5,5.22,0.88,0.49,1.79,1.0,13.33,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.12,0.09,0.21,0.06,0.06,0.1,0.01,0.0,0.0,0.0,16.47</t>
+  </si>
+  <si>
+    <t>24.0,5.21,0.63,0.49,1.28,0.5,12.61,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.15,0.02,0.25,0.08,0.08,0.1,0.04,0.0,0.0,0.0,23.67,20.25,4.81,1.06,0.98,1.08,0.25,10.25,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.07,0.1,0.22,0.06,0.06,0.15,0.01,0.0,0.0,0.0,26.38</t>
+  </si>
+  <si>
+    <t>14.2,4.9,0.93,1.22,0.76,0.2,10.27,0.0,0.01,1.0,0,0,0.0,0.0,0.0,0.15,0.07,0.18,0.06,0.06,0.15,0.01,0.0,0.0,0.0,19.18,18.0,4.92,0.94,0.98,0.96,0.25,10.16,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.13,0.08,0.26,0.04,0.04,0.15,0.01,0.0,0.0,0.0,22.6</t>
+  </si>
+  <si>
+    <t>33.5,5.22,0.88,0.49,1.79,1.0,13.33,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.12,0.09,0.21,0.06,0.06,0.1,0.01,0.0,0.0,0.0,16.47,27.25,4.91,1.43,0.98,1.46,0.75,10.46,0.0,0.02,1.0,0,0,0.0,0.0,0.0,0.15,0.07,0.22,0.06,0.06,0.16,0.01,0.0,0.13,0.13,9.52</t>
+  </si>
+  <si>
+    <t>13.0,5.55,0.85,1.22,0.7,0.2,13.32,0.0,0.02,1.0,0,0,0.0,0.0,0.0,0.14,0.11,0.25,0.05,0.05,0.05,0.05,0.27,0.13,0.13,10.9,23.0,6.52,0.6,0.49,1.23,0.5,17.77,0.0,0.02,2.5,0,0,0.0,0.0,0.0,0.22,0.17,0.13,0.02,0.02,0.04,0.11,0.18,0.0,0.0,4.25</t>
+  </si>
+  <si>
+    <t>14.25,4.74,0.75,0.98,0.76,0.0,8.74,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.09,0.09,0.23,0.14,0.14,0.12,0.0,0.0,0.0,0.0,41.8,18.25,5.08,0.96,0.98,0.98,0.5,11.98,0.0,0.03,1.0,0,0,0.0,0.0,0.0,0.15,0.07,0.18,0.07,0.07,0.12,0.0,0.0,0.0,0.0,16.85</t>
+  </si>
+  <si>
+    <t>24.0,5.21,0.63,0.49,1.28,0.5,12.61,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.15,0.02,0.25,0.08,0.08,0.1,0.04,0.0,0.0,0.0,23.67,22.75,4.71,1.19,0.98,1.22,1.0,9.71,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.12,0.07,0.23,0.05,0.05,0.18,0.0,0.0,0.13,0.13,18.83</t>
+  </si>
+  <si>
+    <t>20.25,4.81,1.06,0.98,1.08,0.25,10.25,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.07,0.1,0.22,0.06,0.06,0.15,0.01,0.0,0.0,0.0,26.38,18.0,4.73,1.41,1.47,0.96,0.17,9.94,0.0,0.02,1.0,0,0,0.0,0.0,0.0,0.11,0.06,0.19,0.06,0.06,0.11,0.0,0.0,0.0,0.0,15.94</t>
+  </si>
+  <si>
+    <t>15.0,4.64,0.98,1.22,0.8,0.2,8.88,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.11,0.09,0.2,0.09,0.09,0.13,0.0,0.0,0.13,0.13,25.5,23.0,6.52,0.6,0.49,1.23,0.5,17.77,0.0,0.02,2.5,0,0,0.0,0.0,0.0,0.22,0.17,0.13,0.02,0.02,0.04,0.11,0.18,0.0,0.0,4.25</t>
+  </si>
+  <si>
+    <t>66.0,4.82,0.86,0.24,3.53,3.0,11.9,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.15,0.05,0.23,0.09,0.09,0.08,0.02,0.0,0.0,0.0,18.14,17.0,4.98,0.67,0.73,0.91,0.0,11.28,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.14,0.08,0.16,0.08,0.08,0.14,0.0,0.0,0.0,0.0,17.11</t>
+  </si>
+  <si>
+    <t>14.2,4.9,0.93,1.22,0.76,0.2,10.27,0.0,0.01,1.0,0,0,0.0,0.0,0.0,0.15,0.07,0.18,0.06,0.06,0.15,0.01,0.0,0.0,0.0,19.18,13.0,5.55,0.85,1.22,0.7,0.2,13.32,0.0,0.02,1.0,0,0,0.0,0.0,0.0,0.14,0.11,0.25,0.05,0.05,0.05,0.05,0.27,0.13,0.13,10.9</t>
+  </si>
+  <si>
+    <t>18.0,4.73,1.41,1.47,0.96,0.17,9.94,0.0,0.02,1.0,0,0,0.0,0.0,0.0,0.11,0.06,0.19,0.06,0.06,0.11,0.0,0.0,0.0,0.0,15.94,13.5,5.05,1.41,1.96,0.72,0.25,10.37,0.0,0.01,1.0,0,0,0.0,0.0,0.0,0.1,0.06,0.18,0.06,0.06,0.09,0.02,0.18,0.13,0.13,12.2</t>
+  </si>
+  <si>
+    <t>24.0,5.21,0.63,0.49,1.28,0.5,12.61,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.15,0.02,0.25,0.08,0.08,0.1,0.04,0.0,0.0,0.0,23.67,27.25,4.91,1.43,0.98,1.46,0.75,10.46,0.0,0.02,1.0,0,0,0.0,0.0,0.0,0.15,0.07,0.22,0.06,0.06,0.16,0.01,0.0,0.13,0.13,9.52</t>
+  </si>
+  <si>
+    <t>18.0,4.92,0.94,0.98,0.96,0.25,10.16,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.13,0.08,0.26,0.04,0.04,0.15,0.01,0.0,0.0,0.0,22.6,16.4,4.55,1.07,1.22,0.88,0.2,8.66,0.0,0.01,1.0,0,0,0.0,0.0,0.0,0.09,0.05,0.23,0.05,0.05,0.17,0.0,0.0,0.13,0.13,19.91</t>
+  </si>
+  <si>
+    <t>16.25,5.34,0.85,0.98,0.87,0.25,12.59,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.17,0.08,0.23,0.02,0.02,0.11,0.0,0.0,0.13,0.13,15.39,15.0,4.64,0.98,1.22,0.8,0.2,8.88,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.11,0.09,0.2,0.09,0.09,0.13,0.0,0.0,0.13,0.13,25.5</t>
+  </si>
+  <si>
+    <t>14.25,4.74,0.75,0.98,0.76,0.0,8.74,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.09,0.09,0.23,0.14,0.14,0.12,0.0,0.0,0.0,0.0,41.8,16.83,4.52,1.32,1.47,0.9,0.0,8.23,0.0,0.02,1.0,0,0,0.0,0.0,0.0,0.14,0.05,0.25,0.07,0.07,0.19,0.0,0.0,0.0,0.0,15.93</t>
+  </si>
+  <si>
+    <t>16.17,4.97,1.27,1.47,0.87,0.67,10.86,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.14,0.1,0.21,0.05,0.05,0.12,0.01,0.09,0.0,0.0,13.06,24.0,5.21,0.63,0.49,1.28,0.5,12.61,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.15,0.02,0.25,0.08,0.08,0.1,0.04,0.0,0.0,0.0,23.67</t>
+  </si>
+  <si>
+    <t>13.5,5.05,1.41,1.96,0.72,0.25,10.37,0.0,0.01,1.0,0,0,0.0,0.0,0.0,0.1,0.06,0.18,0.06,0.06,0.09,0.02,0.18,0.13,0.13,12.2,14.25,4.74,0.75,0.98,0.76,0.0,8.74,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.09,0.09,0.23,0.14,0.14,0.12,0.0,0.0,0.0,0.0,41.8</t>
+  </si>
+  <si>
+    <t>18.5,5.18,0.97,0.98,0.99,0.5,12.24,0.0,0.01,1.0,0,0,0.0,0.0,0.0,0.15,0.11,0.22,0.03,0.03,0.14,0.0,0.0,0.0,0.0,22.2,16.83,4.52,1.32,1.47,0.9,0.0,8.23,0.0,0.02,1.0,0,0,0.0,0.0,0.0,0.14,0.05,0.25,0.07,0.07,0.19,0.0,0.0,0.0,0.0,15.93</t>
+  </si>
+  <si>
+    <t>24.0,5.21,0.63,0.49,1.28,0.5,12.61,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.15,0.02,0.25,0.08,0.08,0.1,0.04,0.0,0.0,0.0,23.67,18.0,4.73,1.41,1.47,0.96,0.17,9.94,0.0,0.02,1.0,0,0,0.0,0.0,0.0,0.11,0.06,0.19,0.06,0.06,0.11,0.0,0.0,0.0,0.0,15.94</t>
+  </si>
+  <si>
+    <t>22.75,4.71,1.19,0.98,1.22,1.0,9.71,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.12,0.07,0.23,0.05,0.05,0.18,0.0,0.0,0.13,0.13,18.83,14.2,4.9,0.93,1.22,0.76,0.2,10.27,0.0,0.01,1.0,0,0,0.0,0.0,0.0,0.15,0.07,0.18,0.06,0.06,0.15,0.01,0.0,0.0,0.0,19.18</t>
+  </si>
+  <si>
+    <t>33.5,5.22,0.88,0.49,1.79,1.0,13.33,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.12,0.09,0.21,0.06,0.06,0.1,0.01,0.0,0.0,0.0,16.47,66.0,4.82,0.86,0.24,3.53,3.0,11.9,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.15,0.05,0.23,0.09,0.09,0.08,0.02,0.0,0.0,0.0,18.14</t>
+  </si>
+  <si>
+    <t>23.0,5.16,0.9,0.73,1.23,0.33,12.99,0.0,0.01,1.0,0,0,0.0,0.0,0.0,0.16,0.07,0.19,0.03,0.03,0.13,0.01,0.0,0.0,0.0,19.31,18.0,4.92,0.94,0.98,0.96,0.25,10.16,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.13,0.08,0.26,0.04,0.04,0.15,0.01,0.0,0.0,0.0,22.6</t>
+  </si>
+  <si>
+    <t>16.25,5.34,0.85,0.98,0.87,0.25,12.59,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.17,0.08,0.23,0.02,0.02,0.11,0.0,0.0,0.13,0.13,15.39,18.25,5.08,0.96,0.98,0.98,0.5,11.98,0.0,0.03,1.0,0,0,0.0,0.0,0.0,0.15,0.07,0.18,0.07,0.07,0.12,0.0,0.0,0.0,0.0,16.85</t>
+  </si>
+  <si>
+    <t>14.2,4.9,0.93,1.22,0.76,0.2,10.27,0.0,0.01,1.0,0,0,0.0,0.0,0.0,0.15,0.07,0.18,0.06,0.06,0.15,0.01,0.0,0.0,0.0,19.18,21.0,5.03,1.37,1.22,1.12,0.2,11.74,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.11,0.04,0.25,0.09,0.09,0.1,0.01,0.0,0.13,0.13,14.94</t>
+  </si>
+  <si>
+    <t>16.17,4.97,1.27,1.47,0.87,0.67,10.86,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.14,0.1,0.21,0.05,0.05,0.12,0.01,0.09,0.0,0.0,13.06,20.33,5.18,0.8,0.73,1.09,1.33,12.53,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.18,0.03,0.2,0.07,0.07,0.1,0.0,0.0,0.0,0.0,19.5</t>
+  </si>
+  <si>
+    <t>24.0,5.21,0.63,0.49,1.28,0.5,12.61,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.15,0.02,0.25,0.08,0.08,0.1,0.04,0.0,0.0,0.0,23.67,18.5,5.18,0.97,0.98,0.99,0.5,12.24,0.0,0.01,1.0,0,0,0.0,0.0,0.0,0.15,0.11,0.22,0.03,0.03,0.14,0.0,0.0,0.0,0.0,22.2</t>
+  </si>
+  <si>
+    <t>21.0,5.03,1.37,1.22,1.12,0.2,11.74,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.11,0.04,0.25,0.09,0.09,0.1,0.01,0.0,0.13,0.13,14.94,20.33,5.18,0.8,0.73,1.09,1.33,12.53,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.18,0.03,0.2,0.07,0.07,0.1,0.0,0.0,0.0,0.0,19.5</t>
+  </si>
+  <si>
+    <t>23.0,5.16,0.9,0.73,1.23,0.33,12.99,0.0,0.01,1.0,0,0,0.0,0.0,0.0,0.16,0.07,0.19,0.03,0.03,0.13,0.01,0.0,0.0,0.0,19.31,16.83,4.52,1.32,1.47,0.9,0.0,8.23,0.0,0.02,1.0,0,0,0.0,0.0,0.0,0.14,0.05,0.25,0.07,0.07,0.19,0.0,0.0,0.0,0.0,15.93</t>
+  </si>
+  <si>
+    <t>26.75,5.08,1.4,0.98,1.43,0.75,12.11,0.0,0.02,1.0,0,0,0.0,0.0,0.0,0.19,0.05,0.18,0.12,0.12,0.16,0.01,0.0,0.0,0.0,11.41,13.5,5.05,1.41,1.96,0.72,0.25,10.37,0.0,0.01,1.0,0,0,0.0,0.0,0.0,0.1,0.06,0.18,0.06,0.06,0.09,0.02,0.18,0.13,0.13,12.2</t>
+  </si>
+  <si>
+    <t>24.0,5.21,0.63,0.49,1.28,0.5,12.61,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.15,0.02,0.25,0.08,0.08,0.1,0.04,0.0,0.0,0.0,23.67,42.0,4.71,0.55,0.24,2.25,0.0,10.37,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.12,0.07,0.29,0.05,0.05,0.07,0.02,0.0,0.0,0.0,29.0</t>
+  </si>
+  <si>
+    <t>18.25,5.08,0.96,0.98,0.98,0.5,11.98,0.0,0.03,1.0,0,0,0.0,0.0,0.0,0.15,0.07,0.18,0.07,0.07,0.12,0.0,0.0,0.0,0.0,16.85,22.75,4.71,1.19,0.98,1.22,1.0,9.71,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.12,0.07,0.23,0.05,0.05,0.18,0.0,0.0,0.13,0.13,18.83</t>
+  </si>
+  <si>
+    <t>18.0,4.92,0.94,0.98,0.96,0.25,10.16,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.13,0.08,0.26,0.04,0.04,0.15,0.01,0.0,0.0,0.0,22.6,42.0,4.71,0.55,0.24,2.25,0.0,10.37,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.12,0.07,0.29,0.05,0.05,0.07,0.02,0.0,0.0,0.0,29.0</t>
+  </si>
+  <si>
+    <t>15.0,4.64,0.98,1.22,0.8,0.2,8.88,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.11,0.09,0.2,0.09,0.09,0.13,0.0,0.0,0.13,0.13,25.5,42.0,4.71,0.55,0.24,2.25,0.0,10.37,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.12,0.07,0.29,0.05,0.05,0.07,0.02,0.0,0.0,0.0,29.0</t>
+  </si>
+  <si>
+    <t>18.0,5.06,0.94,0.98,0.96,0.5,11.95,0.0,0.01,1.0,0,0,0.0,0.0,0.0,0.15,0.11,0.18,0.08,0.08,0.15,0.0,0.0,0.0,0.0,15.13,16.25,5.34,0.85,0.98,0.87,0.25,12.59,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.17,0.08,0.23,0.02,0.02,0.11,0.0,0.0,0.13,0.13,15.39</t>
+  </si>
+  <si>
+    <t>16.83,4.52,1.32,1.47,0.9,0.0,8.23,0.0,0.02,1.0,0,0,0.0,0.0,0.0,0.14,0.05,0.25,0.07,0.07,0.19,0.0,0.0,0.0,0.0,15.93,27.25,4.91,1.43,0.98,1.46,0.75,10.46,0.0,0.02,1.0,0,0,0.0,0.0,0.0,0.15,0.07,0.22,0.06,0.06,0.16,0.01,0.0,0.13,0.13,9.52</t>
+  </si>
+  <si>
+    <t>16.17,4.97,1.27,1.47,0.87,0.67,10.86,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.14,0.1,0.21,0.05,0.05,0.12,0.01,0.09,0.0,0.0,13.06,21.6,5.14,1.41,1.22,1.16,0.8,11.9,0.0,0.02,1.0,0,0,0.0,0.0,0.0,0.17,0.05,0.2,0.05,0.05,0.21,0.0,0.0,0.0,0.0,8.33</t>
+  </si>
+  <si>
+    <t>24.0,5.21,0.63,0.49,1.28,0.5,12.61,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.15,0.02,0.25,0.08,0.08,0.1,0.04,0.0,0.0,0.0,23.67,39.0,5.42,1.02,0.49,2.09,1.0,13.98,0.0,0.04,1.5,0,0,0.0,0.0,0.0,0.09,0.1,0.21,0.04,0.04,0.1,0.01,0.0,0.0,0.0,13.05</t>
+  </si>
+  <si>
+    <t>13.0,5.55,0.85,1.22,0.7,0.2,13.32,0.0,0.02,1.0,0,0,0.0,0.0,0.0,0.14,0.11,0.25,0.05,0.05,0.05,0.05,0.27,0.13,0.13,10.9,39.0,5.42,1.02,0.49,2.09,1.0,13.98,0.0,0.04,1.5,0,0,0.0,0.0,0.0,0.09,0.1,0.21,0.04,0.04,0.1,0.01,0.0,0.0,0.0,13.05</t>
+  </si>
+  <si>
+    <t>13.0,5.55,0.85,1.22,0.7,0.2,13.32,0.0,0.02,1.0,0,0,0.0,0.0,0.0,0.14,0.11,0.25,0.05,0.05,0.05,0.05,0.27,0.13,0.13,10.9,18.25,5.08,0.96,0.98,0.98,0.5,11.98,0.0,0.03,1.0,0,0,0.0,0.0,0.0,0.15,0.07,0.18,0.07,0.07,0.12,0.0,0.0,0.0,0.0,16.85</t>
+  </si>
+  <si>
+    <t>23.0,6.52,0.6,0.49,1.23,0.5,17.77,0.0,0.02,2.5,0,0,0.0,0.0,0.0,0.22,0.17,0.13,0.02,0.02,0.04,0.11,0.18,0.0,0.0,4.25,21.6,5.14,1.41,1.22,1.16,0.8,11.9,0.0,0.02,1.0,0,0,0.0,0.0,0.0,0.17,0.05,0.2,0.05,0.05,0.21,0.0,0.0,0.0,0.0,8.33</t>
+  </si>
+  <si>
+    <t>21.0,5.03,1.37,1.22,1.12,0.2,11.74,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.11,0.04,0.25,0.09,0.09,0.1,0.01,0.0,0.13,0.13,14.94,33.5,5.22,0.88,0.49,1.79,1.0,13.33,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.12,0.09,0.21,0.06,0.06,0.1,0.01,0.0,0.0,0.0,16.47</t>
+  </si>
+  <si>
+    <t>13.5,5.05,1.41,1.96,0.72,0.25,10.37,0.0,0.01,1.0,0,0,0.0,0.0,0.0,0.1,0.06,0.18,0.06,0.06,0.09,0.02,0.18,0.13,0.13,12.2,14.2,4.9,0.93,1.22,0.76,0.2,10.27,0.0,0.01,1.0,0,0,0.0,0.0,0.0,0.15,0.07,0.18,0.06,0.06,0.15,0.01,0.0,0.0,0.0,19.18</t>
+  </si>
+  <si>
+    <t>22.75,4.71,1.19,0.98,1.22,1.0,9.71,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.12,0.07,0.23,0.05,0.05,0.18,0.0,0.0,0.13,0.13,18.83,21.6,5.14,1.41,1.22,1.16,0.8,11.9,0.0,0.02,1.0,0,0,0.0,0.0,0.0,0.17,0.05,0.2,0.05,0.05,0.21,0.0,0.0,0.0,0.0,8.33</t>
+  </si>
+  <si>
+    <t>22.75,4.71,1.19,0.98,1.22,1.0,9.71,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.12,0.07,0.23,0.05,0.05,0.18,0.0,0.0,0.13,0.13,18.83,26.75,5.08,1.4,0.98,1.43,0.75,12.11,0.0,0.02,1.0,0,0,0.0,0.0,0.0,0.19,0.05,0.18,0.12,0.12,0.16,0.01,0.0,0.0,0.0,11.41</t>
+  </si>
+  <si>
+    <t>16.4,4.55,1.07,1.22,0.88,0.2,8.66,0.0,0.01,1.0,0,0,0.0,0.0,0.0,0.09,0.05,0.23,0.05,0.05,0.17,0.0,0.0,0.13,0.13,19.91,21.6,5.14,1.41,1.22,1.16,0.8,11.9,0.0,0.02,1.0,0,0,0.0,0.0,0.0,0.17,0.05,0.2,0.05,0.05,0.21,0.0,0.0,0.0,0.0,8.33</t>
+  </si>
+  <si>
+    <t>15.25,4.9,0.8,0.98,0.82,0.0,9.92,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.15,0.11,0.16,0.1,0.1,0.05,0.03,0.09,0.0,0.0,22.2,16.4,4.55,1.07,1.22,0.88,0.2,8.66,0.0,0.01,1.0,0,0,0.0,0.0,0.0,0.09,0.05,0.23,0.05,0.05,0.17,0.0,0.0,0.13,0.13,19.91</t>
+  </si>
+  <si>
+    <t>33.5,5.22,0.88,0.49,1.79,1.0,13.33,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.12,0.09,0.21,0.06,0.06,0.1,0.01,0.0,0.0,0.0,16.47,23.0,5.16,0.9,0.73,1.23,0.33,12.99,0.0,0.01,1.0,0,0,0.0,0.0,0.0,0.16,0.07,0.19,0.03,0.03,0.13,0.01,0.0,0.0,0.0,19.31</t>
+  </si>
+  <si>
+    <t>16.17,4.97,1.27,1.47,0.87,0.67,10.86,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.14,0.1,0.21,0.05,0.05,0.12,0.01,0.09,0.0,0.0,13.06,15.25,4.9,0.8,0.98,0.82,0.0,9.92,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.15,0.11,0.16,0.1,0.1,0.05,0.03,0.09,0.0,0.0,22.2</t>
+  </si>
+  <si>
+    <t>17.0,4.98,0.67,0.73,0.91,0.0,11.28,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.14,0.08,0.16,0.08,0.08,0.14,0.0,0.0,0.0,0.0,17.11,26.75,5.08,1.4,0.98,1.43,0.75,12.11,0.0,0.02,1.0,0,0,0.0,0.0,0.0,0.19,0.05,0.18,0.12,0.12,0.16,0.01,0.0,0.0,0.0,11.41</t>
+  </si>
+  <si>
+    <t>16.4,4.55,1.07,1.22,0.88,0.2,8.66,0.0,0.01,1.0,0,0,0.0,0.0,0.0,0.09,0.05,0.23,0.05,0.05,0.17,0.0,0.0,0.13,0.13,19.91,14.71,5.36,1.35,1.71,0.79,0.29,12.33,0.0,0.02,1.0,0,0,0.0,0.0,0.0,0.18,0.1,0.19,0.07,0.07,0.06,0.01,0.0,0.13,0.13,12.48</t>
+  </si>
+  <si>
+    <t>23.0,5.16,0.9,0.73,1.23,0.33,12.99,0.0,0.01,1.0,0,0,0.0,0.0,0.0,0.16,0.07,0.19,0.03,0.03,0.13,0.01,0.0,0.0,0.0,19.31,33.5,5.22,0.88,0.49,1.79,1.0,13.33,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.12,0.09,0.21,0.06,0.06,0.1,0.01,0.0,0.0,0.0,16.47</t>
+  </si>
+  <si>
+    <t>13.0,5.55,0.85,1.22,0.7,0.2,13.32,0.0,0.02,1.0,0,0,0.0,0.0,0.0,0.14,0.11,0.25,0.05,0.05,0.05,0.05,0.27,0.13,0.13,10.9,21.33,5.36,0.84,0.73,1.14,0.33,14.05,0.0,0.03,1.0,0,0,0.0,0.0,0.0,0.19,0.06,0.14,0.09,0.09,0.16,0.05,0.09,0.0,0.0,14.0</t>
+  </si>
+  <si>
+    <t>13.25,4.75,1.39,1.96,0.71,0.25,8.94,0.0,0.01,1.0,0,0,0.0,0.0,0.0,0.11,0.08,0.26,0.02,0.02,0.2,0.01,0.0,0.0,0.0,25.13,16.25,5.34,0.85,0.98,0.87,0.25,12.59,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.17,0.08,0.23,0.02,0.02,0.11,0.0,0.0,0.13,0.13,15.39</t>
+  </si>
+  <si>
+    <t>17.0,4.98,0.67,0.73,0.91,0.0,11.28,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.14,0.08,0.16,0.08,0.08,0.14,0.0,0.0,0.0,0.0,17.11,16.83,4.52,1.32,1.47,0.9,0.0,8.23,0.0,0.02,1.0,0,0,0.0,0.0,0.0,0.14,0.05,0.25,0.07,0.07,0.19,0.0,0.0,0.0,0.0,15.93</t>
+  </si>
+  <si>
+    <t>15.25,4.9,0.8,0.98,0.82,0.0,9.92,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.15,0.11,0.16,0.1,0.1,0.05,0.03,0.09,0.0,0.0,22.2,24.0,5.21,0.63,0.49,1.28,0.5,12.61,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.15,0.02,0.25,0.08,0.08,0.1,0.04,0.0,0.0,0.0,23.67</t>
+  </si>
+  <si>
+    <t>17.0,4.98,0.67,0.73,0.91,0.0,11.28,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.14,0.08,0.16,0.08,0.08,0.14,0.0,0.0,0.0,0.0,17.11,21.33,5.36,0.84,0.73,1.14,0.33,14.05,0.0,0.03,1.0,0,0,0.0,0.0,0.0,0.19,0.06,0.14,0.09,0.09,0.16,0.05,0.09,0.0,0.0,14.0</t>
+  </si>
+  <si>
+    <t>13.0,5.55,0.85,1.22,0.7,0.2,13.32,0.0,0.02,1.0,0,0,0.0,0.0,0.0,0.14,0.11,0.25,0.05,0.05,0.05,0.05,0.27,0.13,0.13,10.9,21.0,5.03,1.37,1.22,1.12,0.2,11.74,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.11,0.04,0.25,0.09,0.09,0.1,0.01,0.0,0.13,0.13,14.94</t>
+  </si>
+  <si>
+    <t>13.25,4.75,1.39,1.96,0.71,0.25,8.94,0.0,0.01,1.0,0,0,0.0,0.0,0.0,0.11,0.08,0.26,0.02,0.02,0.2,0.01,0.0,0.0,0.0,25.13,26.75,5.08,1.4,0.98,1.43,0.75,12.11,0.0,0.02,1.0,0,0,0.0,0.0,0.0,0.19,0.05,0.18,0.12,0.12,0.16,0.01,0.0,0.0,0.0,11.41</t>
+  </si>
+  <si>
+    <t>14.71,5.36,1.35,1.71,0.79,0.29,12.33,0.0,0.02,1.0,0,0,0.0,0.0,0.0,0.18,0.1,0.19,0.07,0.07,0.06,0.01,0.0,0.13,0.13,12.48,39.0,5.42,1.02,0.49,2.09,1.0,13.98,0.0,0.04,1.5,0,0,0.0,0.0,0.0,0.09,0.1,0.21,0.04,0.04,0.1,0.01,0.0,0.0,0.0,13.05</t>
+  </si>
+  <si>
+    <t>16.17,4.97,1.27,1.47,0.87,0.67,10.86,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.14,0.1,0.21,0.05,0.05,0.12,0.01,0.09,0.0,0.0,13.06,20.25,4.81,1.06,0.98,1.08,0.25,10.25,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.07,0.1,0.22,0.06,0.06,0.15,0.01,0.0,0.0,0.0,26.38</t>
+  </si>
+  <si>
+    <t>16.25,5.34,0.85,0.98,0.87,0.25,12.59,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.17,0.08,0.23,0.02,0.02,0.11,0.0,0.0,0.13,0.13,15.39,21.0,5.03,1.37,1.22,1.12,0.2,11.74,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.11,0.04,0.25,0.09,0.09,0.1,0.01,0.0,0.13,0.13,14.94</t>
+  </si>
+  <si>
+    <t>33.5,5.22,0.88,0.49,1.79,1.0,13.33,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.12,0.09,0.21,0.06,0.06,0.1,0.01,0.0,0.0,0.0,16.47,18.5,5.18,0.97,0.98,0.99,0.5,12.24,0.0,0.01,1.0,0,0,0.0,0.0,0.0,0.15,0.11,0.22,0.03,0.03,0.14,0.0,0.0,0.0,0.0,22.2</t>
+  </si>
+  <si>
+    <t>27.25,4.91,1.43,0.98,1.46,0.75,10.46,0.0,0.02,1.0,0,0,0.0,0.0,0.0,0.15,0.07,0.22,0.06,0.06,0.16,0.01,0.0,0.13,0.13,9.52,13.5,5.05,1.41,1.96,0.72,0.25,10.37,0.0,0.01,1.0,0,0,0.0,0.0,0.0,0.1,0.06,0.18,0.06,0.06,0.09,0.02,0.18,0.13,0.13,12.2</t>
+  </si>
+  <si>
+    <t>15.25,4.9,0.8,0.98,0.82,0.0,9.92,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.15,0.11,0.16,0.1,0.1,0.05,0.03,0.09,0.0,0.0,22.2,66.0,4.82,0.86,0.24,3.53,3.0,11.9,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.15,0.05,0.23,0.09,0.09,0.08,0.02,0.0,0.0,0.0,18.14</t>
+  </si>
+  <si>
+    <t>21.6,5.14,1.41,1.22,1.16,0.8,11.9,0.0,0.02,1.0,0,0,0.0,0.0,0.0,0.17,0.05,0.2,0.05,0.05,0.21,0.0,0.0,0.0,0.0,8.33,39.0,5.42,1.02,0.49,2.09,1.0,13.98,0.0,0.04,1.5,0,0,0.0,0.0,0.0,0.09,0.1,0.21,0.04,0.04,0.1,0.01,0.0,0.0,0.0,13.05</t>
+  </si>
+  <si>
+    <t>18.25,5.08,0.96,0.98,0.98,0.5,11.98,0.0,0.03,1.0,0,0,0.0,0.0,0.0,0.15,0.07,0.18,0.07,0.07,0.12,0.0,0.0,0.0,0.0,16.85,66.0,4.82,0.86,0.24,3.53,3.0,11.9,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.15,0.05,0.23,0.09,0.09,0.08,0.02,0.0,0.0,0.0,18.14</t>
+  </si>
+  <si>
+    <t>20.25,4.81,1.06,0.98,1.08,0.25,10.25,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.07,0.1,0.22,0.06,0.06,0.15,0.01,0.0,0.0,0.0,26.38,26.75,5.08,1.4,0.98,1.43,0.75,12.11,0.0,0.02,1.0,0,0,0.0,0.0,0.0,0.19,0.05,0.18,0.12,0.12,0.16,0.01,0.0,0.0,0.0,11.41</t>
+  </si>
+  <si>
+    <t>13.5,5.05,1.41,1.96,0.72,0.25,10.37,0.0,0.01,1.0,0,0,0.0,0.0,0.0,0.1,0.06,0.18,0.06,0.06,0.09,0.02,0.18,0.13,0.13,12.2,13.0,5.55,0.85,1.22,0.7,0.2,13.32,0.0,0.02,1.0,0,0,0.0,0.0,0.0,0.14,0.11,0.25,0.05,0.05,0.05,0.05,0.27,0.13,0.13,10.9</t>
+  </si>
+  <si>
+    <t>20.25,4.81,1.06,0.98,1.08,0.25,10.25,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.07,0.1,0.22,0.06,0.06,0.15,0.01,0.0,0.0,0.0,26.38,16.83,4.52,1.32,1.47,0.9,0.0,8.23,0.0,0.02,1.0,0,0,0.0,0.0,0.0,0.14,0.05,0.25,0.07,0.07,0.19,0.0,0.0,0.0,0.0,15.93</t>
+  </si>
+  <si>
+    <t>15.0,4.64,0.98,1.22,0.8,0.2,8.88,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.11,0.09,0.2,0.09,0.09,0.13,0.0,0.0,0.13,0.13,25.5,14.71,5.36,1.35,1.71,0.79,0.29,12.33,0.0,0.02,1.0,0,0,0.0,0.0,0.0,0.18,0.1,0.19,0.07,0.07,0.06,0.01,0.0,0.13,0.13,12.48</t>
+  </si>
+  <si>
+    <t>16.25,5.34,0.85,0.98,0.87,0.25,12.59,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.17,0.08,0.23,0.02,0.02,0.11,0.0,0.0,0.13,0.13,15.39,33.5,5.22,0.88,0.49,1.79,1.0,13.33,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.12,0.09,0.21,0.06,0.06,0.1,0.01,0.0,0.0,0.0,16.47</t>
+  </si>
+  <si>
+    <t>18.0,5.06,0.94,0.98,0.96,0.5,11.95,0.0,0.01,1.0,0,0,0.0,0.0,0.0,0.15,0.11,0.18,0.08,0.08,0.15,0.0,0.0,0.0,0.0,15.13,39.0,5.42,1.02,0.49,2.09,1.0,13.98,0.0,0.04,1.5,0,0,0.0,0.0,0.0,0.09,0.1,0.21,0.04,0.04,0.1,0.01,0.0,0.0,0.0,13.05</t>
   </si>
 </sst>
 </file>
